--- a/Android/ExcelData/LevelData.xlsx
+++ b/Android/ExcelData/LevelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41F1DB4-93EF-4863-8D2A-0C7EB7361AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750DE89C-5A6F-40F4-9229-8F5C6C4DA89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="user level" sheetId="2" r:id="rId1"/>
@@ -88,14 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PlayerCharacterLevelData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerLevelData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,6 +105,14 @@
   </si>
   <si>
     <t>player_level_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Level_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Character_Level_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2A59B9-3298-4E12-A5E8-BD15BB140FCC}">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -562,7 +562,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D1">
         <v>1.1000000000000001</v>
@@ -598,16 +598,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2219,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7886D64-A37B-4225-9870-6F64509A6B25}">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2232,7 +2232,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D1">
         <v>1.1399999999999999</v>
@@ -2268,16 +2268,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">

--- a/Android/ExcelData/LevelData.xlsx
+++ b/Android/ExcelData/LevelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750DE89C-5A6F-40F4-9229-8F5C6C4DA89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD404F21-96E7-4F71-BA8F-0113DB03550B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
+    <workbookView xWindow="40935" yWindow="2055" windowWidth="27570" windowHeight="18270" activeTab="1" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="user level" sheetId="2" r:id="rId1"/>
@@ -551,7 +551,7 @@
   <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -632,12 +632,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4">
-        <f>SUM($D$5:D6) - D6</f>
         <v>10</v>
       </c>
       <c r="D6" s="4">
-        <f>CEILING($D$5*POWER($D$1,B6-1),1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -648,12 +646,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="4">
-        <f>SUM($D$5:D7) - D7</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ref="D7:D70" si="0">CEILING($D$5*POWER($D$1,B7-1),1)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -664,12 +660,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4">
-        <f>SUM($D$5:D8) - D8</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -680,12 +674,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="4">
-        <f>SUM($D$5:D9) - D9</f>
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -696,12 +688,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="4">
-        <f>SUM($D$5:D10) - D10</f>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -712,12 +702,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="4">
-        <f>SUM($D$5:D11) - D11</f>
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -728,12 +716,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="4">
-        <f>SUM($D$5:D12) - D12</f>
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -744,12 +730,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="4">
-        <f>SUM($D$5:D13) - D13</f>
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -760,12 +744,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="4">
-        <f>SUM($D$5:D14) - D14</f>
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -776,12 +758,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="4">
-        <f>SUM($D$5:D15) - D15</f>
-        <v>164</v>
+        <v>214</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -792,12 +772,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="4">
-        <f>SUM($D$5:D16) - D16</f>
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -808,12 +786,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="4">
-        <f>SUM($D$5:D17) - D17</f>
-        <v>219</v>
+        <v>298</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -824,12 +800,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="4">
-        <f>SUM($D$5:D18) - D18</f>
-        <v>251</v>
+        <v>346</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -840,12 +814,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="4">
-        <f>SUM($D$5:D19) - D19</f>
-        <v>286</v>
+        <v>398</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -856,12 +828,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="4">
-        <f>SUM($D$5:D20) - D20</f>
-        <v>324</v>
+        <v>455</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -872,12 +842,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="4">
-        <f>SUM($D$5:D21) - D21</f>
-        <v>366</v>
+        <v>517</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -888,12 +856,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="4">
-        <f>SUM($D$5:D22) - D22</f>
-        <v>412</v>
+        <v>584</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -904,12 +870,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="4">
-        <f>SUM($D$5:D23) - D23</f>
-        <v>463</v>
+        <v>656</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -920,12 +884,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="4">
-        <f>SUM($D$5:D24) - D24</f>
-        <v>519</v>
+        <v>734</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -936,12 +898,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="4">
-        <f>SUM($D$5:D25) - D25</f>
-        <v>581</v>
+        <v>818</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="0"/>
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -952,12 +912,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="4">
-        <f>SUM($D$5:D26) - D26</f>
-        <v>649</v>
+        <v>908</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -968,12 +926,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="4">
-        <f>SUM($D$5:D27) - D27</f>
-        <v>724</v>
+        <v>1004</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="0"/>
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -984,12 +940,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="4">
-        <f>SUM($D$5:D28) - D28</f>
-        <v>806</v>
+        <v>1106</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1000,12 +954,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="4">
-        <f>SUM($D$5:D29) - D29</f>
-        <v>896</v>
+        <v>1214</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="0"/>
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1016,12 +968,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="4">
-        <f>SUM($D$5:D30) - D30</f>
-        <v>995</v>
+        <v>1329</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="0"/>
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1032,12 +982,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="4">
-        <f>SUM($D$5:D31) - D31</f>
-        <v>1104</v>
+        <v>1451</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1048,12 +996,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="4">
-        <f>SUM($D$5:D32) - D32</f>
-        <v>1224</v>
+        <v>1580</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="0"/>
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1064,12 +1010,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="4">
-        <f>SUM($D$5:D33) - D33</f>
-        <v>1356</v>
+        <v>1716</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="0"/>
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1080,12 +1024,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="4">
-        <f>SUM($D$5:D34) - D34</f>
-        <v>1501</v>
+        <v>1860</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="0"/>
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1096,12 +1038,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="4">
-        <f>SUM($D$5:D35) - D35</f>
-        <v>1660</v>
+        <v>2012</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="0"/>
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1112,12 +1052,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="4">
-        <f>SUM($D$5:D36) - D36</f>
-        <v>1835</v>
+        <v>2172</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="0"/>
-        <v>192</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1128,12 +1066,10 @@
         <v>33</v>
       </c>
       <c r="C37" s="4">
-        <f>SUM($D$5:D37) - D37</f>
-        <v>2027</v>
+        <v>2340</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="0"/>
-        <v>212</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1144,12 +1080,10 @@
         <v>34</v>
       </c>
       <c r="C38" s="4">
-        <f>SUM($D$5:D38) - D38</f>
-        <v>2239</v>
+        <v>2516</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="0"/>
-        <v>233</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1160,12 +1094,10 @@
         <v>35</v>
       </c>
       <c r="C39" s="4">
-        <f>SUM($D$5:D39) - D39</f>
-        <v>2472</v>
+        <v>2700</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="0"/>
-        <v>256</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1176,12 +1108,10 @@
         <v>36</v>
       </c>
       <c r="C40" s="4">
-        <f>SUM($D$5:D40) - D40</f>
-        <v>2728</v>
+        <v>2893</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="0"/>
-        <v>282</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1192,12 +1122,10 @@
         <v>37</v>
       </c>
       <c r="C41" s="4">
-        <f>SUM($D$5:D41) - D41</f>
-        <v>3010</v>
+        <v>3095</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="0"/>
-        <v>310</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1208,12 +1136,10 @@
         <v>38</v>
       </c>
       <c r="C42" s="4">
-        <f>SUM($D$5:D42) - D42</f>
-        <v>3320</v>
+        <v>3306</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="0"/>
-        <v>341</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1224,12 +1150,10 @@
         <v>39</v>
       </c>
       <c r="C43" s="4">
-        <f>SUM($D$5:D43) - D43</f>
-        <v>3661</v>
+        <v>3526</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" si="0"/>
-        <v>375</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1240,12 +1164,10 @@
         <v>40</v>
       </c>
       <c r="C44" s="4">
-        <f>SUM($D$5:D44) - D44</f>
-        <v>4036</v>
+        <v>3756</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="0"/>
-        <v>412</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1256,12 +1178,10 @@
         <v>41</v>
       </c>
       <c r="C45" s="4">
-        <f>SUM($D$5:D45) - D45</f>
-        <v>4448</v>
+        <v>3996</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="0"/>
-        <v>453</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1272,12 +1192,10 @@
         <v>42</v>
       </c>
       <c r="C46" s="4">
-        <f>SUM($D$5:D46) - D46</f>
-        <v>4901</v>
+        <v>4246</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="0"/>
-        <v>498</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1288,12 +1206,10 @@
         <v>43</v>
       </c>
       <c r="C47" s="4">
-        <f>SUM($D$5:D47) - D47</f>
-        <v>5399</v>
+        <v>4506</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="0"/>
-        <v>548</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1304,12 +1220,10 @@
         <v>44</v>
       </c>
       <c r="C48" s="4">
-        <f>SUM($D$5:D48) - D48</f>
-        <v>5947</v>
+        <v>4776</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="0"/>
-        <v>603</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1320,12 +1234,10 @@
         <v>45</v>
       </c>
       <c r="C49" s="4">
-        <f>SUM($D$5:D49) - D49</f>
-        <v>6550</v>
+        <v>5056</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="0"/>
-        <v>663</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1336,12 +1248,10 @@
         <v>46</v>
       </c>
       <c r="C50" s="4">
-        <f>SUM($D$5:D50) - D50</f>
-        <v>7213</v>
+        <v>5347</v>
       </c>
       <c r="D50" s="4">
-        <f t="shared" si="0"/>
-        <v>729</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1352,12 +1262,10 @@
         <v>47</v>
       </c>
       <c r="C51" s="4">
-        <f>SUM($D$5:D51) - D51</f>
-        <v>7942</v>
+        <v>5649</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="0"/>
-        <v>802</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1368,12 +1276,10 @@
         <v>48</v>
       </c>
       <c r="C52" s="4">
-        <f>SUM($D$5:D52) - D52</f>
-        <v>8744</v>
+        <v>5962</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="0"/>
-        <v>882</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1384,12 +1290,10 @@
         <v>49</v>
       </c>
       <c r="C53" s="4">
-        <f>SUM($D$5:D53) - D53</f>
-        <v>9626</v>
+        <v>6286</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="0"/>
-        <v>971</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1400,12 +1304,10 @@
         <v>50</v>
       </c>
       <c r="C54" s="4">
-        <f>SUM($D$5:D54) - D54</f>
-        <v>10597</v>
+        <v>6622</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="0"/>
-        <v>1068</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1416,12 +1318,10 @@
         <v>51</v>
       </c>
       <c r="C55" s="4">
-        <f>SUM($D$5:D55) - D55</f>
-        <v>11665</v>
+        <v>6970</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="0"/>
-        <v>1174</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1432,12 +1332,10 @@
         <v>52</v>
       </c>
       <c r="C56" s="4">
-        <f>SUM($D$5:D56) - D56</f>
-        <v>12839</v>
+        <v>7330</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="0"/>
-        <v>1292</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1448,12 +1346,10 @@
         <v>53</v>
       </c>
       <c r="C57" s="4">
-        <f>SUM($D$5:D57) - D57</f>
-        <v>14131</v>
+        <v>7702</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="0"/>
-        <v>1421</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1464,12 +1360,10 @@
         <v>54</v>
       </c>
       <c r="C58" s="4">
-        <f>SUM($D$5:D58) - D58</f>
-        <v>15552</v>
+        <v>8086</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="0"/>
-        <v>1563</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1480,12 +1374,10 @@
         <v>55</v>
       </c>
       <c r="C59" s="4">
-        <f>SUM($D$5:D59) - D59</f>
-        <v>17115</v>
+        <v>8482</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="0"/>
-        <v>1719</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1496,12 +1388,10 @@
         <v>56</v>
       </c>
       <c r="C60" s="4">
-        <f>SUM($D$5:D60) - D60</f>
-        <v>18834</v>
+        <v>8891</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" si="0"/>
-        <v>1891</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1512,12 +1402,10 @@
         <v>57</v>
       </c>
       <c r="C61" s="4">
-        <f>SUM($D$5:D61) - D61</f>
-        <v>20725</v>
+        <v>9313</v>
       </c>
       <c r="D61" s="4">
-        <f t="shared" si="0"/>
-        <v>2080</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1528,12 +1416,10 @@
         <v>58</v>
       </c>
       <c r="C62" s="4">
-        <f>SUM($D$5:D62) - D62</f>
-        <v>22805</v>
+        <v>9748</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" si="0"/>
-        <v>2288</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1544,12 +1430,10 @@
         <v>59</v>
       </c>
       <c r="C63" s="4">
-        <f>SUM($D$5:D63) - D63</f>
-        <v>25093</v>
+        <v>10196</v>
       </c>
       <c r="D63" s="4">
-        <f t="shared" si="0"/>
-        <v>2517</v>
+        <v>462</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1560,12 +1444,10 @@
         <v>60</v>
       </c>
       <c r="C64" s="4">
-        <f>SUM($D$5:D64) - D64</f>
-        <v>27610</v>
+        <v>10658</v>
       </c>
       <c r="D64" s="4">
-        <f t="shared" si="0"/>
-        <v>2769</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1576,12 +1458,10 @@
         <v>61</v>
       </c>
       <c r="C65" s="4">
-        <f>SUM($D$5:D65) - D65</f>
-        <v>30379</v>
+        <v>11134</v>
       </c>
       <c r="D65" s="4">
-        <f t="shared" si="0"/>
-        <v>3045</v>
+        <v>490</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1592,12 +1472,10 @@
         <v>62</v>
       </c>
       <c r="C66" s="4">
-        <f>SUM($D$5:D66) - D66</f>
-        <v>33424</v>
+        <v>11624</v>
       </c>
       <c r="D66" s="4">
-        <f t="shared" si="0"/>
-        <v>3350</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1608,12 +1486,10 @@
         <v>63</v>
       </c>
       <c r="C67" s="4">
-        <f>SUM($D$5:D67) - D67</f>
-        <v>36774</v>
+        <v>12128</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" si="0"/>
-        <v>3685</v>
+        <v>518</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1624,12 +1500,10 @@
         <v>64</v>
       </c>
       <c r="C68" s="4">
-        <f>SUM($D$5:D68) - D68</f>
-        <v>40459</v>
+        <v>12646</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" si="0"/>
-        <v>4053</v>
+        <v>532</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1640,12 +1514,10 @@
         <v>65</v>
       </c>
       <c r="C69" s="4">
-        <f>SUM($D$5:D69) - D69</f>
-        <v>44512</v>
+        <v>13178</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" si="0"/>
-        <v>4458</v>
+        <v>547</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1656,12 +1528,10 @@
         <v>66</v>
       </c>
       <c r="C70" s="4">
-        <f>SUM($D$5:D70) - D70</f>
-        <v>48970</v>
+        <v>13725</v>
       </c>
       <c r="D70" s="4">
-        <f t="shared" si="0"/>
-        <v>4904</v>
+        <v>562</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1672,12 +1542,10 @@
         <v>67</v>
       </c>
       <c r="C71" s="4">
-        <f>SUM($D$5:D71) - D71</f>
-        <v>53874</v>
+        <v>14287</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" ref="D71:D104" si="1">CEILING($D$5*POWER($D$1,B71-1),1)</f>
-        <v>5395</v>
+        <v>577</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1688,12 +1556,10 @@
         <v>68</v>
       </c>
       <c r="C72" s="4">
-        <f>SUM($D$5:D72) - D72</f>
-        <v>59269</v>
+        <v>14864</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" si="1"/>
-        <v>5934</v>
+        <v>592</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1704,12 +1570,10 @@
         <v>69</v>
       </c>
       <c r="C73" s="4">
-        <f>SUM($D$5:D73) - D73</f>
-        <v>65203</v>
+        <v>15456</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" si="1"/>
-        <v>6527</v>
+        <v>608</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1720,12 +1584,10 @@
         <v>70</v>
       </c>
       <c r="C74" s="4">
-        <f>SUM($D$5:D74) - D74</f>
-        <v>71730</v>
+        <v>16064</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" si="1"/>
-        <v>7180</v>
+        <v>624</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1736,12 +1598,10 @@
         <v>71</v>
       </c>
       <c r="C75" s="4">
-        <f>SUM($D$5:D75) - D75</f>
-        <v>78910</v>
+        <v>16688</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" si="1"/>
-        <v>7898</v>
+        <v>640</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1752,12 +1612,10 @@
         <v>72</v>
       </c>
       <c r="C76" s="4">
-        <f>SUM($D$5:D76) - D76</f>
-        <v>86808</v>
+        <v>17328</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="1"/>
-        <v>8688</v>
+        <v>656</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1768,12 +1626,10 @@
         <v>73</v>
       </c>
       <c r="C77" s="4">
-        <f>SUM($D$5:D77) - D77</f>
-        <v>95496</v>
+        <v>17984</v>
       </c>
       <c r="D77" s="4">
-        <f t="shared" si="1"/>
-        <v>9556</v>
+        <v>672</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1784,12 +1640,10 @@
         <v>74</v>
       </c>
       <c r="C78" s="4">
-        <f>SUM($D$5:D78) - D78</f>
-        <v>105052</v>
+        <v>18656</v>
       </c>
       <c r="D78" s="4">
-        <f t="shared" si="1"/>
-        <v>10512</v>
+        <v>688</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1800,12 +1654,10 @@
         <v>75</v>
       </c>
       <c r="C79" s="4">
-        <f>SUM($D$5:D79) - D79</f>
-        <v>115564</v>
+        <v>19344</v>
       </c>
       <c r="D79" s="4">
-        <f t="shared" si="1"/>
-        <v>11563</v>
+        <v>705</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1816,12 +1668,10 @@
         <v>76</v>
       </c>
       <c r="C80" s="4">
-        <f>SUM($D$5:D80) - D80</f>
-        <v>127127</v>
+        <v>20049</v>
       </c>
       <c r="D80" s="4">
-        <f t="shared" si="1"/>
-        <v>12719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1832,12 +1682,10 @@
         <v>77</v>
       </c>
       <c r="C81" s="4">
-        <f>SUM($D$5:D81) - D81</f>
-        <v>139846</v>
+        <v>20771</v>
       </c>
       <c r="D81" s="4">
-        <f t="shared" si="1"/>
-        <v>13991</v>
+        <v>739</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1848,12 +1696,10 @@
         <v>78</v>
       </c>
       <c r="C82" s="4">
-        <f>SUM($D$5:D82) - D82</f>
-        <v>153837</v>
+        <v>21510</v>
       </c>
       <c r="D82" s="4">
-        <f t="shared" si="1"/>
-        <v>15390</v>
+        <v>756</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1864,12 +1710,10 @@
         <v>79</v>
       </c>
       <c r="C83" s="4">
-        <f>SUM($D$5:D83) - D83</f>
-        <v>169227</v>
+        <v>22266</v>
       </c>
       <c r="D83" s="4">
-        <f t="shared" si="1"/>
-        <v>16929</v>
+        <v>774</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1880,12 +1724,10 @@
         <v>80</v>
       </c>
       <c r="C84" s="4">
-        <f>SUM($D$5:D84) - D84</f>
-        <v>186156</v>
+        <v>23040</v>
       </c>
       <c r="D84" s="4">
-        <f t="shared" si="1"/>
-        <v>18622</v>
+        <v>792</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -1896,12 +1738,10 @@
         <v>81</v>
       </c>
       <c r="C85" s="4">
-        <f>SUM($D$5:D85) - D85</f>
-        <v>204778</v>
+        <v>23832</v>
       </c>
       <c r="D85" s="4">
-        <f t="shared" si="1"/>
-        <v>20485</v>
+        <v>810</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1912,12 +1752,10 @@
         <v>82</v>
       </c>
       <c r="C86" s="4">
-        <f>SUM($D$5:D86) - D86</f>
-        <v>225263</v>
+        <v>24642</v>
       </c>
       <c r="D86" s="4">
-        <f t="shared" si="1"/>
-        <v>22533</v>
+        <v>828</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1928,12 +1766,10 @@
         <v>83</v>
       </c>
       <c r="C87" s="4">
-        <f>SUM($D$5:D87) - D87</f>
-        <v>247796</v>
+        <v>25470</v>
       </c>
       <c r="D87" s="4">
-        <f t="shared" si="1"/>
-        <v>24786</v>
+        <v>846</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1944,12 +1780,10 @@
         <v>84</v>
       </c>
       <c r="C88" s="4">
-        <f>SUM($D$5:D88) - D88</f>
-        <v>272582</v>
+        <v>26316</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" si="1"/>
-        <v>27265</v>
+        <v>864</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -1960,12 +1794,10 @@
         <v>85</v>
       </c>
       <c r="C89" s="4">
-        <f>SUM($D$5:D89) - D89</f>
-        <v>299847</v>
+        <v>27180</v>
       </c>
       <c r="D89" s="4">
-        <f t="shared" si="1"/>
-        <v>29991</v>
+        <v>883</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -1976,12 +1808,10 @@
         <v>86</v>
       </c>
       <c r="C90" s="4">
-        <f>SUM($D$5:D90) - D90</f>
-        <v>329838</v>
+        <v>28063</v>
       </c>
       <c r="D90" s="4">
-        <f t="shared" si="1"/>
-        <v>32990</v>
+        <v>902</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -1992,12 +1822,10 @@
         <v>87</v>
       </c>
       <c r="C91" s="4">
-        <f>SUM($D$5:D91) - D91</f>
-        <v>362828</v>
+        <v>28965</v>
       </c>
       <c r="D91" s="4">
-        <f t="shared" si="1"/>
-        <v>36289</v>
+        <v>921</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2008,12 +1836,10 @@
         <v>88</v>
       </c>
       <c r="C92" s="4">
-        <f>SUM($D$5:D92) - D92</f>
-        <v>399117</v>
+        <v>29886</v>
       </c>
       <c r="D92" s="4">
-        <f t="shared" si="1"/>
-        <v>39918</v>
+        <v>940</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2024,12 +1850,10 @@
         <v>89</v>
       </c>
       <c r="C93" s="4">
-        <f>SUM($D$5:D93) - D93</f>
-        <v>439035</v>
+        <v>30826</v>
       </c>
       <c r="D93" s="4">
-        <f t="shared" si="1"/>
-        <v>43910</v>
+        <v>960</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2040,12 +1864,10 @@
         <v>90</v>
       </c>
       <c r="C94" s="4">
-        <f>SUM($D$5:D94) - D94</f>
-        <v>482945</v>
+        <v>31786</v>
       </c>
       <c r="D94" s="4">
-        <f t="shared" si="1"/>
-        <v>48301</v>
+        <v>980</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2056,12 +1878,10 @@
         <v>91</v>
       </c>
       <c r="C95" s="4">
-        <f>SUM($D$5:D95) - D95</f>
-        <v>531246</v>
+        <v>32766</v>
       </c>
       <c r="D95" s="4">
-        <f t="shared" si="1"/>
-        <v>53131</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2072,12 +1892,10 @@
         <v>92</v>
       </c>
       <c r="C96" s="4">
-        <f>SUM($D$5:D96) - D96</f>
-        <v>584377</v>
+        <v>33766</v>
       </c>
       <c r="D96" s="4">
-        <f t="shared" si="1"/>
-        <v>58444</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2088,12 +1906,10 @@
         <v>93</v>
       </c>
       <c r="C97" s="4">
-        <f>SUM($D$5:D97) - D97</f>
-        <v>642821</v>
+        <v>34786</v>
       </c>
       <c r="D97" s="4">
-        <f t="shared" si="1"/>
-        <v>64288</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2104,12 +1920,10 @@
         <v>94</v>
       </c>
       <c r="C98" s="4">
-        <f>SUM($D$5:D98) - D98</f>
-        <v>707109</v>
+        <v>35826</v>
       </c>
       <c r="D98" s="4">
-        <f t="shared" si="1"/>
-        <v>70717</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2120,12 +1934,10 @@
         <v>95</v>
       </c>
       <c r="C99" s="4">
-        <f>SUM($D$5:D99) - D99</f>
-        <v>777826</v>
+        <v>36886</v>
       </c>
       <c r="D99" s="4">
-        <f t="shared" si="1"/>
-        <v>77788</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2136,12 +1948,10 @@
         <v>96</v>
       </c>
       <c r="C100" s="4">
-        <f>SUM($D$5:D100) - D100</f>
-        <v>855614</v>
+        <v>37967</v>
       </c>
       <c r="D100" s="4">
-        <f t="shared" si="1"/>
-        <v>85567</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2152,12 +1962,10 @@
         <v>97</v>
       </c>
       <c r="C101" s="4">
-        <f>SUM($D$5:D101) - D101</f>
-        <v>941181</v>
+        <v>39069</v>
       </c>
       <c r="D101" s="4">
-        <f t="shared" si="1"/>
-        <v>94124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2168,12 +1976,10 @@
         <v>98</v>
       </c>
       <c r="C102" s="4">
-        <f>SUM($D$5:D102) - D102</f>
-        <v>1035305</v>
+        <v>40192</v>
       </c>
       <c r="D102" s="4">
-        <f t="shared" si="1"/>
-        <v>103536</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2184,12 +1990,10 @@
         <v>99</v>
       </c>
       <c r="C103" s="4">
-        <f>SUM($D$5:D103) - D103</f>
-        <v>1138841</v>
+        <v>41336</v>
       </c>
       <c r="D103" s="4">
-        <f t="shared" si="1"/>
-        <v>113890</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2200,12 +2004,10 @@
         <v>100</v>
       </c>
       <c r="C104" s="4">
-        <f>SUM($D$5:D104) - D104</f>
-        <v>1252731</v>
+        <v>42502</v>
       </c>
       <c r="D104" s="4">
-        <f t="shared" si="1"/>
-        <v>125279</v>
+        <v>1188</v>
       </c>
     </row>
   </sheetData>
@@ -2220,7 +2022,7 @@
   <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2234,9 +2036,6 @@
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="D1">
-        <v>1.1399999999999999</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2291,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2302,12 +2101,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="4">
-        <f>SUM($D$5:D6) - D6</f>
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4">
-        <f>CEILING($D$5*POWER($D$1,B6-1),1)</f>
-        <v>114</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2318,12 +2115,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="4">
-        <f>SUM($D$5:D7) - D7</f>
-        <v>214</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ref="D7:D70" si="0">CEILING($D$5*POWER($D$1,B7-1),1)</f>
-        <v>130</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2334,12 +2129,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4">
-        <f>SUM($D$5:D8) - D8</f>
-        <v>344</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>149</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2350,12 +2143,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="4">
-        <f>SUM($D$5:D9) - D9</f>
-        <v>493</v>
+        <v>68</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>169</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2366,12 +2157,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="4">
-        <f>SUM($D$5:D10) - D10</f>
-        <v>662</v>
+        <v>94</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>193</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2382,12 +2171,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="4">
-        <f>SUM($D$5:D11) - D11</f>
-        <v>855</v>
+        <v>124</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>220</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2398,12 +2185,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="4">
-        <f>SUM($D$5:D12) - D12</f>
-        <v>1075</v>
+        <v>157</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="0"/>
-        <v>251</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2414,12 +2199,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="4">
-        <f>SUM($D$5:D13) - D13</f>
-        <v>1326</v>
+        <v>194</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>286</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2430,12 +2213,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="4">
-        <f>SUM($D$5:D14) - D14</f>
-        <v>1612</v>
+        <v>234</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="0"/>
-        <v>326</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2446,12 +2227,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="4">
-        <f>SUM($D$5:D15) - D15</f>
-        <v>1938</v>
+        <v>278</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="0"/>
-        <v>371</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2462,12 +2241,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="4">
-        <f>SUM($D$5:D16) - D16</f>
-        <v>2309</v>
+        <v>326</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="0"/>
-        <v>423</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2478,12 +2255,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="4">
-        <f>SUM($D$5:D17) - D17</f>
-        <v>2732</v>
+        <v>377</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="0"/>
-        <v>482</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2494,12 +2269,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="4">
-        <f>SUM($D$5:D18) - D18</f>
-        <v>3214</v>
+        <v>432</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="0"/>
-        <v>550</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2510,12 +2283,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="4">
-        <f>SUM($D$5:D19) - D19</f>
-        <v>3764</v>
+        <v>490</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="0"/>
-        <v>627</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2526,12 +2297,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="4">
-        <f>SUM($D$5:D20) - D20</f>
-        <v>4391</v>
+        <v>552</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="0"/>
-        <v>714</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2542,12 +2311,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="4">
-        <f>SUM($D$5:D21) - D21</f>
-        <v>5105</v>
+        <v>618</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="0"/>
-        <v>814</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2558,12 +2325,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="4">
-        <f>SUM($D$5:D22) - D22</f>
-        <v>5919</v>
+        <v>687</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="0"/>
-        <v>928</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2574,12 +2339,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="4">
-        <f>SUM($D$5:D23) - D23</f>
-        <v>6847</v>
+        <v>760</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="0"/>
-        <v>1058</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2590,12 +2353,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="4">
-        <f>SUM($D$5:D24) - D24</f>
-        <v>7905</v>
+        <v>836</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="0"/>
-        <v>1206</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2606,12 +2367,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="4">
-        <f>SUM($D$5:D25) - D25</f>
-        <v>9111</v>
+        <v>916</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="0"/>
-        <v>1375</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2622,12 +2381,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="4">
-        <f>SUM($D$5:D26) - D26</f>
-        <v>10486</v>
+        <v>1000</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="0"/>
-        <v>1567</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2638,12 +2395,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="4">
-        <f>SUM($D$5:D27) - D27</f>
-        <v>12053</v>
+        <v>1087</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="0"/>
-        <v>1787</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2654,12 +2409,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="4">
-        <f>SUM($D$5:D28) - D28</f>
-        <v>13840</v>
+        <v>1178</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="0"/>
-        <v>2037</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2670,12 +2423,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="4">
-        <f>SUM($D$5:D29) - D29</f>
-        <v>15877</v>
+        <v>1272</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="0"/>
-        <v>2322</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2686,12 +2437,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="4">
-        <f>SUM($D$5:D30) - D30</f>
-        <v>18199</v>
+        <v>1370</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="0"/>
-        <v>2647</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2702,12 +2451,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="4">
-        <f>SUM($D$5:D31) - D31</f>
-        <v>20846</v>
+        <v>1472</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="0"/>
-        <v>3017</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2718,12 +2465,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="4">
-        <f>SUM($D$5:D32) - D32</f>
-        <v>23863</v>
+        <v>1577</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="0"/>
-        <v>3439</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2734,12 +2479,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="4">
-        <f>SUM($D$5:D33) - D33</f>
-        <v>27302</v>
+        <v>1686</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="0"/>
-        <v>3921</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2750,12 +2493,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="4">
-        <f>SUM($D$5:D34) - D34</f>
-        <v>31223</v>
+        <v>1798</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="0"/>
-        <v>4470</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2766,12 +2507,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="4">
-        <f>SUM($D$5:D35) - D35</f>
-        <v>35693</v>
+        <v>1914</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="0"/>
-        <v>5096</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2782,12 +2521,10 @@
         <v>32</v>
       </c>
       <c r="C36" s="4">
-        <f>SUM($D$5:D36) - D36</f>
-        <v>40789</v>
+        <v>2034</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="0"/>
-        <v>5809</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2798,12 +2535,10 @@
         <v>33</v>
       </c>
       <c r="C37" s="4">
-        <f>SUM($D$5:D37) - D37</f>
-        <v>46598</v>
+        <v>2157</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="0"/>
-        <v>6622</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2814,12 +2549,10 @@
         <v>34</v>
       </c>
       <c r="C38" s="4">
-        <f>SUM($D$5:D38) - D38</f>
-        <v>53220</v>
+        <v>2284</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="0"/>
-        <v>7549</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2830,12 +2563,10 @@
         <v>35</v>
       </c>
       <c r="C39" s="4">
-        <f>SUM($D$5:D39) - D39</f>
-        <v>60769</v>
+        <v>2414</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="0"/>
-        <v>8606</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2846,12 +2577,10 @@
         <v>36</v>
       </c>
       <c r="C40" s="4">
-        <f>SUM($D$5:D40) - D40</f>
-        <v>69375</v>
+        <v>2548</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="0"/>
-        <v>9811</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2862,12 +2591,10 @@
         <v>37</v>
       </c>
       <c r="C41" s="4">
-        <f>SUM($D$5:D41) - D41</f>
-        <v>79186</v>
+        <v>2686</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="0"/>
-        <v>11184</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2878,12 +2605,10 @@
         <v>38</v>
       </c>
       <c r="C42" s="4">
-        <f>SUM($D$5:D42) - D42</f>
-        <v>90370</v>
+        <v>2827</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="0"/>
-        <v>12750</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2894,12 +2619,10 @@
         <v>39</v>
       </c>
       <c r="C43" s="4">
-        <f>SUM($D$5:D43) - D43</f>
-        <v>103120</v>
+        <v>2972</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" si="0"/>
-        <v>14534</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2910,12 +2633,10 @@
         <v>40</v>
       </c>
       <c r="C44" s="4">
-        <f>SUM($D$5:D44) - D44</f>
-        <v>117654</v>
+        <v>3120</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="0"/>
-        <v>16569</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2926,12 +2647,10 @@
         <v>41</v>
       </c>
       <c r="C45" s="4">
-        <f>SUM($D$5:D45) - D45</f>
-        <v>134223</v>
+        <v>3272</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="0"/>
-        <v>18889</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2942,12 +2661,10 @@
         <v>42</v>
       </c>
       <c r="C46" s="4">
-        <f>SUM($D$5:D46) - D46</f>
-        <v>153112</v>
+        <v>3428</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="0"/>
-        <v>21533</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2958,12 +2675,10 @@
         <v>43</v>
       </c>
       <c r="C47" s="4">
-        <f>SUM($D$5:D47) - D47</f>
-        <v>174645</v>
+        <v>3587</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="0"/>
-        <v>24548</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2974,12 +2689,10 @@
         <v>44</v>
       </c>
       <c r="C48" s="4">
-        <f>SUM($D$5:D48) - D48</f>
-        <v>199193</v>
+        <v>3750</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="0"/>
-        <v>27984</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2990,12 +2703,10 @@
         <v>45</v>
       </c>
       <c r="C49" s="4">
-        <f>SUM($D$5:D49) - D49</f>
-        <v>227177</v>
+        <v>3916</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="0"/>
-        <v>31902</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3006,12 +2717,10 @@
         <v>46</v>
       </c>
       <c r="C50" s="4">
-        <f>SUM($D$5:D50) - D50</f>
-        <v>259079</v>
+        <v>4086</v>
       </c>
       <c r="D50" s="4">
-        <f t="shared" si="0"/>
-        <v>36368</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -3022,12 +2731,10 @@
         <v>47</v>
       </c>
       <c r="C51" s="4">
-        <f>SUM($D$5:D51) - D51</f>
-        <v>295447</v>
+        <v>4260</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="0"/>
-        <v>41460</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3038,12 +2745,10 @@
         <v>48</v>
       </c>
       <c r="C52" s="4">
-        <f>SUM($D$5:D52) - D52</f>
-        <v>336907</v>
+        <v>4437</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="0"/>
-        <v>47264</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -3054,12 +2759,10 @@
         <v>49</v>
       </c>
       <c r="C53" s="4">
-        <f>SUM($D$5:D53) - D53</f>
-        <v>384171</v>
+        <v>4618</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="0"/>
-        <v>53881</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3070,12 +2773,10 @@
         <v>50</v>
       </c>
       <c r="C54" s="4">
-        <f>SUM($D$5:D54) - D54</f>
-        <v>438052</v>
+        <v>4802</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="0"/>
-        <v>61424</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3086,12 +2787,10 @@
         <v>51</v>
       </c>
       <c r="C55" s="4">
-        <f>SUM($D$5:D55) - D55</f>
-        <v>499476</v>
+        <v>4990</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="0"/>
-        <v>70024</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -3102,12 +2801,10 @@
         <v>52</v>
       </c>
       <c r="C56" s="4">
-        <f>SUM($D$5:D56) - D56</f>
-        <v>569500</v>
+        <v>5182</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="0"/>
-        <v>79827</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3118,12 +2815,10 @@
         <v>53</v>
       </c>
       <c r="C57" s="4">
-        <f>SUM($D$5:D57) - D57</f>
-        <v>649327</v>
+        <v>5377</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="0"/>
-        <v>91003</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3134,12 +2829,10 @@
         <v>54</v>
       </c>
       <c r="C58" s="4">
-        <f>SUM($D$5:D58) - D58</f>
-        <v>740330</v>
+        <v>5576</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="0"/>
-        <v>103743</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3150,12 +2843,10 @@
         <v>55</v>
       </c>
       <c r="C59" s="4">
-        <f>SUM($D$5:D59) - D59</f>
-        <v>844073</v>
+        <v>5778</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="0"/>
-        <v>118267</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -3166,12 +2857,10 @@
         <v>56</v>
       </c>
       <c r="C60" s="4">
-        <f>SUM($D$5:D60) - D60</f>
-        <v>962340</v>
+        <v>5984</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" si="0"/>
-        <v>134824</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3182,12 +2871,10 @@
         <v>57</v>
       </c>
       <c r="C61" s="4">
-        <f>SUM($D$5:D61) - D61</f>
-        <v>1097164</v>
+        <v>6194</v>
       </c>
       <c r="D61" s="4">
-        <f t="shared" si="0"/>
-        <v>153700</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3198,12 +2885,10 @@
         <v>58</v>
       </c>
       <c r="C62" s="4">
-        <f>SUM($D$5:D62) - D62</f>
-        <v>1250864</v>
+        <v>6407</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" si="0"/>
-        <v>175218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -3214,12 +2899,10 @@
         <v>59</v>
       </c>
       <c r="C63" s="4">
-        <f>SUM($D$5:D63) - D63</f>
-        <v>1426082</v>
+        <v>6624</v>
       </c>
       <c r="D63" s="4">
-        <f t="shared" si="0"/>
-        <v>199748</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -3230,12 +2913,10 @@
         <v>60</v>
       </c>
       <c r="C64" s="4">
-        <f>SUM($D$5:D64) - D64</f>
-        <v>1625830</v>
+        <v>6844</v>
       </c>
       <c r="D64" s="4">
-        <f t="shared" si="0"/>
-        <v>227713</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3246,12 +2927,10 @@
         <v>61</v>
       </c>
       <c r="C65" s="4">
-        <f>SUM($D$5:D65) - D65</f>
-        <v>1853543</v>
+        <v>7068</v>
       </c>
       <c r="D65" s="4">
-        <f t="shared" si="0"/>
-        <v>259592</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3262,12 +2941,10 @@
         <v>62</v>
       </c>
       <c r="C66" s="4">
-        <f>SUM($D$5:D66) - D66</f>
-        <v>2113135</v>
+        <v>7296</v>
       </c>
       <c r="D66" s="4">
-        <f t="shared" si="0"/>
-        <v>295935</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3278,12 +2955,10 @@
         <v>63</v>
       </c>
       <c r="C67" s="4">
-        <f>SUM($D$5:D67) - D67</f>
-        <v>2409070</v>
+        <v>7527</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" si="0"/>
-        <v>337366</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3294,12 +2969,10 @@
         <v>64</v>
       </c>
       <c r="C68" s="4">
-        <f>SUM($D$5:D68) - D68</f>
-        <v>2746436</v>
+        <v>7762</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" si="0"/>
-        <v>384597</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3310,12 +2983,10 @@
         <v>65</v>
       </c>
       <c r="C69" s="4">
-        <f>SUM($D$5:D69) - D69</f>
-        <v>3131033</v>
+        <v>8000</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" si="0"/>
-        <v>438441</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3326,12 +2997,10 @@
         <v>66</v>
       </c>
       <c r="C70" s="4">
-        <f>SUM($D$5:D70) - D70</f>
-        <v>3569474</v>
+        <v>8242</v>
       </c>
       <c r="D70" s="4">
-        <f t="shared" si="0"/>
-        <v>499822</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3342,12 +3011,10 @@
         <v>67</v>
       </c>
       <c r="C71" s="4">
-        <f>SUM($D$5:D71) - D71</f>
-        <v>4069296</v>
+        <v>8488</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" ref="D71:D104" si="1">CEILING($D$5*POWER($D$1,B71-1),1)</f>
-        <v>569798</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3358,12 +3025,10 @@
         <v>68</v>
       </c>
       <c r="C72" s="4">
-        <f>SUM($D$5:D72) - D72</f>
-        <v>4639094</v>
+        <v>8737</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" si="1"/>
-        <v>649569</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -3374,12 +3039,10 @@
         <v>69</v>
       </c>
       <c r="C73" s="4">
-        <f>SUM($D$5:D73) - D73</f>
-        <v>5288663</v>
+        <v>8990</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" si="1"/>
-        <v>740509</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3390,12 +3053,10 @@
         <v>70</v>
       </c>
       <c r="C74" s="4">
-        <f>SUM($D$5:D74) - D74</f>
-        <v>6029172</v>
+        <v>9246</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" si="1"/>
-        <v>844180</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3406,12 +3067,10 @@
         <v>71</v>
       </c>
       <c r="C75" s="4">
-        <f>SUM($D$5:D75) - D75</f>
-        <v>6873352</v>
+        <v>9506</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" si="1"/>
-        <v>962365</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -3422,12 +3081,10 @@
         <v>72</v>
       </c>
       <c r="C76" s="4">
-        <f>SUM($D$5:D76) - D76</f>
-        <v>7835717</v>
+        <v>9770</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="1"/>
-        <v>1097096</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -3438,12 +3095,10 @@
         <v>73</v>
       </c>
       <c r="C77" s="4">
-        <f>SUM($D$5:D77) - D77</f>
-        <v>8932813</v>
+        <v>10037</v>
       </c>
       <c r="D77" s="4">
-        <f t="shared" si="1"/>
-        <v>1250689</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3454,12 +3109,10 @@
         <v>74</v>
       </c>
       <c r="C78" s="4">
-        <f>SUM($D$5:D78) - D78</f>
-        <v>10183502</v>
+        <v>10308</v>
       </c>
       <c r="D78" s="4">
-        <f t="shared" si="1"/>
-        <v>1425786</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -3470,12 +3123,10 @@
         <v>75</v>
       </c>
       <c r="C79" s="4">
-        <f>SUM($D$5:D79) - D79</f>
-        <v>11609288</v>
+        <v>10582</v>
       </c>
       <c r="D79" s="4">
-        <f t="shared" si="1"/>
-        <v>1625396</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3486,12 +3137,10 @@
         <v>76</v>
       </c>
       <c r="C80" s="4">
-        <f>SUM($D$5:D80) - D80</f>
-        <v>13234684</v>
+        <v>10860</v>
       </c>
       <c r="D80" s="4">
-        <f t="shared" si="1"/>
-        <v>1852951</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3502,12 +3151,10 @@
         <v>77</v>
       </c>
       <c r="C81" s="4">
-        <f>SUM($D$5:D81) - D81</f>
-        <v>15087635</v>
+        <v>11142</v>
       </c>
       <c r="D81" s="4">
-        <f t="shared" si="1"/>
-        <v>2112364</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3518,12 +3165,10 @@
         <v>78</v>
       </c>
       <c r="C82" s="4">
-        <f>SUM($D$5:D82) - D82</f>
-        <v>17199999</v>
+        <v>11427</v>
       </c>
       <c r="D82" s="4">
-        <f t="shared" si="1"/>
-        <v>2408095</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -3534,12 +3179,10 @@
         <v>79</v>
       </c>
       <c r="C83" s="4">
-        <f>SUM($D$5:D83) - D83</f>
-        <v>19608094</v>
+        <v>11716</v>
       </c>
       <c r="D83" s="4">
-        <f t="shared" si="1"/>
-        <v>2745228</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -3550,12 +3193,10 @@
         <v>80</v>
       </c>
       <c r="C84" s="4">
-        <f>SUM($D$5:D84) - D84</f>
-        <v>22353322</v>
+        <v>12008</v>
       </c>
       <c r="D84" s="4">
-        <f t="shared" si="1"/>
-        <v>3129560</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -3566,12 +3207,10 @@
         <v>81</v>
       </c>
       <c r="C85" s="4">
-        <f>SUM($D$5:D85) - D85</f>
-        <v>25482882</v>
+        <v>12304</v>
       </c>
       <c r="D85" s="4">
-        <f t="shared" si="1"/>
-        <v>3567699</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3582,12 +3221,10 @@
         <v>82</v>
       </c>
       <c r="C86" s="4">
-        <f>SUM($D$5:D86) - D86</f>
-        <v>29050581</v>
+        <v>12604</v>
       </c>
       <c r="D86" s="4">
-        <f t="shared" si="1"/>
-        <v>4067176</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3598,12 +3235,10 @@
         <v>83</v>
       </c>
       <c r="C87" s="4">
-        <f>SUM($D$5:D87) - D87</f>
-        <v>33117757</v>
+        <v>12907</v>
       </c>
       <c r="D87" s="4">
-        <f t="shared" si="1"/>
-        <v>4636581</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3614,12 +3249,10 @@
         <v>84</v>
       </c>
       <c r="C88" s="4">
-        <f>SUM($D$5:D88) - D88</f>
-        <v>37754338</v>
+        <v>13214</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" si="1"/>
-        <v>5285702</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3630,12 +3263,10 @@
         <v>85</v>
       </c>
       <c r="C89" s="4">
-        <f>SUM($D$5:D89) - D89</f>
-        <v>43040040</v>
+        <v>13524</v>
       </c>
       <c r="D89" s="4">
-        <f t="shared" si="1"/>
-        <v>6025701</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3646,12 +3277,10 @@
         <v>86</v>
       </c>
       <c r="C90" s="4">
-        <f>SUM($D$5:D90) - D90</f>
-        <v>49065741</v>
+        <v>13838</v>
       </c>
       <c r="D90" s="4">
-        <f t="shared" si="1"/>
-        <v>6869299</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3662,12 +3291,10 @@
         <v>87</v>
       </c>
       <c r="C91" s="4">
-        <f>SUM($D$5:D91) - D91</f>
-        <v>55935040</v>
+        <v>14156</v>
       </c>
       <c r="D91" s="4">
-        <f t="shared" si="1"/>
-        <v>7831000</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3678,12 +3305,10 @@
         <v>88</v>
       </c>
       <c r="C92" s="4">
-        <f>SUM($D$5:D92) - D92</f>
-        <v>63766040</v>
+        <v>14477</v>
       </c>
       <c r="D92" s="4">
-        <f t="shared" si="1"/>
-        <v>8927340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3694,12 +3319,10 @@
         <v>89</v>
       </c>
       <c r="C93" s="4">
-        <f>SUM($D$5:D93) - D93</f>
-        <v>72693380</v>
+        <v>14802</v>
       </c>
       <c r="D93" s="4">
-        <f t="shared" si="1"/>
-        <v>10177168</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3710,12 +3333,10 @@
         <v>90</v>
       </c>
       <c r="C94" s="4">
-        <f>SUM($D$5:D94) - D94</f>
-        <v>82870548</v>
+        <v>15130</v>
       </c>
       <c r="D94" s="4">
-        <f t="shared" si="1"/>
-        <v>11601971</v>
+        <v>332</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -3726,12 +3347,10 @@
         <v>91</v>
       </c>
       <c r="C95" s="4">
-        <f>SUM($D$5:D95) - D95</f>
-        <v>94472519</v>
+        <v>15462</v>
       </c>
       <c r="D95" s="4">
-        <f t="shared" si="1"/>
-        <v>13226247</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -3742,12 +3361,10 @@
         <v>92</v>
       </c>
       <c r="C96" s="4">
-        <f>SUM($D$5:D96) - D96</f>
-        <v>107698766</v>
+        <v>15798</v>
       </c>
       <c r="D96" s="4">
-        <f t="shared" si="1"/>
-        <v>15077922</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3758,12 +3375,10 @@
         <v>93</v>
       </c>
       <c r="C97" s="4">
-        <f>SUM($D$5:D97) - D97</f>
-        <v>122776688</v>
+        <v>16137</v>
       </c>
       <c r="D97" s="4">
-        <f t="shared" si="1"/>
-        <v>17188831</v>
+        <v>343</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3774,12 +3389,10 @@
         <v>94</v>
       </c>
       <c r="C98" s="4">
-        <f>SUM($D$5:D98) - D98</f>
-        <v>139965519</v>
+        <v>16480</v>
       </c>
       <c r="D98" s="4">
-        <f t="shared" si="1"/>
-        <v>19595267</v>
+        <v>346</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3790,12 +3403,10 @@
         <v>95</v>
       </c>
       <c r="C99" s="4">
-        <f>SUM($D$5:D99) - D99</f>
-        <v>159560786</v>
+        <v>16826</v>
       </c>
       <c r="D99" s="4">
-        <f t="shared" si="1"/>
-        <v>22338604</v>
+        <v>350</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3806,12 +3417,10 @@
         <v>96</v>
       </c>
       <c r="C100" s="4">
-        <f>SUM($D$5:D100) - D100</f>
-        <v>181899390</v>
+        <v>17176</v>
       </c>
       <c r="D100" s="4">
-        <f t="shared" si="1"/>
-        <v>25466009</v>
+        <v>354</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3822,12 +3431,10 @@
         <v>97</v>
       </c>
       <c r="C101" s="4">
-        <f>SUM($D$5:D101) - D101</f>
-        <v>207365399</v>
+        <v>17530</v>
       </c>
       <c r="D101" s="4">
-        <f t="shared" si="1"/>
-        <v>29031250</v>
+        <v>357</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3838,12 +3445,10 @@
         <v>98</v>
       </c>
       <c r="C102" s="4">
-        <f>SUM($D$5:D102) - D102</f>
-        <v>236396649</v>
+        <v>17887</v>
       </c>
       <c r="D102" s="4">
-        <f t="shared" si="1"/>
-        <v>33095625</v>
+        <v>361</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3854,12 +3459,10 @@
         <v>99</v>
       </c>
       <c r="C103" s="4">
-        <f>SUM($D$5:D103) - D103</f>
-        <v>269492274</v>
+        <v>18248</v>
       </c>
       <c r="D103" s="4">
-        <f t="shared" si="1"/>
-        <v>37729012</v>
+        <v>364</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -3870,12 +3473,10 @@
         <v>100</v>
       </c>
       <c r="C104" s="4">
-        <f>SUM($D$5:D104) - D104</f>
-        <v>307221286</v>
+        <v>18612</v>
       </c>
       <c r="D104" s="4">
-        <f t="shared" si="1"/>
-        <v>43011074</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/LevelData.xlsx
+++ b/Android/ExcelData/LevelData.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507F34EC-8F85-45D8-AEF8-BF6B789E4AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC380FBF-2E89-4C70-9862-BA525E8A20C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39270" yWindow="810" windowWidth="36375" windowHeight="18900" activeTab="3" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="!Info" sheetId="4" r:id="rId1"/>
     <sheet name="user level" sheetId="2" r:id="rId2"/>
     <sheet name="pc_level" sheetId="1" r:id="rId3"/>
-    <sheet name="!skill_level" sheetId="3" r:id="rId4"/>
+    <sheet name="skill_level" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill_Level_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -130,6 +126,10 @@
   <si>
     <t>스킬 경험치 할당용 임시 공식 메모</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Character_Skill_Level_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -607,19 +607,19 @@
   <dimension ref="B4:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2953,18 +2953,18 @@
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3005,11 +3005,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <f>INT(A5*10+A5^2*0.05)</f>
+        <f>C5</f>
         <v>10</v>
       </c>
       <c r="C5" s="4">
-        <f>B5</f>
+        <f t="shared" ref="C5:C36" si="0">INT(A5*10+A5^2*0.05)</f>
         <v>10</v>
       </c>
     </row>
@@ -3018,12 +3018,12 @@
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" ref="B6:B69" si="0">INT(A6*10+A6^2*0.05)</f>
+        <f t="shared" ref="B6:B37" si="1">B5+C6</f>
+        <v>30</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
         <v>20</v>
-      </c>
-      <c r="C6" s="4">
-        <f>C5+B6</f>
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3031,12 +3031,12 @@
         <v>3</v>
       </c>
       <c r="B7" s="4">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" ref="C7:C70" si="1">C6+B7</f>
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3044,12 +3044,12 @@
         <v>4</v>
       </c>
       <c r="B8" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3057,12 +3057,12 @@
         <v>5</v>
       </c>
       <c r="B9" s="4">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3070,12 +3070,12 @@
         <v>6</v>
       </c>
       <c r="B10" s="4">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3083,12 +3083,12 @@
         <v>7</v>
       </c>
       <c r="B11" s="4">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>72</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3096,12 +3096,12 @@
         <v>8</v>
       </c>
       <c r="B12" s="4">
+        <f t="shared" si="1"/>
+        <v>367</v>
+      </c>
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>83</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" si="1"/>
-        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3109,12 +3109,12 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
+        <f t="shared" si="1"/>
+        <v>461</v>
+      </c>
+      <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>94</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" si="1"/>
-        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3122,12 +3122,12 @@
         <v>10</v>
       </c>
       <c r="B14" s="4">
+        <f t="shared" si="1"/>
+        <v>566</v>
+      </c>
+      <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>105</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="1"/>
-        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3135,12 +3135,12 @@
         <v>11</v>
       </c>
       <c r="B15" s="4">
+        <f t="shared" si="1"/>
+        <v>682</v>
+      </c>
+      <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>116</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="1"/>
-        <v>682</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3148,12 +3148,12 @@
         <v>12</v>
       </c>
       <c r="B16" s="4">
+        <f t="shared" si="1"/>
+        <v>809</v>
+      </c>
+      <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>127</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" si="1"/>
-        <v>809</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3161,12 +3161,12 @@
         <v>13</v>
       </c>
       <c r="B17" s="4">
+        <f t="shared" si="1"/>
+        <v>947</v>
+      </c>
+      <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>138</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="1"/>
-        <v>947</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3174,12 +3174,12 @@
         <v>14</v>
       </c>
       <c r="B18" s="4">
+        <f t="shared" si="1"/>
+        <v>1096</v>
+      </c>
+      <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>149</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="1"/>
-        <v>1096</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3187,12 +3187,12 @@
         <v>15</v>
       </c>
       <c r="B19" s="4">
+        <f t="shared" si="1"/>
+        <v>1257</v>
+      </c>
+      <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>161</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="1"/>
-        <v>1257</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3200,12 +3200,12 @@
         <v>16</v>
       </c>
       <c r="B20" s="4">
+        <f t="shared" si="1"/>
+        <v>1429</v>
+      </c>
+      <c r="C20" s="4">
         <f t="shared" si="0"/>
         <v>172</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" si="1"/>
-        <v>1429</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3213,12 +3213,12 @@
         <v>17</v>
       </c>
       <c r="B21" s="4">
+        <f t="shared" si="1"/>
+        <v>1613</v>
+      </c>
+      <c r="C21" s="4">
         <f t="shared" si="0"/>
         <v>184</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" si="1"/>
-        <v>1613</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3226,12 +3226,12 @@
         <v>18</v>
       </c>
       <c r="B22" s="4">
+        <f t="shared" si="1"/>
+        <v>1809</v>
+      </c>
+      <c r="C22" s="4">
         <f t="shared" si="0"/>
         <v>196</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="1"/>
-        <v>1809</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3239,12 +3239,12 @@
         <v>19</v>
       </c>
       <c r="B23" s="4">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="C23" s="4">
         <f t="shared" si="0"/>
         <v>208</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="1"/>
-        <v>2017</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3252,12 +3252,12 @@
         <v>20</v>
       </c>
       <c r="B24" s="4">
+        <f t="shared" si="1"/>
+        <v>2237</v>
+      </c>
+      <c r="C24" s="4">
         <f t="shared" si="0"/>
         <v>220</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="1"/>
-        <v>2237</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3265,12 +3265,12 @@
         <v>21</v>
       </c>
       <c r="B25" s="4">
+        <f t="shared" si="1"/>
+        <v>2469</v>
+      </c>
+      <c r="C25" s="4">
         <f t="shared" si="0"/>
         <v>232</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" si="1"/>
-        <v>2469</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3278,12 +3278,12 @@
         <v>22</v>
       </c>
       <c r="B26" s="4">
+        <f t="shared" si="1"/>
+        <v>2713</v>
+      </c>
+      <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>244</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" si="1"/>
-        <v>2713</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3291,12 +3291,12 @@
         <v>23</v>
       </c>
       <c r="B27" s="4">
+        <f t="shared" si="1"/>
+        <v>2969</v>
+      </c>
+      <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>256</v>
-      </c>
-      <c r="C27" s="4">
-        <f t="shared" si="1"/>
-        <v>2969</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3304,12 +3304,12 @@
         <v>24</v>
       </c>
       <c r="B28" s="4">
+        <f t="shared" si="1"/>
+        <v>3237</v>
+      </c>
+      <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>268</v>
-      </c>
-      <c r="C28" s="4">
-        <f t="shared" si="1"/>
-        <v>3237</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3317,12 +3317,12 @@
         <v>25</v>
       </c>
       <c r="B29" s="4">
+        <f t="shared" si="1"/>
+        <v>3518</v>
+      </c>
+      <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>281</v>
-      </c>
-      <c r="C29" s="4">
-        <f t="shared" si="1"/>
-        <v>3518</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3330,12 +3330,12 @@
         <v>26</v>
       </c>
       <c r="B30" s="4">
+        <f t="shared" si="1"/>
+        <v>3811</v>
+      </c>
+      <c r="C30" s="4">
         <f t="shared" si="0"/>
         <v>293</v>
-      </c>
-      <c r="C30" s="4">
-        <f t="shared" si="1"/>
-        <v>3811</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3343,12 +3343,12 @@
         <v>27</v>
       </c>
       <c r="B31" s="4">
+        <f t="shared" si="1"/>
+        <v>4117</v>
+      </c>
+      <c r="C31" s="4">
         <f t="shared" si="0"/>
         <v>306</v>
-      </c>
-      <c r="C31" s="4">
-        <f t="shared" si="1"/>
-        <v>4117</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3356,12 +3356,12 @@
         <v>28</v>
       </c>
       <c r="B32" s="4">
+        <f t="shared" si="1"/>
+        <v>4436</v>
+      </c>
+      <c r="C32" s="4">
         <f t="shared" si="0"/>
         <v>319</v>
-      </c>
-      <c r="C32" s="4">
-        <f t="shared" si="1"/>
-        <v>4436</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3369,12 +3369,12 @@
         <v>29</v>
       </c>
       <c r="B33" s="4">
+        <f t="shared" si="1"/>
+        <v>4768</v>
+      </c>
+      <c r="C33" s="4">
         <f t="shared" si="0"/>
         <v>332</v>
-      </c>
-      <c r="C33" s="4">
-        <f t="shared" si="1"/>
-        <v>4768</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -3382,12 +3382,12 @@
         <v>30</v>
       </c>
       <c r="B34" s="4">
+        <f t="shared" si="1"/>
+        <v>5113</v>
+      </c>
+      <c r="C34" s="4">
         <f t="shared" si="0"/>
         <v>345</v>
-      </c>
-      <c r="C34" s="4">
-        <f t="shared" si="1"/>
-        <v>5113</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3395,12 +3395,12 @@
         <v>31</v>
       </c>
       <c r="B35" s="4">
+        <f t="shared" si="1"/>
+        <v>5471</v>
+      </c>
+      <c r="C35" s="4">
         <f t="shared" si="0"/>
         <v>358</v>
-      </c>
-      <c r="C35" s="4">
-        <f t="shared" si="1"/>
-        <v>5471</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3408,12 +3408,12 @@
         <v>32</v>
       </c>
       <c r="B36" s="4">
+        <f t="shared" si="1"/>
+        <v>5842</v>
+      </c>
+      <c r="C36" s="4">
         <f t="shared" si="0"/>
         <v>371</v>
-      </c>
-      <c r="C36" s="4">
-        <f t="shared" si="1"/>
-        <v>5842</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3421,12 +3421,12 @@
         <v>33</v>
       </c>
       <c r="B37" s="4">
-        <f t="shared" si="0"/>
-        <v>384</v>
-      </c>
-      <c r="C37" s="4">
         <f t="shared" si="1"/>
         <v>6226</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" ref="C37:C68" si="2">INT(A37*10+A37^2*0.05)</f>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3434,12 +3434,12 @@
         <v>34</v>
       </c>
       <c r="B38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B38:B69" si="3">B37+C38</f>
+        <v>6623</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="2"/>
         <v>397</v>
-      </c>
-      <c r="C38" s="4">
-        <f t="shared" si="1"/>
-        <v>6623</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3447,12 +3447,12 @@
         <v>35</v>
       </c>
       <c r="B39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>7034</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="2"/>
         <v>411</v>
-      </c>
-      <c r="C39" s="4">
-        <f t="shared" si="1"/>
-        <v>7034</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3460,12 +3460,12 @@
         <v>36</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>7458</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="2"/>
         <v>424</v>
-      </c>
-      <c r="C40" s="4">
-        <f t="shared" si="1"/>
-        <v>7458</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3473,12 +3473,12 @@
         <v>37</v>
       </c>
       <c r="B41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>7896</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="2"/>
         <v>438</v>
-      </c>
-      <c r="C41" s="4">
-        <f t="shared" si="1"/>
-        <v>7896</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3486,12 +3486,12 @@
         <v>38</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>8348</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="2"/>
         <v>452</v>
-      </c>
-      <c r="C42" s="4">
-        <f t="shared" si="1"/>
-        <v>8348</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3499,12 +3499,12 @@
         <v>39</v>
       </c>
       <c r="B43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>8814</v>
+      </c>
+      <c r="C43" s="4">
+        <f t="shared" si="2"/>
         <v>466</v>
-      </c>
-      <c r="C43" s="4">
-        <f t="shared" si="1"/>
-        <v>8814</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3512,12 +3512,12 @@
         <v>40</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>9294</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" si="2"/>
         <v>480</v>
-      </c>
-      <c r="C44" s="4">
-        <f t="shared" si="1"/>
-        <v>9294</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3525,12 +3525,12 @@
         <v>41</v>
       </c>
       <c r="B45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>9788</v>
+      </c>
+      <c r="C45" s="4">
+        <f t="shared" si="2"/>
         <v>494</v>
-      </c>
-      <c r="C45" s="4">
-        <f t="shared" si="1"/>
-        <v>9788</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3538,12 +3538,12 @@
         <v>42</v>
       </c>
       <c r="B46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>10296</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" si="2"/>
         <v>508</v>
-      </c>
-      <c r="C46" s="4">
-        <f t="shared" si="1"/>
-        <v>10296</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3551,12 +3551,12 @@
         <v>43</v>
       </c>
       <c r="B47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>10818</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" si="2"/>
         <v>522</v>
-      </c>
-      <c r="C47" s="4">
-        <f t="shared" si="1"/>
-        <v>10818</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3564,12 +3564,12 @@
         <v>44</v>
       </c>
       <c r="B48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>11354</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="2"/>
         <v>536</v>
-      </c>
-      <c r="C48" s="4">
-        <f t="shared" si="1"/>
-        <v>11354</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3577,12 +3577,12 @@
         <v>45</v>
       </c>
       <c r="B49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>11905</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="2"/>
         <v>551</v>
-      </c>
-      <c r="C49" s="4">
-        <f t="shared" si="1"/>
-        <v>11905</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3590,12 +3590,12 @@
         <v>46</v>
       </c>
       <c r="B50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>12470</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="2"/>
         <v>565</v>
-      </c>
-      <c r="C50" s="4">
-        <f t="shared" si="1"/>
-        <v>12470</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3603,12 +3603,12 @@
         <v>47</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>13050</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="2"/>
         <v>580</v>
-      </c>
-      <c r="C51" s="4">
-        <f t="shared" si="1"/>
-        <v>13050</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3616,12 +3616,12 @@
         <v>48</v>
       </c>
       <c r="B52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>13645</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" si="2"/>
         <v>595</v>
-      </c>
-      <c r="C52" s="4">
-        <f t="shared" si="1"/>
-        <v>13645</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3629,12 +3629,12 @@
         <v>49</v>
       </c>
       <c r="B53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>14255</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="2"/>
         <v>610</v>
-      </c>
-      <c r="C53" s="4">
-        <f t="shared" si="1"/>
-        <v>14255</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -3642,12 +3642,12 @@
         <v>50</v>
       </c>
       <c r="B54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>14880</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="2"/>
         <v>625</v>
-      </c>
-      <c r="C54" s="4">
-        <f t="shared" si="1"/>
-        <v>14880</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3655,12 +3655,12 @@
         <v>51</v>
       </c>
       <c r="B55" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>15520</v>
+      </c>
+      <c r="C55" s="4">
+        <f t="shared" si="2"/>
         <v>640</v>
-      </c>
-      <c r="C55" s="4">
-        <f t="shared" si="1"/>
-        <v>15520</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3668,12 +3668,12 @@
         <v>52</v>
       </c>
       <c r="B56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>16175</v>
+      </c>
+      <c r="C56" s="4">
+        <f t="shared" si="2"/>
         <v>655</v>
-      </c>
-      <c r="C56" s="4">
-        <f t="shared" si="1"/>
-        <v>16175</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3681,12 +3681,12 @@
         <v>53</v>
       </c>
       <c r="B57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>16845</v>
+      </c>
+      <c r="C57" s="4">
+        <f t="shared" si="2"/>
         <v>670</v>
-      </c>
-      <c r="C57" s="4">
-        <f t="shared" si="1"/>
-        <v>16845</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3694,12 +3694,12 @@
         <v>54</v>
       </c>
       <c r="B58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>17530</v>
+      </c>
+      <c r="C58" s="4">
+        <f t="shared" si="2"/>
         <v>685</v>
-      </c>
-      <c r="C58" s="4">
-        <f t="shared" si="1"/>
-        <v>17530</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3707,12 +3707,12 @@
         <v>55</v>
       </c>
       <c r="B59" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>18231</v>
+      </c>
+      <c r="C59" s="4">
+        <f t="shared" si="2"/>
         <v>701</v>
-      </c>
-      <c r="C59" s="4">
-        <f t="shared" si="1"/>
-        <v>18231</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3720,12 +3720,12 @@
         <v>56</v>
       </c>
       <c r="B60" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>18947</v>
+      </c>
+      <c r="C60" s="4">
+        <f t="shared" si="2"/>
         <v>716</v>
-      </c>
-      <c r="C60" s="4">
-        <f t="shared" si="1"/>
-        <v>18947</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3733,12 +3733,12 @@
         <v>57</v>
       </c>
       <c r="B61" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>19679</v>
+      </c>
+      <c r="C61" s="4">
+        <f t="shared" si="2"/>
         <v>732</v>
-      </c>
-      <c r="C61" s="4">
-        <f t="shared" si="1"/>
-        <v>19679</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3746,12 +3746,12 @@
         <v>58</v>
       </c>
       <c r="B62" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>20427</v>
+      </c>
+      <c r="C62" s="4">
+        <f t="shared" si="2"/>
         <v>748</v>
-      </c>
-      <c r="C62" s="4">
-        <f t="shared" si="1"/>
-        <v>20427</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3759,12 +3759,12 @@
         <v>59</v>
       </c>
       <c r="B63" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>21191</v>
+      </c>
+      <c r="C63" s="4">
+        <f t="shared" si="2"/>
         <v>764</v>
-      </c>
-      <c r="C63" s="4">
-        <f t="shared" si="1"/>
-        <v>21191</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3772,12 +3772,12 @@
         <v>60</v>
       </c>
       <c r="B64" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>21971</v>
+      </c>
+      <c r="C64" s="4">
+        <f t="shared" si="2"/>
         <v>780</v>
-      </c>
-      <c r="C64" s="4">
-        <f t="shared" si="1"/>
-        <v>21971</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3785,12 +3785,12 @@
         <v>61</v>
       </c>
       <c r="B65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>22767</v>
+      </c>
+      <c r="C65" s="4">
+        <f t="shared" si="2"/>
         <v>796</v>
-      </c>
-      <c r="C65" s="4">
-        <f t="shared" si="1"/>
-        <v>22767</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3798,12 +3798,12 @@
         <v>62</v>
       </c>
       <c r="B66" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>23579</v>
+      </c>
+      <c r="C66" s="4">
+        <f t="shared" si="2"/>
         <v>812</v>
-      </c>
-      <c r="C66" s="4">
-        <f t="shared" si="1"/>
-        <v>23579</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3811,12 +3811,12 @@
         <v>63</v>
       </c>
       <c r="B67" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>24407</v>
+      </c>
+      <c r="C67" s="4">
+        <f t="shared" si="2"/>
         <v>828</v>
-      </c>
-      <c r="C67" s="4">
-        <f t="shared" si="1"/>
-        <v>24407</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3824,12 +3824,12 @@
         <v>64</v>
       </c>
       <c r="B68" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>25251</v>
+      </c>
+      <c r="C68" s="4">
+        <f t="shared" si="2"/>
         <v>844</v>
-      </c>
-      <c r="C68" s="4">
-        <f t="shared" si="1"/>
-        <v>25251</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3837,12 +3837,12 @@
         <v>65</v>
       </c>
       <c r="B69" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
+        <v>26112</v>
+      </c>
+      <c r="C69" s="4">
+        <f t="shared" ref="C69:C104" si="4">INT(A69*10+A69^2*0.05)</f>
         <v>861</v>
-      </c>
-      <c r="C69" s="4">
-        <f t="shared" si="1"/>
-        <v>26112</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3850,12 +3850,12 @@
         <v>66</v>
       </c>
       <c r="B70" s="4">
-        <f t="shared" ref="B70:B104" si="2">INT(A70*10+A70^2*0.05)</f>
+        <f t="shared" ref="B70:B101" si="5">B69+C70</f>
+        <v>26989</v>
+      </c>
+      <c r="C70" s="4">
+        <f t="shared" si="4"/>
         <v>877</v>
-      </c>
-      <c r="C70" s="4">
-        <f t="shared" si="1"/>
-        <v>26989</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3863,12 +3863,12 @@
         <v>67</v>
       </c>
       <c r="B71" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>27883</v>
+      </c>
+      <c r="C71" s="4">
+        <f t="shared" si="4"/>
         <v>894</v>
-      </c>
-      <c r="C71" s="4">
-        <f t="shared" ref="C71:C104" si="3">C70+B71</f>
-        <v>27883</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3876,12 +3876,12 @@
         <v>68</v>
       </c>
       <c r="B72" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>28794</v>
+      </c>
+      <c r="C72" s="4">
+        <f t="shared" si="4"/>
         <v>911</v>
-      </c>
-      <c r="C72" s="4">
-        <f t="shared" si="3"/>
-        <v>28794</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3889,12 +3889,12 @@
         <v>69</v>
       </c>
       <c r="B73" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>29722</v>
+      </c>
+      <c r="C73" s="4">
+        <f t="shared" si="4"/>
         <v>928</v>
-      </c>
-      <c r="C73" s="4">
-        <f t="shared" si="3"/>
-        <v>29722</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3902,12 +3902,12 @@
         <v>70</v>
       </c>
       <c r="B74" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>30667</v>
+      </c>
+      <c r="C74" s="4">
+        <f t="shared" si="4"/>
         <v>945</v>
-      </c>
-      <c r="C74" s="4">
-        <f t="shared" si="3"/>
-        <v>30667</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3915,12 +3915,12 @@
         <v>71</v>
       </c>
       <c r="B75" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>31629</v>
+      </c>
+      <c r="C75" s="4">
+        <f t="shared" si="4"/>
         <v>962</v>
-      </c>
-      <c r="C75" s="4">
-        <f t="shared" si="3"/>
-        <v>31629</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3928,12 +3928,12 @@
         <v>72</v>
       </c>
       <c r="B76" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>32608</v>
+      </c>
+      <c r="C76" s="4">
+        <f t="shared" si="4"/>
         <v>979</v>
-      </c>
-      <c r="C76" s="4">
-        <f t="shared" si="3"/>
-        <v>32608</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3941,12 +3941,12 @@
         <v>73</v>
       </c>
       <c r="B77" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>33604</v>
+      </c>
+      <c r="C77" s="4">
+        <f t="shared" si="4"/>
         <v>996</v>
-      </c>
-      <c r="C77" s="4">
-        <f t="shared" si="3"/>
-        <v>33604</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3954,12 +3954,12 @@
         <v>74</v>
       </c>
       <c r="B78" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>34617</v>
+      </c>
+      <c r="C78" s="4">
+        <f t="shared" si="4"/>
         <v>1013</v>
-      </c>
-      <c r="C78" s="4">
-        <f t="shared" si="3"/>
-        <v>34617</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3967,12 +3967,12 @@
         <v>75</v>
       </c>
       <c r="B79" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>35648</v>
+      </c>
+      <c r="C79" s="4">
+        <f t="shared" si="4"/>
         <v>1031</v>
-      </c>
-      <c r="C79" s="4">
-        <f t="shared" si="3"/>
-        <v>35648</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3980,12 +3980,12 @@
         <v>76</v>
       </c>
       <c r="B80" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>36696</v>
+      </c>
+      <c r="C80" s="4">
+        <f t="shared" si="4"/>
         <v>1048</v>
-      </c>
-      <c r="C80" s="4">
-        <f t="shared" si="3"/>
-        <v>36696</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3993,12 +3993,12 @@
         <v>77</v>
       </c>
       <c r="B81" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>37762</v>
+      </c>
+      <c r="C81" s="4">
+        <f t="shared" si="4"/>
         <v>1066</v>
-      </c>
-      <c r="C81" s="4">
-        <f t="shared" si="3"/>
-        <v>37762</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -4006,12 +4006,12 @@
         <v>78</v>
       </c>
       <c r="B82" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>38846</v>
+      </c>
+      <c r="C82" s="4">
+        <f t="shared" si="4"/>
         <v>1084</v>
-      </c>
-      <c r="C82" s="4">
-        <f t="shared" si="3"/>
-        <v>38846</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -4019,12 +4019,12 @@
         <v>79</v>
       </c>
       <c r="B83" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>39948</v>
+      </c>
+      <c r="C83" s="4">
+        <f t="shared" si="4"/>
         <v>1102</v>
-      </c>
-      <c r="C83" s="4">
-        <f t="shared" si="3"/>
-        <v>39948</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -4032,12 +4032,12 @@
         <v>80</v>
       </c>
       <c r="B84" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>41068</v>
+      </c>
+      <c r="C84" s="4">
+        <f t="shared" si="4"/>
         <v>1120</v>
-      </c>
-      <c r="C84" s="4">
-        <f t="shared" si="3"/>
-        <v>41068</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -4045,12 +4045,12 @@
         <v>81</v>
       </c>
       <c r="B85" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>42206</v>
+      </c>
+      <c r="C85" s="4">
+        <f t="shared" si="4"/>
         <v>1138</v>
-      </c>
-      <c r="C85" s="4">
-        <f t="shared" si="3"/>
-        <v>42206</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -4058,12 +4058,12 @@
         <v>82</v>
       </c>
       <c r="B86" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>43362</v>
+      </c>
+      <c r="C86" s="4">
+        <f t="shared" si="4"/>
         <v>1156</v>
-      </c>
-      <c r="C86" s="4">
-        <f t="shared" si="3"/>
-        <v>43362</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -4071,12 +4071,12 @@
         <v>83</v>
       </c>
       <c r="B87" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>44536</v>
+      </c>
+      <c r="C87" s="4">
+        <f t="shared" si="4"/>
         <v>1174</v>
-      </c>
-      <c r="C87" s="4">
-        <f t="shared" si="3"/>
-        <v>44536</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4084,12 +4084,12 @@
         <v>84</v>
       </c>
       <c r="B88" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>45728</v>
+      </c>
+      <c r="C88" s="4">
+        <f t="shared" si="4"/>
         <v>1192</v>
-      </c>
-      <c r="C88" s="4">
-        <f t="shared" si="3"/>
-        <v>45728</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4097,12 +4097,12 @@
         <v>85</v>
       </c>
       <c r="B89" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>46939</v>
+      </c>
+      <c r="C89" s="4">
+        <f t="shared" si="4"/>
         <v>1211</v>
-      </c>
-      <c r="C89" s="4">
-        <f t="shared" si="3"/>
-        <v>46939</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4110,12 +4110,12 @@
         <v>86</v>
       </c>
       <c r="B90" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>48168</v>
+      </c>
+      <c r="C90" s="4">
+        <f t="shared" si="4"/>
         <v>1229</v>
-      </c>
-      <c r="C90" s="4">
-        <f t="shared" si="3"/>
-        <v>48168</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4123,12 +4123,12 @@
         <v>87</v>
       </c>
       <c r="B91" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>49416</v>
+      </c>
+      <c r="C91" s="4">
+        <f t="shared" si="4"/>
         <v>1248</v>
-      </c>
-      <c r="C91" s="4">
-        <f t="shared" si="3"/>
-        <v>49416</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4136,12 +4136,12 @@
         <v>88</v>
       </c>
       <c r="B92" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>50683</v>
+      </c>
+      <c r="C92" s="4">
+        <f t="shared" si="4"/>
         <v>1267</v>
-      </c>
-      <c r="C92" s="4">
-        <f t="shared" si="3"/>
-        <v>50683</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4149,12 +4149,12 @@
         <v>89</v>
       </c>
       <c r="B93" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>51969</v>
+      </c>
+      <c r="C93" s="4">
+        <f t="shared" si="4"/>
         <v>1286</v>
-      </c>
-      <c r="C93" s="4">
-        <f t="shared" si="3"/>
-        <v>51969</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4162,12 +4162,12 @@
         <v>90</v>
       </c>
       <c r="B94" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>53274</v>
+      </c>
+      <c r="C94" s="4">
+        <f t="shared" si="4"/>
         <v>1305</v>
-      </c>
-      <c r="C94" s="4">
-        <f t="shared" si="3"/>
-        <v>53274</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -4175,12 +4175,12 @@
         <v>91</v>
       </c>
       <c r="B95" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>54598</v>
+      </c>
+      <c r="C95" s="4">
+        <f t="shared" si="4"/>
         <v>1324</v>
-      </c>
-      <c r="C95" s="4">
-        <f t="shared" si="3"/>
-        <v>54598</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -4188,12 +4188,12 @@
         <v>92</v>
       </c>
       <c r="B96" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>55941</v>
+      </c>
+      <c r="C96" s="4">
+        <f t="shared" si="4"/>
         <v>1343</v>
-      </c>
-      <c r="C96" s="4">
-        <f t="shared" si="3"/>
-        <v>55941</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4201,12 +4201,12 @@
         <v>93</v>
       </c>
       <c r="B97" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>57303</v>
+      </c>
+      <c r="C97" s="4">
+        <f t="shared" si="4"/>
         <v>1362</v>
-      </c>
-      <c r="C97" s="4">
-        <f t="shared" si="3"/>
-        <v>57303</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4214,12 +4214,12 @@
         <v>94</v>
       </c>
       <c r="B98" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>58684</v>
+      </c>
+      <c r="C98" s="4">
+        <f t="shared" si="4"/>
         <v>1381</v>
-      </c>
-      <c r="C98" s="4">
-        <f t="shared" si="3"/>
-        <v>58684</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4227,12 +4227,12 @@
         <v>95</v>
       </c>
       <c r="B99" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>60085</v>
+      </c>
+      <c r="C99" s="4">
+        <f t="shared" si="4"/>
         <v>1401</v>
-      </c>
-      <c r="C99" s="4">
-        <f t="shared" si="3"/>
-        <v>60085</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4240,12 +4240,12 @@
         <v>96</v>
       </c>
       <c r="B100" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>61505</v>
+      </c>
+      <c r="C100" s="4">
+        <f t="shared" si="4"/>
         <v>1420</v>
-      </c>
-      <c r="C100" s="4">
-        <f t="shared" si="3"/>
-        <v>61505</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4253,12 +4253,12 @@
         <v>97</v>
       </c>
       <c r="B101" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
+        <v>62945</v>
+      </c>
+      <c r="C101" s="4">
+        <f t="shared" si="4"/>
         <v>1440</v>
-      </c>
-      <c r="C101" s="4">
-        <f t="shared" si="3"/>
-        <v>62945</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4266,12 +4266,12 @@
         <v>98</v>
       </c>
       <c r="B102" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B102:B133" si="6">B101+C102</f>
+        <v>64405</v>
+      </c>
+      <c r="C102" s="4">
+        <f t="shared" si="4"/>
         <v>1460</v>
-      </c>
-      <c r="C102" s="4">
-        <f t="shared" si="3"/>
-        <v>64405</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4279,12 +4279,12 @@
         <v>99</v>
       </c>
       <c r="B103" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
+        <v>65885</v>
+      </c>
+      <c r="C103" s="4">
+        <f t="shared" si="4"/>
         <v>1480</v>
-      </c>
-      <c r="C103" s="4">
-        <f t="shared" si="3"/>
-        <v>65885</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4292,12 +4292,12 @@
         <v>100</v>
       </c>
       <c r="B104" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
+        <v>67385</v>
+      </c>
+      <c r="C104" s="4">
+        <f t="shared" si="4"/>
         <v>1500</v>
-      </c>
-      <c r="C104" s="4">
-        <f t="shared" si="3"/>
-        <v>67385</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/LevelData.xlsx
+++ b/Android/ExcelData/LevelData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC380FBF-2E89-4C70-9862-BA525E8A20C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869802C5-B586-457D-BD2B-174EC2174CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
+    <workbookView xWindow="40635" yWindow="2430" windowWidth="34815" windowHeight="16545" activeTab="4" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="!Info" sheetId="4" r:id="rId1"/>
     <sheet name="user level" sheetId="2" r:id="rId2"/>
     <sheet name="pc_level" sheetId="1" r:id="rId3"/>
     <sheet name="skill_level" sheetId="3" r:id="rId4"/>
+    <sheet name="love_level" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
   <si>
     <t>레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,12 +132,24 @@
     <t>Player_Character_Skill_Level_Data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ENUM:LOVE_LEVEL_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>love_level_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Character_Love_Level_Data</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +227,21 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -265,12 +293,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -290,9 +322,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{CF4E11A7-664E-4002-8D80-729278131911}"/>
+    <cellStyle name="표준 3" xfId="2" xr:uid="{8DE22CA1-5179-41BC-9129-A7EC37411544}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2952,7 +3007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7E51F6-11A1-4FF2-8AEF-9150D6D26A64}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4266,7 +4321,7 @@
         <v>98</v>
       </c>
       <c r="B102" s="4">
-        <f t="shared" ref="B102:B133" si="6">B101+C102</f>
+        <f t="shared" ref="B102:B104" si="6">B101+C102</f>
         <v>64405</v>
       </c>
       <c r="C102" s="4">
@@ -4298,6 +4353,1675 @@
       <c r="C104" s="4">
         <f t="shared" si="4"/>
         <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858EDFCE-4612-4193-8A25-6B688FF3F683}">
+  <dimension ref="A1:D104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="10" customWidth="1"/>
+    <col min="2" max="3" width="11.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14">
+        <f>C5</f>
+        <v>10</v>
+      </c>
+      <c r="C5" s="14">
+        <f t="shared" ref="C5:C68" si="0">INT(A5*10+A5^2*0.05)</f>
+        <v>10</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14">
+        <f t="shared" ref="B6:B69" si="1">B5+C6</f>
+        <v>30</v>
+      </c>
+      <c r="C6" s="14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="13">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="C7" s="14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="13">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C8" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="13">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="C9" s="14">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="13">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="C10" s="14">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="13">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+      <c r="C11" s="14">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="13">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14">
+        <f t="shared" si="1"/>
+        <v>367</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="D12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14">
+        <f t="shared" si="1"/>
+        <v>461</v>
+      </c>
+      <c r="C13" s="14">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="13">
+        <v>10</v>
+      </c>
+      <c r="B14" s="14">
+        <f t="shared" si="1"/>
+        <v>566</v>
+      </c>
+      <c r="C14" s="14">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="13">
+        <v>11</v>
+      </c>
+      <c r="B15" s="14">
+        <f t="shared" si="1"/>
+        <v>682</v>
+      </c>
+      <c r="C15" s="14">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="13">
+        <v>12</v>
+      </c>
+      <c r="B16" s="14">
+        <f t="shared" si="1"/>
+        <v>809</v>
+      </c>
+      <c r="C16" s="14">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="13">
+        <v>13</v>
+      </c>
+      <c r="B17" s="14">
+        <f t="shared" si="1"/>
+        <v>947</v>
+      </c>
+      <c r="C17" s="14">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="13">
+        <v>14</v>
+      </c>
+      <c r="B18" s="14">
+        <f t="shared" si="1"/>
+        <v>1096</v>
+      </c>
+      <c r="C18" s="14">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="13">
+        <v>15</v>
+      </c>
+      <c r="B19" s="14">
+        <f t="shared" si="1"/>
+        <v>1257</v>
+      </c>
+      <c r="C19" s="14">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="13">
+        <v>16</v>
+      </c>
+      <c r="B20" s="14">
+        <f t="shared" si="1"/>
+        <v>1429</v>
+      </c>
+      <c r="C20" s="14">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="D20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="13">
+        <v>17</v>
+      </c>
+      <c r="B21" s="14">
+        <f t="shared" si="1"/>
+        <v>1613</v>
+      </c>
+      <c r="C21" s="14">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="13">
+        <v>18</v>
+      </c>
+      <c r="B22" s="14">
+        <f t="shared" si="1"/>
+        <v>1809</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="13">
+        <v>19</v>
+      </c>
+      <c r="B23" s="14">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="C23" s="14">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="13">
+        <v>20</v>
+      </c>
+      <c r="B24" s="14">
+        <f t="shared" si="1"/>
+        <v>2237</v>
+      </c>
+      <c r="C24" s="14">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="D24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="13">
+        <v>21</v>
+      </c>
+      <c r="B25" s="14">
+        <f t="shared" si="1"/>
+        <v>2469</v>
+      </c>
+      <c r="C25" s="14">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="D25" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="13">
+        <v>22</v>
+      </c>
+      <c r="B26" s="14">
+        <f t="shared" si="1"/>
+        <v>2713</v>
+      </c>
+      <c r="C26" s="14">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="D26" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="13">
+        <v>23</v>
+      </c>
+      <c r="B27" s="14">
+        <f t="shared" si="1"/>
+        <v>2969</v>
+      </c>
+      <c r="C27" s="14">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="13">
+        <v>24</v>
+      </c>
+      <c r="B28" s="14">
+        <f t="shared" si="1"/>
+        <v>3237</v>
+      </c>
+      <c r="C28" s="14">
+        <f t="shared" si="0"/>
+        <v>268</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="13">
+        <v>25</v>
+      </c>
+      <c r="B29" s="14">
+        <f t="shared" si="1"/>
+        <v>3518</v>
+      </c>
+      <c r="C29" s="14">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+      <c r="D29" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="13">
+        <v>26</v>
+      </c>
+      <c r="B30" s="14">
+        <f t="shared" si="1"/>
+        <v>3811</v>
+      </c>
+      <c r="C30" s="14">
+        <f t="shared" si="0"/>
+        <v>293</v>
+      </c>
+      <c r="D30" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="13">
+        <v>27</v>
+      </c>
+      <c r="B31" s="14">
+        <f t="shared" si="1"/>
+        <v>4117</v>
+      </c>
+      <c r="C31" s="14">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="D31" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="13">
+        <v>28</v>
+      </c>
+      <c r="B32" s="14">
+        <f t="shared" si="1"/>
+        <v>4436</v>
+      </c>
+      <c r="C32" s="14">
+        <f t="shared" si="0"/>
+        <v>319</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="13">
+        <v>29</v>
+      </c>
+      <c r="B33" s="14">
+        <f t="shared" si="1"/>
+        <v>4768</v>
+      </c>
+      <c r="C33" s="14">
+        <f t="shared" si="0"/>
+        <v>332</v>
+      </c>
+      <c r="D33" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="13">
+        <v>30</v>
+      </c>
+      <c r="B34" s="14">
+        <f t="shared" si="1"/>
+        <v>5113</v>
+      </c>
+      <c r="C34" s="14">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+      <c r="D34" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="13">
+        <v>31</v>
+      </c>
+      <c r="B35" s="14">
+        <f t="shared" si="1"/>
+        <v>5471</v>
+      </c>
+      <c r="C35" s="14">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+      <c r="D35" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="13">
+        <v>32</v>
+      </c>
+      <c r="B36" s="14">
+        <f t="shared" si="1"/>
+        <v>5842</v>
+      </c>
+      <c r="C36" s="14">
+        <f t="shared" si="0"/>
+        <v>371</v>
+      </c>
+      <c r="D36" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="13">
+        <v>33</v>
+      </c>
+      <c r="B37" s="14">
+        <f t="shared" si="1"/>
+        <v>6226</v>
+      </c>
+      <c r="C37" s="14">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+      <c r="D37" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="13">
+        <v>34</v>
+      </c>
+      <c r="B38" s="14">
+        <f t="shared" si="1"/>
+        <v>6623</v>
+      </c>
+      <c r="C38" s="14">
+        <f t="shared" si="0"/>
+        <v>397</v>
+      </c>
+      <c r="D38" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="13">
+        <v>35</v>
+      </c>
+      <c r="B39" s="14">
+        <f t="shared" si="1"/>
+        <v>7034</v>
+      </c>
+      <c r="C39" s="14">
+        <f t="shared" si="0"/>
+        <v>411</v>
+      </c>
+      <c r="D39" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="13">
+        <v>36</v>
+      </c>
+      <c r="B40" s="14">
+        <f t="shared" si="1"/>
+        <v>7458</v>
+      </c>
+      <c r="C40" s="14">
+        <f t="shared" si="0"/>
+        <v>424</v>
+      </c>
+      <c r="D40" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="13">
+        <v>37</v>
+      </c>
+      <c r="B41" s="14">
+        <f t="shared" si="1"/>
+        <v>7896</v>
+      </c>
+      <c r="C41" s="14">
+        <f t="shared" si="0"/>
+        <v>438</v>
+      </c>
+      <c r="D41" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="13">
+        <v>38</v>
+      </c>
+      <c r="B42" s="14">
+        <f t="shared" si="1"/>
+        <v>8348</v>
+      </c>
+      <c r="C42" s="14">
+        <f t="shared" si="0"/>
+        <v>452</v>
+      </c>
+      <c r="D42" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="13">
+        <v>39</v>
+      </c>
+      <c r="B43" s="14">
+        <f t="shared" si="1"/>
+        <v>8814</v>
+      </c>
+      <c r="C43" s="14">
+        <f t="shared" si="0"/>
+        <v>466</v>
+      </c>
+      <c r="D43" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="13">
+        <v>40</v>
+      </c>
+      <c r="B44" s="14">
+        <f t="shared" si="1"/>
+        <v>9294</v>
+      </c>
+      <c r="C44" s="14">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="D44" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="13">
+        <v>41</v>
+      </c>
+      <c r="B45" s="14">
+        <f t="shared" si="1"/>
+        <v>9788</v>
+      </c>
+      <c r="C45" s="14">
+        <f t="shared" si="0"/>
+        <v>494</v>
+      </c>
+      <c r="D45" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="13">
+        <v>42</v>
+      </c>
+      <c r="B46" s="14">
+        <f t="shared" si="1"/>
+        <v>10296</v>
+      </c>
+      <c r="C46" s="14">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
+      <c r="D46" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="13">
+        <v>43</v>
+      </c>
+      <c r="B47" s="14">
+        <f t="shared" si="1"/>
+        <v>10818</v>
+      </c>
+      <c r="C47" s="14">
+        <f t="shared" si="0"/>
+        <v>522</v>
+      </c>
+      <c r="D47" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="13">
+        <v>44</v>
+      </c>
+      <c r="B48" s="14">
+        <f t="shared" si="1"/>
+        <v>11354</v>
+      </c>
+      <c r="C48" s="14">
+        <f t="shared" si="0"/>
+        <v>536</v>
+      </c>
+      <c r="D48" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="13">
+        <v>45</v>
+      </c>
+      <c r="B49" s="14">
+        <f t="shared" si="1"/>
+        <v>11905</v>
+      </c>
+      <c r="C49" s="14">
+        <f t="shared" si="0"/>
+        <v>551</v>
+      </c>
+      <c r="D49" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="13">
+        <v>46</v>
+      </c>
+      <c r="B50" s="14">
+        <f t="shared" si="1"/>
+        <v>12470</v>
+      </c>
+      <c r="C50" s="14">
+        <f t="shared" si="0"/>
+        <v>565</v>
+      </c>
+      <c r="D50" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="13">
+        <v>47</v>
+      </c>
+      <c r="B51" s="14">
+        <f t="shared" si="1"/>
+        <v>13050</v>
+      </c>
+      <c r="C51" s="14">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+      <c r="D51" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="13">
+        <v>48</v>
+      </c>
+      <c r="B52" s="14">
+        <f t="shared" si="1"/>
+        <v>13645</v>
+      </c>
+      <c r="C52" s="14">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="D52" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="13">
+        <v>49</v>
+      </c>
+      <c r="B53" s="14">
+        <f t="shared" si="1"/>
+        <v>14255</v>
+      </c>
+      <c r="C53" s="14">
+        <f t="shared" si="0"/>
+        <v>610</v>
+      </c>
+      <c r="D53" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="13">
+        <v>50</v>
+      </c>
+      <c r="B54" s="14">
+        <f t="shared" si="1"/>
+        <v>14880</v>
+      </c>
+      <c r="C54" s="14">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="D54" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="13">
+        <v>51</v>
+      </c>
+      <c r="B55" s="14">
+        <f t="shared" si="1"/>
+        <v>15520</v>
+      </c>
+      <c r="C55" s="14">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+      <c r="D55" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="13">
+        <v>52</v>
+      </c>
+      <c r="B56" s="14">
+        <f t="shared" si="1"/>
+        <v>16175</v>
+      </c>
+      <c r="C56" s="14">
+        <f t="shared" si="0"/>
+        <v>655</v>
+      </c>
+      <c r="D56" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="13">
+        <v>53</v>
+      </c>
+      <c r="B57" s="14">
+        <f t="shared" si="1"/>
+        <v>16845</v>
+      </c>
+      <c r="C57" s="14">
+        <f t="shared" si="0"/>
+        <v>670</v>
+      </c>
+      <c r="D57" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="13">
+        <v>54</v>
+      </c>
+      <c r="B58" s="14">
+        <f t="shared" si="1"/>
+        <v>17530</v>
+      </c>
+      <c r="C58" s="14">
+        <f t="shared" si="0"/>
+        <v>685</v>
+      </c>
+      <c r="D58" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="13">
+        <v>55</v>
+      </c>
+      <c r="B59" s="14">
+        <f t="shared" si="1"/>
+        <v>18231</v>
+      </c>
+      <c r="C59" s="14">
+        <f t="shared" si="0"/>
+        <v>701</v>
+      </c>
+      <c r="D59" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="13">
+        <v>56</v>
+      </c>
+      <c r="B60" s="14">
+        <f t="shared" si="1"/>
+        <v>18947</v>
+      </c>
+      <c r="C60" s="14">
+        <f t="shared" si="0"/>
+        <v>716</v>
+      </c>
+      <c r="D60" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="13">
+        <v>57</v>
+      </c>
+      <c r="B61" s="14">
+        <f t="shared" si="1"/>
+        <v>19679</v>
+      </c>
+      <c r="C61" s="14">
+        <f t="shared" si="0"/>
+        <v>732</v>
+      </c>
+      <c r="D61" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="13">
+        <v>58</v>
+      </c>
+      <c r="B62" s="14">
+        <f t="shared" si="1"/>
+        <v>20427</v>
+      </c>
+      <c r="C62" s="14">
+        <f t="shared" si="0"/>
+        <v>748</v>
+      </c>
+      <c r="D62" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="13">
+        <v>59</v>
+      </c>
+      <c r="B63" s="14">
+        <f t="shared" si="1"/>
+        <v>21191</v>
+      </c>
+      <c r="C63" s="14">
+        <f t="shared" si="0"/>
+        <v>764</v>
+      </c>
+      <c r="D63" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="13">
+        <v>60</v>
+      </c>
+      <c r="B64" s="14">
+        <f t="shared" si="1"/>
+        <v>21971</v>
+      </c>
+      <c r="C64" s="14">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+      <c r="D64" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="13">
+        <v>61</v>
+      </c>
+      <c r="B65" s="14">
+        <f t="shared" si="1"/>
+        <v>22767</v>
+      </c>
+      <c r="C65" s="14">
+        <f t="shared" si="0"/>
+        <v>796</v>
+      </c>
+      <c r="D65" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="13">
+        <v>62</v>
+      </c>
+      <c r="B66" s="14">
+        <f t="shared" si="1"/>
+        <v>23579</v>
+      </c>
+      <c r="C66" s="14">
+        <f t="shared" si="0"/>
+        <v>812</v>
+      </c>
+      <c r="D66" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="13">
+        <v>63</v>
+      </c>
+      <c r="B67" s="14">
+        <f t="shared" si="1"/>
+        <v>24407</v>
+      </c>
+      <c r="C67" s="14">
+        <f t="shared" si="0"/>
+        <v>828</v>
+      </c>
+      <c r="D67" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="13">
+        <v>64</v>
+      </c>
+      <c r="B68" s="14">
+        <f t="shared" si="1"/>
+        <v>25251</v>
+      </c>
+      <c r="C68" s="14">
+        <f t="shared" si="0"/>
+        <v>844</v>
+      </c>
+      <c r="D68" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="13">
+        <v>65</v>
+      </c>
+      <c r="B69" s="14">
+        <f t="shared" si="1"/>
+        <v>26112</v>
+      </c>
+      <c r="C69" s="14">
+        <f t="shared" ref="C69:C104" si="2">INT(A69*10+A69^2*0.05)</f>
+        <v>861</v>
+      </c>
+      <c r="D69" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="13">
+        <v>66</v>
+      </c>
+      <c r="B70" s="14">
+        <f t="shared" ref="B70:B104" si="3">B69+C70</f>
+        <v>26989</v>
+      </c>
+      <c r="C70" s="14">
+        <f t="shared" si="2"/>
+        <v>877</v>
+      </c>
+      <c r="D70" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="13">
+        <v>67</v>
+      </c>
+      <c r="B71" s="14">
+        <f t="shared" si="3"/>
+        <v>27883</v>
+      </c>
+      <c r="C71" s="14">
+        <f t="shared" si="2"/>
+        <v>894</v>
+      </c>
+      <c r="D71" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="13">
+        <v>68</v>
+      </c>
+      <c r="B72" s="14">
+        <f t="shared" si="3"/>
+        <v>28794</v>
+      </c>
+      <c r="C72" s="14">
+        <f t="shared" si="2"/>
+        <v>911</v>
+      </c>
+      <c r="D72" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="13">
+        <v>69</v>
+      </c>
+      <c r="B73" s="14">
+        <f t="shared" si="3"/>
+        <v>29722</v>
+      </c>
+      <c r="C73" s="14">
+        <f t="shared" si="2"/>
+        <v>928</v>
+      </c>
+      <c r="D73" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="13">
+        <v>70</v>
+      </c>
+      <c r="B74" s="14">
+        <f t="shared" si="3"/>
+        <v>30667</v>
+      </c>
+      <c r="C74" s="14">
+        <f t="shared" si="2"/>
+        <v>945</v>
+      </c>
+      <c r="D74" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="13">
+        <v>71</v>
+      </c>
+      <c r="B75" s="14">
+        <f t="shared" si="3"/>
+        <v>31629</v>
+      </c>
+      <c r="C75" s="14">
+        <f t="shared" si="2"/>
+        <v>962</v>
+      </c>
+      <c r="D75" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="13">
+        <v>72</v>
+      </c>
+      <c r="B76" s="14">
+        <f t="shared" si="3"/>
+        <v>32608</v>
+      </c>
+      <c r="C76" s="14">
+        <f t="shared" si="2"/>
+        <v>979</v>
+      </c>
+      <c r="D76" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="13">
+        <v>73</v>
+      </c>
+      <c r="B77" s="14">
+        <f t="shared" si="3"/>
+        <v>33604</v>
+      </c>
+      <c r="C77" s="14">
+        <f t="shared" si="2"/>
+        <v>996</v>
+      </c>
+      <c r="D77" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="13">
+        <v>74</v>
+      </c>
+      <c r="B78" s="14">
+        <f t="shared" si="3"/>
+        <v>34617</v>
+      </c>
+      <c r="C78" s="14">
+        <f t="shared" si="2"/>
+        <v>1013</v>
+      </c>
+      <c r="D78" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="13">
+        <v>75</v>
+      </c>
+      <c r="B79" s="14">
+        <f t="shared" si="3"/>
+        <v>35648</v>
+      </c>
+      <c r="C79" s="14">
+        <f t="shared" si="2"/>
+        <v>1031</v>
+      </c>
+      <c r="D79" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="13">
+        <v>76</v>
+      </c>
+      <c r="B80" s="14">
+        <f t="shared" si="3"/>
+        <v>36696</v>
+      </c>
+      <c r="C80" s="14">
+        <f t="shared" si="2"/>
+        <v>1048</v>
+      </c>
+      <c r="D80" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="13">
+        <v>77</v>
+      </c>
+      <c r="B81" s="14">
+        <f t="shared" si="3"/>
+        <v>37762</v>
+      </c>
+      <c r="C81" s="14">
+        <f t="shared" si="2"/>
+        <v>1066</v>
+      </c>
+      <c r="D81" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="13">
+        <v>78</v>
+      </c>
+      <c r="B82" s="14">
+        <f t="shared" si="3"/>
+        <v>38846</v>
+      </c>
+      <c r="C82" s="14">
+        <f t="shared" si="2"/>
+        <v>1084</v>
+      </c>
+      <c r="D82" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="13">
+        <v>79</v>
+      </c>
+      <c r="B83" s="14">
+        <f t="shared" si="3"/>
+        <v>39948</v>
+      </c>
+      <c r="C83" s="14">
+        <f t="shared" si="2"/>
+        <v>1102</v>
+      </c>
+      <c r="D83" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="13">
+        <v>80</v>
+      </c>
+      <c r="B84" s="14">
+        <f t="shared" si="3"/>
+        <v>41068</v>
+      </c>
+      <c r="C84" s="14">
+        <f t="shared" si="2"/>
+        <v>1120</v>
+      </c>
+      <c r="D84" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="13">
+        <v>81</v>
+      </c>
+      <c r="B85" s="14">
+        <f t="shared" si="3"/>
+        <v>42206</v>
+      </c>
+      <c r="C85" s="14">
+        <f t="shared" si="2"/>
+        <v>1138</v>
+      </c>
+      <c r="D85" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="13">
+        <v>82</v>
+      </c>
+      <c r="B86" s="14">
+        <f t="shared" si="3"/>
+        <v>43362</v>
+      </c>
+      <c r="C86" s="14">
+        <f t="shared" si="2"/>
+        <v>1156</v>
+      </c>
+      <c r="D86" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="13">
+        <v>83</v>
+      </c>
+      <c r="B87" s="14">
+        <f t="shared" si="3"/>
+        <v>44536</v>
+      </c>
+      <c r="C87" s="14">
+        <f t="shared" si="2"/>
+        <v>1174</v>
+      </c>
+      <c r="D87" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="13">
+        <v>84</v>
+      </c>
+      <c r="B88" s="14">
+        <f t="shared" si="3"/>
+        <v>45728</v>
+      </c>
+      <c r="C88" s="14">
+        <f t="shared" si="2"/>
+        <v>1192</v>
+      </c>
+      <c r="D88" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="13">
+        <v>85</v>
+      </c>
+      <c r="B89" s="14">
+        <f t="shared" si="3"/>
+        <v>46939</v>
+      </c>
+      <c r="C89" s="14">
+        <f t="shared" si="2"/>
+        <v>1211</v>
+      </c>
+      <c r="D89" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="13">
+        <v>86</v>
+      </c>
+      <c r="B90" s="14">
+        <f t="shared" si="3"/>
+        <v>48168</v>
+      </c>
+      <c r="C90" s="14">
+        <f t="shared" si="2"/>
+        <v>1229</v>
+      </c>
+      <c r="D90" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="13">
+        <v>87</v>
+      </c>
+      <c r="B91" s="14">
+        <f t="shared" si="3"/>
+        <v>49416</v>
+      </c>
+      <c r="C91" s="14">
+        <f t="shared" si="2"/>
+        <v>1248</v>
+      </c>
+      <c r="D91" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="13">
+        <v>88</v>
+      </c>
+      <c r="B92" s="14">
+        <f t="shared" si="3"/>
+        <v>50683</v>
+      </c>
+      <c r="C92" s="14">
+        <f t="shared" si="2"/>
+        <v>1267</v>
+      </c>
+      <c r="D92" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="13">
+        <v>89</v>
+      </c>
+      <c r="B93" s="14">
+        <f t="shared" si="3"/>
+        <v>51969</v>
+      </c>
+      <c r="C93" s="14">
+        <f t="shared" si="2"/>
+        <v>1286</v>
+      </c>
+      <c r="D93" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="13">
+        <v>90</v>
+      </c>
+      <c r="B94" s="14">
+        <f t="shared" si="3"/>
+        <v>53274</v>
+      </c>
+      <c r="C94" s="14">
+        <f t="shared" si="2"/>
+        <v>1305</v>
+      </c>
+      <c r="D94" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="13">
+        <v>91</v>
+      </c>
+      <c r="B95" s="14">
+        <f t="shared" si="3"/>
+        <v>54598</v>
+      </c>
+      <c r="C95" s="14">
+        <f t="shared" si="2"/>
+        <v>1324</v>
+      </c>
+      <c r="D95" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="13">
+        <v>92</v>
+      </c>
+      <c r="B96" s="14">
+        <f t="shared" si="3"/>
+        <v>55941</v>
+      </c>
+      <c r="C96" s="14">
+        <f t="shared" si="2"/>
+        <v>1343</v>
+      </c>
+      <c r="D96" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="13">
+        <v>93</v>
+      </c>
+      <c r="B97" s="14">
+        <f t="shared" si="3"/>
+        <v>57303</v>
+      </c>
+      <c r="C97" s="14">
+        <f t="shared" si="2"/>
+        <v>1362</v>
+      </c>
+      <c r="D97" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="13">
+        <v>94</v>
+      </c>
+      <c r="B98" s="14">
+        <f t="shared" si="3"/>
+        <v>58684</v>
+      </c>
+      <c r="C98" s="14">
+        <f t="shared" si="2"/>
+        <v>1381</v>
+      </c>
+      <c r="D98" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="13">
+        <v>95</v>
+      </c>
+      <c r="B99" s="14">
+        <f t="shared" si="3"/>
+        <v>60085</v>
+      </c>
+      <c r="C99" s="14">
+        <f t="shared" si="2"/>
+        <v>1401</v>
+      </c>
+      <c r="D99" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="13">
+        <v>96</v>
+      </c>
+      <c r="B100" s="14">
+        <f t="shared" si="3"/>
+        <v>61505</v>
+      </c>
+      <c r="C100" s="14">
+        <f t="shared" si="2"/>
+        <v>1420</v>
+      </c>
+      <c r="D100" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="13">
+        <v>97</v>
+      </c>
+      <c r="B101" s="14">
+        <f t="shared" si="3"/>
+        <v>62945</v>
+      </c>
+      <c r="C101" s="14">
+        <f t="shared" si="2"/>
+        <v>1440</v>
+      </c>
+      <c r="D101" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="13">
+        <v>98</v>
+      </c>
+      <c r="B102" s="14">
+        <f t="shared" si="3"/>
+        <v>64405</v>
+      </c>
+      <c r="C102" s="14">
+        <f t="shared" si="2"/>
+        <v>1460</v>
+      </c>
+      <c r="D102" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="13">
+        <v>99</v>
+      </c>
+      <c r="B103" s="14">
+        <f t="shared" si="3"/>
+        <v>65885</v>
+      </c>
+      <c r="C103" s="14">
+        <f t="shared" si="2"/>
+        <v>1480</v>
+      </c>
+      <c r="D103" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="13">
+        <v>100</v>
+      </c>
+      <c r="B104" s="14">
+        <f t="shared" si="3"/>
+        <v>67385</v>
+      </c>
+      <c r="C104" s="14">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="D104" s="13">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/LevelData.xlsx
+++ b/Android/ExcelData/LevelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869802C5-B586-457D-BD2B-174EC2174CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5FC6DB-E1F6-45E2-B9E0-A07BB7A44AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40635" yWindow="2430" windowWidth="34815" windowHeight="16545" activeTab="4" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="!Info" sheetId="4" r:id="rId1"/>
@@ -1849,7 +1849,7 @@
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4366,7 +4366,7 @@
   <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6:B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4429,8 +4429,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="14">
-        <f>C5</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" ref="C5:C68" si="0">INT(A5*10+A5^2*0.05)</f>
@@ -4445,8 +4444,8 @@
         <v>2</v>
       </c>
       <c r="B6" s="14">
-        <f t="shared" ref="B6:B69" si="1">B5+C6</f>
-        <v>30</v>
+        <f>B5+C5</f>
+        <v>10</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" si="0"/>
@@ -4461,8 +4460,8 @@
         <v>3</v>
       </c>
       <c r="B7" s="14">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f t="shared" ref="B7:B70" si="1">B6+C6</f>
+        <v>30</v>
       </c>
       <c r="C7" s="14">
         <f t="shared" si="0"/>
@@ -4478,7 +4477,7 @@
       </c>
       <c r="B8" s="14">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="C8" s="14">
         <f t="shared" si="0"/>
@@ -4494,7 +4493,7 @@
       </c>
       <c r="B9" s="14">
         <f t="shared" si="1"/>
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="C9" s="14">
         <f t="shared" si="0"/>
@@ -4510,7 +4509,7 @@
       </c>
       <c r="B10" s="14">
         <f t="shared" si="1"/>
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="C10" s="14">
         <f t="shared" si="0"/>
@@ -4526,7 +4525,7 @@
       </c>
       <c r="B11" s="14">
         <f t="shared" si="1"/>
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="C11" s="14">
         <f t="shared" si="0"/>
@@ -4542,7 +4541,7 @@
       </c>
       <c r="B12" s="14">
         <f t="shared" si="1"/>
-        <v>367</v>
+        <v>284</v>
       </c>
       <c r="C12" s="14">
         <f t="shared" si="0"/>
@@ -4558,7 +4557,7 @@
       </c>
       <c r="B13" s="14">
         <f t="shared" si="1"/>
-        <v>461</v>
+        <v>367</v>
       </c>
       <c r="C13" s="14">
         <f t="shared" si="0"/>
@@ -4574,7 +4573,7 @@
       </c>
       <c r="B14" s="14">
         <f t="shared" si="1"/>
-        <v>566</v>
+        <v>461</v>
       </c>
       <c r="C14" s="14">
         <f t="shared" si="0"/>
@@ -4590,7 +4589,7 @@
       </c>
       <c r="B15" s="14">
         <f t="shared" si="1"/>
-        <v>682</v>
+        <v>566</v>
       </c>
       <c r="C15" s="14">
         <f t="shared" si="0"/>
@@ -4606,7 +4605,7 @@
       </c>
       <c r="B16" s="14">
         <f t="shared" si="1"/>
-        <v>809</v>
+        <v>682</v>
       </c>
       <c r="C16" s="14">
         <f t="shared" si="0"/>
@@ -4622,7 +4621,7 @@
       </c>
       <c r="B17" s="14">
         <f t="shared" si="1"/>
-        <v>947</v>
+        <v>809</v>
       </c>
       <c r="C17" s="14">
         <f t="shared" si="0"/>
@@ -4638,7 +4637,7 @@
       </c>
       <c r="B18" s="14">
         <f t="shared" si="1"/>
-        <v>1096</v>
+        <v>947</v>
       </c>
       <c r="C18" s="14">
         <f t="shared" si="0"/>
@@ -4654,7 +4653,7 @@
       </c>
       <c r="B19" s="14">
         <f t="shared" si="1"/>
-        <v>1257</v>
+        <v>1096</v>
       </c>
       <c r="C19" s="14">
         <f t="shared" si="0"/>
@@ -4670,7 +4669,7 @@
       </c>
       <c r="B20" s="14">
         <f t="shared" si="1"/>
-        <v>1429</v>
+        <v>1257</v>
       </c>
       <c r="C20" s="14">
         <f t="shared" si="0"/>
@@ -4686,7 +4685,7 @@
       </c>
       <c r="B21" s="14">
         <f t="shared" si="1"/>
-        <v>1613</v>
+        <v>1429</v>
       </c>
       <c r="C21" s="14">
         <f t="shared" si="0"/>
@@ -4702,7 +4701,7 @@
       </c>
       <c r="B22" s="14">
         <f t="shared" si="1"/>
-        <v>1809</v>
+        <v>1613</v>
       </c>
       <c r="C22" s="14">
         <f t="shared" si="0"/>
@@ -4718,7 +4717,7 @@
       </c>
       <c r="B23" s="14">
         <f t="shared" si="1"/>
-        <v>2017</v>
+        <v>1809</v>
       </c>
       <c r="C23" s="14">
         <f t="shared" si="0"/>
@@ -4734,7 +4733,7 @@
       </c>
       <c r="B24" s="14">
         <f t="shared" si="1"/>
-        <v>2237</v>
+        <v>2017</v>
       </c>
       <c r="C24" s="14">
         <f t="shared" si="0"/>
@@ -4750,7 +4749,7 @@
       </c>
       <c r="B25" s="14">
         <f t="shared" si="1"/>
-        <v>2469</v>
+        <v>2237</v>
       </c>
       <c r="C25" s="14">
         <f t="shared" si="0"/>
@@ -4766,7 +4765,7 @@
       </c>
       <c r="B26" s="14">
         <f t="shared" si="1"/>
-        <v>2713</v>
+        <v>2469</v>
       </c>
       <c r="C26" s="14">
         <f t="shared" si="0"/>
@@ -4782,7 +4781,7 @@
       </c>
       <c r="B27" s="14">
         <f t="shared" si="1"/>
-        <v>2969</v>
+        <v>2713</v>
       </c>
       <c r="C27" s="14">
         <f t="shared" si="0"/>
@@ -4798,7 +4797,7 @@
       </c>
       <c r="B28" s="14">
         <f t="shared" si="1"/>
-        <v>3237</v>
+        <v>2969</v>
       </c>
       <c r="C28" s="14">
         <f t="shared" si="0"/>
@@ -4814,7 +4813,7 @@
       </c>
       <c r="B29" s="14">
         <f t="shared" si="1"/>
-        <v>3518</v>
+        <v>3237</v>
       </c>
       <c r="C29" s="14">
         <f t="shared" si="0"/>
@@ -4830,7 +4829,7 @@
       </c>
       <c r="B30" s="14">
         <f t="shared" si="1"/>
-        <v>3811</v>
+        <v>3518</v>
       </c>
       <c r="C30" s="14">
         <f t="shared" si="0"/>
@@ -4846,7 +4845,7 @@
       </c>
       <c r="B31" s="14">
         <f t="shared" si="1"/>
-        <v>4117</v>
+        <v>3811</v>
       </c>
       <c r="C31" s="14">
         <f t="shared" si="0"/>
@@ -4862,7 +4861,7 @@
       </c>
       <c r="B32" s="14">
         <f t="shared" si="1"/>
-        <v>4436</v>
+        <v>4117</v>
       </c>
       <c r="C32" s="14">
         <f t="shared" si="0"/>
@@ -4878,7 +4877,7 @@
       </c>
       <c r="B33" s="14">
         <f t="shared" si="1"/>
-        <v>4768</v>
+        <v>4436</v>
       </c>
       <c r="C33" s="14">
         <f t="shared" si="0"/>
@@ -4894,7 +4893,7 @@
       </c>
       <c r="B34" s="14">
         <f t="shared" si="1"/>
-        <v>5113</v>
+        <v>4768</v>
       </c>
       <c r="C34" s="14">
         <f t="shared" si="0"/>
@@ -4910,7 +4909,7 @@
       </c>
       <c r="B35" s="14">
         <f t="shared" si="1"/>
-        <v>5471</v>
+        <v>5113</v>
       </c>
       <c r="C35" s="14">
         <f t="shared" si="0"/>
@@ -4926,7 +4925,7 @@
       </c>
       <c r="B36" s="14">
         <f t="shared" si="1"/>
-        <v>5842</v>
+        <v>5471</v>
       </c>
       <c r="C36" s="14">
         <f t="shared" si="0"/>
@@ -4942,7 +4941,7 @@
       </c>
       <c r="B37" s="14">
         <f t="shared" si="1"/>
-        <v>6226</v>
+        <v>5842</v>
       </c>
       <c r="C37" s="14">
         <f t="shared" si="0"/>
@@ -4958,7 +4957,7 @@
       </c>
       <c r="B38" s="14">
         <f t="shared" si="1"/>
-        <v>6623</v>
+        <v>6226</v>
       </c>
       <c r="C38" s="14">
         <f t="shared" si="0"/>
@@ -4974,7 +4973,7 @@
       </c>
       <c r="B39" s="14">
         <f t="shared" si="1"/>
-        <v>7034</v>
+        <v>6623</v>
       </c>
       <c r="C39" s="14">
         <f t="shared" si="0"/>
@@ -4990,7 +4989,7 @@
       </c>
       <c r="B40" s="14">
         <f t="shared" si="1"/>
-        <v>7458</v>
+        <v>7034</v>
       </c>
       <c r="C40" s="14">
         <f t="shared" si="0"/>
@@ -5006,7 +5005,7 @@
       </c>
       <c r="B41" s="14">
         <f t="shared" si="1"/>
-        <v>7896</v>
+        <v>7458</v>
       </c>
       <c r="C41" s="14">
         <f t="shared" si="0"/>
@@ -5022,7 +5021,7 @@
       </c>
       <c r="B42" s="14">
         <f t="shared" si="1"/>
-        <v>8348</v>
+        <v>7896</v>
       </c>
       <c r="C42" s="14">
         <f t="shared" si="0"/>
@@ -5038,7 +5037,7 @@
       </c>
       <c r="B43" s="14">
         <f t="shared" si="1"/>
-        <v>8814</v>
+        <v>8348</v>
       </c>
       <c r="C43" s="14">
         <f t="shared" si="0"/>
@@ -5054,7 +5053,7 @@
       </c>
       <c r="B44" s="14">
         <f t="shared" si="1"/>
-        <v>9294</v>
+        <v>8814</v>
       </c>
       <c r="C44" s="14">
         <f t="shared" si="0"/>
@@ -5070,7 +5069,7 @@
       </c>
       <c r="B45" s="14">
         <f t="shared" si="1"/>
-        <v>9788</v>
+        <v>9294</v>
       </c>
       <c r="C45" s="14">
         <f t="shared" si="0"/>
@@ -5086,7 +5085,7 @@
       </c>
       <c r="B46" s="14">
         <f t="shared" si="1"/>
-        <v>10296</v>
+        <v>9788</v>
       </c>
       <c r="C46" s="14">
         <f t="shared" si="0"/>
@@ -5102,7 +5101,7 @@
       </c>
       <c r="B47" s="14">
         <f t="shared" si="1"/>
-        <v>10818</v>
+        <v>10296</v>
       </c>
       <c r="C47" s="14">
         <f t="shared" si="0"/>
@@ -5118,7 +5117,7 @@
       </c>
       <c r="B48" s="14">
         <f t="shared" si="1"/>
-        <v>11354</v>
+        <v>10818</v>
       </c>
       <c r="C48" s="14">
         <f t="shared" si="0"/>
@@ -5134,7 +5133,7 @@
       </c>
       <c r="B49" s="14">
         <f t="shared" si="1"/>
-        <v>11905</v>
+        <v>11354</v>
       </c>
       <c r="C49" s="14">
         <f t="shared" si="0"/>
@@ -5150,7 +5149,7 @@
       </c>
       <c r="B50" s="14">
         <f t="shared" si="1"/>
-        <v>12470</v>
+        <v>11905</v>
       </c>
       <c r="C50" s="14">
         <f t="shared" si="0"/>
@@ -5166,7 +5165,7 @@
       </c>
       <c r="B51" s="14">
         <f t="shared" si="1"/>
-        <v>13050</v>
+        <v>12470</v>
       </c>
       <c r="C51" s="14">
         <f t="shared" si="0"/>
@@ -5182,7 +5181,7 @@
       </c>
       <c r="B52" s="14">
         <f t="shared" si="1"/>
-        <v>13645</v>
+        <v>13050</v>
       </c>
       <c r="C52" s="14">
         <f t="shared" si="0"/>
@@ -5198,7 +5197,7 @@
       </c>
       <c r="B53" s="14">
         <f t="shared" si="1"/>
-        <v>14255</v>
+        <v>13645</v>
       </c>
       <c r="C53" s="14">
         <f t="shared" si="0"/>
@@ -5214,7 +5213,7 @@
       </c>
       <c r="B54" s="14">
         <f t="shared" si="1"/>
-        <v>14880</v>
+        <v>14255</v>
       </c>
       <c r="C54" s="14">
         <f t="shared" si="0"/>
@@ -5230,7 +5229,7 @@
       </c>
       <c r="B55" s="14">
         <f t="shared" si="1"/>
-        <v>15520</v>
+        <v>14880</v>
       </c>
       <c r="C55" s="14">
         <f t="shared" si="0"/>
@@ -5246,7 +5245,7 @@
       </c>
       <c r="B56" s="14">
         <f t="shared" si="1"/>
-        <v>16175</v>
+        <v>15520</v>
       </c>
       <c r="C56" s="14">
         <f t="shared" si="0"/>
@@ -5262,7 +5261,7 @@
       </c>
       <c r="B57" s="14">
         <f t="shared" si="1"/>
-        <v>16845</v>
+        <v>16175</v>
       </c>
       <c r="C57" s="14">
         <f t="shared" si="0"/>
@@ -5278,7 +5277,7 @@
       </c>
       <c r="B58" s="14">
         <f t="shared" si="1"/>
-        <v>17530</v>
+        <v>16845</v>
       </c>
       <c r="C58" s="14">
         <f t="shared" si="0"/>
@@ -5294,7 +5293,7 @@
       </c>
       <c r="B59" s="14">
         <f t="shared" si="1"/>
-        <v>18231</v>
+        <v>17530</v>
       </c>
       <c r="C59" s="14">
         <f t="shared" si="0"/>
@@ -5310,7 +5309,7 @@
       </c>
       <c r="B60" s="14">
         <f t="shared" si="1"/>
-        <v>18947</v>
+        <v>18231</v>
       </c>
       <c r="C60" s="14">
         <f t="shared" si="0"/>
@@ -5326,7 +5325,7 @@
       </c>
       <c r="B61" s="14">
         <f t="shared" si="1"/>
-        <v>19679</v>
+        <v>18947</v>
       </c>
       <c r="C61" s="14">
         <f t="shared" si="0"/>
@@ -5342,7 +5341,7 @@
       </c>
       <c r="B62" s="14">
         <f t="shared" si="1"/>
-        <v>20427</v>
+        <v>19679</v>
       </c>
       <c r="C62" s="14">
         <f t="shared" si="0"/>
@@ -5358,7 +5357,7 @@
       </c>
       <c r="B63" s="14">
         <f t="shared" si="1"/>
-        <v>21191</v>
+        <v>20427</v>
       </c>
       <c r="C63" s="14">
         <f t="shared" si="0"/>
@@ -5374,7 +5373,7 @@
       </c>
       <c r="B64" s="14">
         <f t="shared" si="1"/>
-        <v>21971</v>
+        <v>21191</v>
       </c>
       <c r="C64" s="14">
         <f t="shared" si="0"/>
@@ -5390,7 +5389,7 @@
       </c>
       <c r="B65" s="14">
         <f t="shared" si="1"/>
-        <v>22767</v>
+        <v>21971</v>
       </c>
       <c r="C65" s="14">
         <f t="shared" si="0"/>
@@ -5406,7 +5405,7 @@
       </c>
       <c r="B66" s="14">
         <f t="shared" si="1"/>
-        <v>23579</v>
+        <v>22767</v>
       </c>
       <c r="C66" s="14">
         <f t="shared" si="0"/>
@@ -5422,7 +5421,7 @@
       </c>
       <c r="B67" s="14">
         <f t="shared" si="1"/>
-        <v>24407</v>
+        <v>23579</v>
       </c>
       <c r="C67" s="14">
         <f t="shared" si="0"/>
@@ -5438,7 +5437,7 @@
       </c>
       <c r="B68" s="14">
         <f t="shared" si="1"/>
-        <v>25251</v>
+        <v>24407</v>
       </c>
       <c r="C68" s="14">
         <f t="shared" si="0"/>
@@ -5454,7 +5453,7 @@
       </c>
       <c r="B69" s="14">
         <f t="shared" si="1"/>
-        <v>26112</v>
+        <v>25251</v>
       </c>
       <c r="C69" s="14">
         <f t="shared" ref="C69:C104" si="2">INT(A69*10+A69^2*0.05)</f>
@@ -5469,8 +5468,8 @@
         <v>66</v>
       </c>
       <c r="B70" s="14">
-        <f t="shared" ref="B70:B104" si="3">B69+C70</f>
-        <v>26989</v>
+        <f t="shared" si="1"/>
+        <v>26112</v>
       </c>
       <c r="C70" s="14">
         <f t="shared" si="2"/>
@@ -5485,8 +5484,8 @@
         <v>67</v>
       </c>
       <c r="B71" s="14">
-        <f t="shared" si="3"/>
-        <v>27883</v>
+        <f t="shared" ref="B71:B104" si="3">B70+C70</f>
+        <v>26989</v>
       </c>
       <c r="C71" s="14">
         <f t="shared" si="2"/>
@@ -5502,7 +5501,7 @@
       </c>
       <c r="B72" s="14">
         <f t="shared" si="3"/>
-        <v>28794</v>
+        <v>27883</v>
       </c>
       <c r="C72" s="14">
         <f t="shared" si="2"/>
@@ -5518,7 +5517,7 @@
       </c>
       <c r="B73" s="14">
         <f t="shared" si="3"/>
-        <v>29722</v>
+        <v>28794</v>
       </c>
       <c r="C73" s="14">
         <f t="shared" si="2"/>
@@ -5534,7 +5533,7 @@
       </c>
       <c r="B74" s="14">
         <f t="shared" si="3"/>
-        <v>30667</v>
+        <v>29722</v>
       </c>
       <c r="C74" s="14">
         <f t="shared" si="2"/>
@@ -5550,7 +5549,7 @@
       </c>
       <c r="B75" s="14">
         <f t="shared" si="3"/>
-        <v>31629</v>
+        <v>30667</v>
       </c>
       <c r="C75" s="14">
         <f t="shared" si="2"/>
@@ -5566,7 +5565,7 @@
       </c>
       <c r="B76" s="14">
         <f t="shared" si="3"/>
-        <v>32608</v>
+        <v>31629</v>
       </c>
       <c r="C76" s="14">
         <f t="shared" si="2"/>
@@ -5582,7 +5581,7 @@
       </c>
       <c r="B77" s="14">
         <f t="shared" si="3"/>
-        <v>33604</v>
+        <v>32608</v>
       </c>
       <c r="C77" s="14">
         <f t="shared" si="2"/>
@@ -5598,7 +5597,7 @@
       </c>
       <c r="B78" s="14">
         <f t="shared" si="3"/>
-        <v>34617</v>
+        <v>33604</v>
       </c>
       <c r="C78" s="14">
         <f t="shared" si="2"/>
@@ -5614,7 +5613,7 @@
       </c>
       <c r="B79" s="14">
         <f t="shared" si="3"/>
-        <v>35648</v>
+        <v>34617</v>
       </c>
       <c r="C79" s="14">
         <f t="shared" si="2"/>
@@ -5630,7 +5629,7 @@
       </c>
       <c r="B80" s="14">
         <f t="shared" si="3"/>
-        <v>36696</v>
+        <v>35648</v>
       </c>
       <c r="C80" s="14">
         <f t="shared" si="2"/>
@@ -5646,7 +5645,7 @@
       </c>
       <c r="B81" s="14">
         <f t="shared" si="3"/>
-        <v>37762</v>
+        <v>36696</v>
       </c>
       <c r="C81" s="14">
         <f t="shared" si="2"/>
@@ -5662,7 +5661,7 @@
       </c>
       <c r="B82" s="14">
         <f t="shared" si="3"/>
-        <v>38846</v>
+        <v>37762</v>
       </c>
       <c r="C82" s="14">
         <f t="shared" si="2"/>
@@ -5678,7 +5677,7 @@
       </c>
       <c r="B83" s="14">
         <f t="shared" si="3"/>
-        <v>39948</v>
+        <v>38846</v>
       </c>
       <c r="C83" s="14">
         <f t="shared" si="2"/>
@@ -5694,7 +5693,7 @@
       </c>
       <c r="B84" s="14">
         <f t="shared" si="3"/>
-        <v>41068</v>
+        <v>39948</v>
       </c>
       <c r="C84" s="14">
         <f t="shared" si="2"/>
@@ -5710,7 +5709,7 @@
       </c>
       <c r="B85" s="14">
         <f t="shared" si="3"/>
-        <v>42206</v>
+        <v>41068</v>
       </c>
       <c r="C85" s="14">
         <f t="shared" si="2"/>
@@ -5726,7 +5725,7 @@
       </c>
       <c r="B86" s="14">
         <f t="shared" si="3"/>
-        <v>43362</v>
+        <v>42206</v>
       </c>
       <c r="C86" s="14">
         <f t="shared" si="2"/>
@@ -5742,7 +5741,7 @@
       </c>
       <c r="B87" s="14">
         <f t="shared" si="3"/>
-        <v>44536</v>
+        <v>43362</v>
       </c>
       <c r="C87" s="14">
         <f t="shared" si="2"/>
@@ -5758,7 +5757,7 @@
       </c>
       <c r="B88" s="14">
         <f t="shared" si="3"/>
-        <v>45728</v>
+        <v>44536</v>
       </c>
       <c r="C88" s="14">
         <f t="shared" si="2"/>
@@ -5774,7 +5773,7 @@
       </c>
       <c r="B89" s="14">
         <f t="shared" si="3"/>
-        <v>46939</v>
+        <v>45728</v>
       </c>
       <c r="C89" s="14">
         <f t="shared" si="2"/>
@@ -5790,7 +5789,7 @@
       </c>
       <c r="B90" s="14">
         <f t="shared" si="3"/>
-        <v>48168</v>
+        <v>46939</v>
       </c>
       <c r="C90" s="14">
         <f t="shared" si="2"/>
@@ -5806,7 +5805,7 @@
       </c>
       <c r="B91" s="14">
         <f t="shared" si="3"/>
-        <v>49416</v>
+        <v>48168</v>
       </c>
       <c r="C91" s="14">
         <f t="shared" si="2"/>
@@ -5822,7 +5821,7 @@
       </c>
       <c r="B92" s="14">
         <f t="shared" si="3"/>
-        <v>50683</v>
+        <v>49416</v>
       </c>
       <c r="C92" s="14">
         <f t="shared" si="2"/>
@@ -5838,7 +5837,7 @@
       </c>
       <c r="B93" s="14">
         <f t="shared" si="3"/>
-        <v>51969</v>
+        <v>50683</v>
       </c>
       <c r="C93" s="14">
         <f t="shared" si="2"/>
@@ -5854,7 +5853,7 @@
       </c>
       <c r="B94" s="14">
         <f t="shared" si="3"/>
-        <v>53274</v>
+        <v>51969</v>
       </c>
       <c r="C94" s="14">
         <f t="shared" si="2"/>
@@ -5870,7 +5869,7 @@
       </c>
       <c r="B95" s="14">
         <f t="shared" si="3"/>
-        <v>54598</v>
+        <v>53274</v>
       </c>
       <c r="C95" s="14">
         <f t="shared" si="2"/>
@@ -5886,7 +5885,7 @@
       </c>
       <c r="B96" s="14">
         <f t="shared" si="3"/>
-        <v>55941</v>
+        <v>54598</v>
       </c>
       <c r="C96" s="14">
         <f t="shared" si="2"/>
@@ -5902,7 +5901,7 @@
       </c>
       <c r="B97" s="14">
         <f t="shared" si="3"/>
-        <v>57303</v>
+        <v>55941</v>
       </c>
       <c r="C97" s="14">
         <f t="shared" si="2"/>
@@ -5918,7 +5917,7 @@
       </c>
       <c r="B98" s="14">
         <f t="shared" si="3"/>
-        <v>58684</v>
+        <v>57303</v>
       </c>
       <c r="C98" s="14">
         <f t="shared" si="2"/>
@@ -5934,7 +5933,7 @@
       </c>
       <c r="B99" s="14">
         <f t="shared" si="3"/>
-        <v>60085</v>
+        <v>58684</v>
       </c>
       <c r="C99" s="14">
         <f t="shared" si="2"/>
@@ -5950,7 +5949,7 @@
       </c>
       <c r="B100" s="14">
         <f t="shared" si="3"/>
-        <v>61505</v>
+        <v>60085</v>
       </c>
       <c r="C100" s="14">
         <f t="shared" si="2"/>
@@ -5966,7 +5965,7 @@
       </c>
       <c r="B101" s="14">
         <f t="shared" si="3"/>
-        <v>62945</v>
+        <v>61505</v>
       </c>
       <c r="C101" s="14">
         <f t="shared" si="2"/>
@@ -5982,7 +5981,7 @@
       </c>
       <c r="B102" s="14">
         <f t="shared" si="3"/>
-        <v>64405</v>
+        <v>62945</v>
       </c>
       <c r="C102" s="14">
         <f t="shared" si="2"/>
@@ -5998,7 +5997,7 @@
       </c>
       <c r="B103" s="14">
         <f t="shared" si="3"/>
-        <v>65885</v>
+        <v>64405</v>
       </c>
       <c r="C103" s="14">
         <f t="shared" si="2"/>
@@ -6014,7 +6013,7 @@
       </c>
       <c r="B104" s="14">
         <f t="shared" si="3"/>
-        <v>67385</v>
+        <v>65885</v>
       </c>
       <c r="C104" s="14">
         <f t="shared" si="2"/>

--- a/Android/ExcelData/LevelData.xlsx
+++ b/Android/ExcelData/LevelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5FC6DB-E1F6-45E2-B9E0-A07BB7A44AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7461547-FDE4-4980-A04C-62191979914C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
+    <workbookView xWindow="41280" yWindow="930" windowWidth="27975" windowHeight="19770" activeTab="4" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="!Info" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
   <si>
     <t>레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>필요 경험치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -143,6 +139,14 @@
   <si>
     <t>Player_Character_Love_Level_Data</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_1:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호감도 랭크(인연 랭크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -669,12 +673,12 @@
   <sheetData>
     <row r="4" spans="2:2">
       <c r="B4" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -688,7 +692,7 @@
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -699,7 +703,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1">
         <v>1.1000000000000001</v>
@@ -718,24 +722,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1849,7 +1853,7 @@
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1861,7 +1865,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1877,24 +1881,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3008,7 +3012,7 @@
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3019,7 +3023,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3035,24 +3039,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4366,7 +4370,7 @@
   <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B104"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4379,7 +4383,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4393,35 +4397,35 @@
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Android/ExcelData/LevelData.xlsx
+++ b/Android/ExcelData/LevelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7461547-FDE4-4980-A04C-62191979914C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB25A27-C674-4623-9F99-B899C287EF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41280" yWindow="930" windowWidth="27975" windowHeight="19770" activeTab="4" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="!Info" sheetId="4" r:id="rId1"/>
@@ -367,9 +367,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -407,7 +407,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -513,7 +513,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -655,7 +655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -692,7 +692,7 @@
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1853,7 +1853,7 @@
   <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B5" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3011,14 +3011,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7E51F6-11A1-4FF2-8AEF-9150D6D26A64}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3064,8 +3065,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <f>C5</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:C36" si="0">INT(A5*10+A5^2*0.05)</f>
@@ -3077,8 +3077,8 @@
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" ref="B6:B37" si="1">B5+C6</f>
-        <v>30</v>
+        <f>B5+C5</f>
+        <v>10</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
@@ -3090,8 +3090,8 @@
         <v>3</v>
       </c>
       <c r="B7" s="4">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>B6+C6</f>
+        <v>30</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
@@ -3103,8 +3103,8 @@
         <v>4</v>
       </c>
       <c r="B8" s="4">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f t="shared" ref="B8:B71" si="1">B7+C7</f>
+        <v>60</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B9" s="4">
         <f t="shared" si="1"/>
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="B10" s="4">
         <f t="shared" si="1"/>
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="B11" s="4">
         <f t="shared" si="1"/>
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B12" s="4">
         <f t="shared" si="1"/>
-        <v>367</v>
+        <v>284</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" si="1"/>
-        <v>461</v>
+        <v>367</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="B14" s="4">
         <f t="shared" si="1"/>
-        <v>566</v>
+        <v>461</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="B15" s="4">
         <f t="shared" si="1"/>
-        <v>682</v>
+        <v>566</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="0"/>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B16" s="4">
         <f t="shared" si="1"/>
-        <v>809</v>
+        <v>682</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B17" s="4">
         <f t="shared" si="1"/>
-        <v>947</v>
+        <v>809</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="B18" s="4">
         <f t="shared" si="1"/>
-        <v>1096</v>
+        <v>947</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="B19" s="4">
         <f t="shared" si="1"/>
-        <v>1257</v>
+        <v>1096</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="B20" s="4">
         <f t="shared" si="1"/>
-        <v>1429</v>
+        <v>1257</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B21" s="4">
         <f t="shared" si="1"/>
-        <v>1613</v>
+        <v>1429</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="0"/>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="B22" s="4">
         <f t="shared" si="1"/>
-        <v>1809</v>
+        <v>1613</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="0"/>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="B23" s="4">
         <f t="shared" si="1"/>
-        <v>2017</v>
+        <v>1809</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="0"/>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="B24" s="4">
         <f t="shared" si="1"/>
-        <v>2237</v>
+        <v>2017</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="0"/>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B25" s="4">
         <f t="shared" si="1"/>
-        <v>2469</v>
+        <v>2237</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="0"/>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="B26" s="4">
         <f t="shared" si="1"/>
-        <v>2713</v>
+        <v>2469</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B27" s="4">
         <f t="shared" si="1"/>
-        <v>2969</v>
+        <v>2713</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="B28" s="4">
         <f t="shared" si="1"/>
-        <v>3237</v>
+        <v>2969</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B29" s="4">
         <f t="shared" si="1"/>
-        <v>3518</v>
+        <v>3237</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
@@ -3390,7 +3390,7 @@
       </c>
       <c r="B30" s="4">
         <f t="shared" si="1"/>
-        <v>3811</v>
+        <v>3518</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="0"/>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="B31" s="4">
         <f t="shared" si="1"/>
-        <v>4117</v>
+        <v>3811</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="0"/>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="B32" s="4">
         <f t="shared" si="1"/>
-        <v>4436</v>
+        <v>4117</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="0"/>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B33" s="4">
         <f t="shared" si="1"/>
-        <v>4768</v>
+        <v>4436</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="0"/>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B34" s="4">
         <f t="shared" si="1"/>
-        <v>5113</v>
+        <v>4768</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="0"/>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="B35" s="4">
         <f t="shared" si="1"/>
-        <v>5471</v>
+        <v>5113</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="0"/>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="B36" s="4">
         <f t="shared" si="1"/>
-        <v>5842</v>
+        <v>5471</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="0"/>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="B37" s="4">
         <f t="shared" si="1"/>
-        <v>6226</v>
+        <v>5842</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" ref="C37:C68" si="2">INT(A37*10+A37^2*0.05)</f>
@@ -3493,8 +3493,8 @@
         <v>34</v>
       </c>
       <c r="B38" s="4">
-        <f t="shared" ref="B38:B69" si="3">B37+C38</f>
-        <v>6623</v>
+        <f t="shared" si="1"/>
+        <v>6226</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="2"/>
@@ -3506,8 +3506,8 @@
         <v>35</v>
       </c>
       <c r="B39" s="4">
-        <f t="shared" si="3"/>
-        <v>7034</v>
+        <f t="shared" si="1"/>
+        <v>6623</v>
       </c>
       <c r="C39" s="4">
         <f t="shared" si="2"/>
@@ -3519,8 +3519,8 @@
         <v>36</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" si="3"/>
-        <v>7458</v>
+        <f t="shared" si="1"/>
+        <v>7034</v>
       </c>
       <c r="C40" s="4">
         <f t="shared" si="2"/>
@@ -3532,8 +3532,8 @@
         <v>37</v>
       </c>
       <c r="B41" s="4">
-        <f t="shared" si="3"/>
-        <v>7896</v>
+        <f t="shared" si="1"/>
+        <v>7458</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="2"/>
@@ -3545,8 +3545,8 @@
         <v>38</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" si="3"/>
-        <v>8348</v>
+        <f t="shared" si="1"/>
+        <v>7896</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="2"/>
@@ -3558,8 +3558,8 @@
         <v>39</v>
       </c>
       <c r="B43" s="4">
-        <f t="shared" si="3"/>
-        <v>8814</v>
+        <f t="shared" si="1"/>
+        <v>8348</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="2"/>
@@ -3571,8 +3571,8 @@
         <v>40</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" si="3"/>
-        <v>9294</v>
+        <f t="shared" si="1"/>
+        <v>8814</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="2"/>
@@ -3584,8 +3584,8 @@
         <v>41</v>
       </c>
       <c r="B45" s="4">
-        <f t="shared" si="3"/>
-        <v>9788</v>
+        <f t="shared" si="1"/>
+        <v>9294</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" si="2"/>
@@ -3597,8 +3597,8 @@
         <v>42</v>
       </c>
       <c r="B46" s="4">
-        <f t="shared" si="3"/>
-        <v>10296</v>
+        <f t="shared" si="1"/>
+        <v>9788</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" si="2"/>
@@ -3610,8 +3610,8 @@
         <v>43</v>
       </c>
       <c r="B47" s="4">
-        <f t="shared" si="3"/>
-        <v>10818</v>
+        <f t="shared" si="1"/>
+        <v>10296</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" si="2"/>
@@ -3623,8 +3623,8 @@
         <v>44</v>
       </c>
       <c r="B48" s="4">
-        <f t="shared" si="3"/>
-        <v>11354</v>
+        <f t="shared" si="1"/>
+        <v>10818</v>
       </c>
       <c r="C48" s="4">
         <f t="shared" si="2"/>
@@ -3636,8 +3636,8 @@
         <v>45</v>
       </c>
       <c r="B49" s="4">
-        <f t="shared" si="3"/>
-        <v>11905</v>
+        <f t="shared" si="1"/>
+        <v>11354</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" si="2"/>
@@ -3649,8 +3649,8 @@
         <v>46</v>
       </c>
       <c r="B50" s="4">
-        <f t="shared" si="3"/>
-        <v>12470</v>
+        <f t="shared" si="1"/>
+        <v>11905</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" si="2"/>
@@ -3662,8 +3662,8 @@
         <v>47</v>
       </c>
       <c r="B51" s="4">
-        <f t="shared" si="3"/>
-        <v>13050</v>
+        <f t="shared" si="1"/>
+        <v>12470</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" si="2"/>
@@ -3675,8 +3675,8 @@
         <v>48</v>
       </c>
       <c r="B52" s="4">
-        <f t="shared" si="3"/>
-        <v>13645</v>
+        <f t="shared" si="1"/>
+        <v>13050</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="2"/>
@@ -3688,8 +3688,8 @@
         <v>49</v>
       </c>
       <c r="B53" s="4">
-        <f t="shared" si="3"/>
-        <v>14255</v>
+        <f t="shared" si="1"/>
+        <v>13645</v>
       </c>
       <c r="C53" s="4">
         <f t="shared" si="2"/>
@@ -3701,8 +3701,8 @@
         <v>50</v>
       </c>
       <c r="B54" s="4">
-        <f t="shared" si="3"/>
-        <v>14880</v>
+        <f t="shared" si="1"/>
+        <v>14255</v>
       </c>
       <c r="C54" s="4">
         <f t="shared" si="2"/>
@@ -3714,8 +3714,8 @@
         <v>51</v>
       </c>
       <c r="B55" s="4">
-        <f t="shared" si="3"/>
-        <v>15520</v>
+        <f t="shared" si="1"/>
+        <v>14880</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" si="2"/>
@@ -3727,8 +3727,8 @@
         <v>52</v>
       </c>
       <c r="B56" s="4">
-        <f t="shared" si="3"/>
-        <v>16175</v>
+        <f t="shared" si="1"/>
+        <v>15520</v>
       </c>
       <c r="C56" s="4">
         <f t="shared" si="2"/>
@@ -3740,8 +3740,8 @@
         <v>53</v>
       </c>
       <c r="B57" s="4">
-        <f t="shared" si="3"/>
-        <v>16845</v>
+        <f t="shared" si="1"/>
+        <v>16175</v>
       </c>
       <c r="C57" s="4">
         <f t="shared" si="2"/>
@@ -3753,8 +3753,8 @@
         <v>54</v>
       </c>
       <c r="B58" s="4">
-        <f t="shared" si="3"/>
-        <v>17530</v>
+        <f t="shared" si="1"/>
+        <v>16845</v>
       </c>
       <c r="C58" s="4">
         <f t="shared" si="2"/>
@@ -3766,8 +3766,8 @@
         <v>55</v>
       </c>
       <c r="B59" s="4">
-        <f t="shared" si="3"/>
-        <v>18231</v>
+        <f t="shared" si="1"/>
+        <v>17530</v>
       </c>
       <c r="C59" s="4">
         <f t="shared" si="2"/>
@@ -3779,8 +3779,8 @@
         <v>56</v>
       </c>
       <c r="B60" s="4">
-        <f t="shared" si="3"/>
-        <v>18947</v>
+        <f t="shared" si="1"/>
+        <v>18231</v>
       </c>
       <c r="C60" s="4">
         <f t="shared" si="2"/>
@@ -3792,8 +3792,8 @@
         <v>57</v>
       </c>
       <c r="B61" s="4">
-        <f t="shared" si="3"/>
-        <v>19679</v>
+        <f t="shared" si="1"/>
+        <v>18947</v>
       </c>
       <c r="C61" s="4">
         <f t="shared" si="2"/>
@@ -3805,8 +3805,8 @@
         <v>58</v>
       </c>
       <c r="B62" s="4">
-        <f t="shared" si="3"/>
-        <v>20427</v>
+        <f t="shared" si="1"/>
+        <v>19679</v>
       </c>
       <c r="C62" s="4">
         <f t="shared" si="2"/>
@@ -3818,8 +3818,8 @@
         <v>59</v>
       </c>
       <c r="B63" s="4">
-        <f t="shared" si="3"/>
-        <v>21191</v>
+        <f t="shared" si="1"/>
+        <v>20427</v>
       </c>
       <c r="C63" s="4">
         <f t="shared" si="2"/>
@@ -3831,8 +3831,8 @@
         <v>60</v>
       </c>
       <c r="B64" s="4">
-        <f t="shared" si="3"/>
-        <v>21971</v>
+        <f t="shared" si="1"/>
+        <v>21191</v>
       </c>
       <c r="C64" s="4">
         <f t="shared" si="2"/>
@@ -3844,8 +3844,8 @@
         <v>61</v>
       </c>
       <c r="B65" s="4">
-        <f t="shared" si="3"/>
-        <v>22767</v>
+        <f t="shared" si="1"/>
+        <v>21971</v>
       </c>
       <c r="C65" s="4">
         <f t="shared" si="2"/>
@@ -3857,8 +3857,8 @@
         <v>62</v>
       </c>
       <c r="B66" s="4">
-        <f t="shared" si="3"/>
-        <v>23579</v>
+        <f t="shared" si="1"/>
+        <v>22767</v>
       </c>
       <c r="C66" s="4">
         <f t="shared" si="2"/>
@@ -3870,8 +3870,8 @@
         <v>63</v>
       </c>
       <c r="B67" s="4">
-        <f t="shared" si="3"/>
-        <v>24407</v>
+        <f t="shared" si="1"/>
+        <v>23579</v>
       </c>
       <c r="C67" s="4">
         <f t="shared" si="2"/>
@@ -3883,8 +3883,8 @@
         <v>64</v>
       </c>
       <c r="B68" s="4">
-        <f t="shared" si="3"/>
-        <v>25251</v>
+        <f t="shared" si="1"/>
+        <v>24407</v>
       </c>
       <c r="C68" s="4">
         <f t="shared" si="2"/>
@@ -3896,11 +3896,11 @@
         <v>65</v>
       </c>
       <c r="B69" s="4">
-        <f t="shared" si="3"/>
-        <v>26112</v>
+        <f t="shared" si="1"/>
+        <v>25251</v>
       </c>
       <c r="C69" s="4">
-        <f t="shared" ref="C69:C104" si="4">INT(A69*10+A69^2*0.05)</f>
+        <f t="shared" ref="C69:C104" si="3">INT(A69*10+A69^2*0.05)</f>
         <v>861</v>
       </c>
     </row>
@@ -3909,11 +3909,11 @@
         <v>66</v>
       </c>
       <c r="B70" s="4">
-        <f t="shared" ref="B70:B101" si="5">B69+C70</f>
-        <v>26989</v>
+        <f t="shared" si="1"/>
+        <v>26112</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>877</v>
       </c>
     </row>
@@ -3922,11 +3922,11 @@
         <v>67</v>
       </c>
       <c r="B71" s="4">
-        <f t="shared" si="5"/>
-        <v>27883</v>
+        <f t="shared" si="1"/>
+        <v>26989</v>
       </c>
       <c r="C71" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>894</v>
       </c>
     </row>
@@ -3935,11 +3935,11 @@
         <v>68</v>
       </c>
       <c r="B72" s="4">
-        <f t="shared" si="5"/>
-        <v>28794</v>
+        <f t="shared" ref="B72:B104" si="4">B71+C71</f>
+        <v>27883</v>
       </c>
       <c r="C72" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>911</v>
       </c>
     </row>
@@ -3948,11 +3948,11 @@
         <v>69</v>
       </c>
       <c r="B73" s="4">
-        <f t="shared" si="5"/>
-        <v>29722</v>
+        <f t="shared" si="4"/>
+        <v>28794</v>
       </c>
       <c r="C73" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>928</v>
       </c>
     </row>
@@ -3961,11 +3961,11 @@
         <v>70</v>
       </c>
       <c r="B74" s="4">
-        <f t="shared" si="5"/>
-        <v>30667</v>
+        <f t="shared" si="4"/>
+        <v>29722</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>945</v>
       </c>
     </row>
@@ -3974,11 +3974,11 @@
         <v>71</v>
       </c>
       <c r="B75" s="4">
-        <f t="shared" si="5"/>
-        <v>31629</v>
+        <f t="shared" si="4"/>
+        <v>30667</v>
       </c>
       <c r="C75" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>962</v>
       </c>
     </row>
@@ -3987,11 +3987,11 @@
         <v>72</v>
       </c>
       <c r="B76" s="4">
-        <f t="shared" si="5"/>
-        <v>32608</v>
+        <f t="shared" si="4"/>
+        <v>31629</v>
       </c>
       <c r="C76" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>979</v>
       </c>
     </row>
@@ -4000,11 +4000,11 @@
         <v>73</v>
       </c>
       <c r="B77" s="4">
-        <f t="shared" si="5"/>
-        <v>33604</v>
+        <f t="shared" si="4"/>
+        <v>32608</v>
       </c>
       <c r="C77" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>996</v>
       </c>
     </row>
@@ -4013,11 +4013,11 @@
         <v>74</v>
       </c>
       <c r="B78" s="4">
-        <f t="shared" si="5"/>
-        <v>34617</v>
+        <f t="shared" si="4"/>
+        <v>33604</v>
       </c>
       <c r="C78" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1013</v>
       </c>
     </row>
@@ -4026,11 +4026,11 @@
         <v>75</v>
       </c>
       <c r="B79" s="4">
-        <f t="shared" si="5"/>
-        <v>35648</v>
+        <f t="shared" si="4"/>
+        <v>34617</v>
       </c>
       <c r="C79" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1031</v>
       </c>
     </row>
@@ -4039,11 +4039,11 @@
         <v>76</v>
       </c>
       <c r="B80" s="4">
-        <f t="shared" si="5"/>
-        <v>36696</v>
+        <f t="shared" si="4"/>
+        <v>35648</v>
       </c>
       <c r="C80" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1048</v>
       </c>
     </row>
@@ -4052,11 +4052,11 @@
         <v>77</v>
       </c>
       <c r="B81" s="4">
-        <f t="shared" si="5"/>
-        <v>37762</v>
+        <f t="shared" si="4"/>
+        <v>36696</v>
       </c>
       <c r="C81" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1066</v>
       </c>
     </row>
@@ -4065,11 +4065,11 @@
         <v>78</v>
       </c>
       <c r="B82" s="4">
-        <f t="shared" si="5"/>
-        <v>38846</v>
+        <f t="shared" si="4"/>
+        <v>37762</v>
       </c>
       <c r="C82" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1084</v>
       </c>
     </row>
@@ -4078,11 +4078,11 @@
         <v>79</v>
       </c>
       <c r="B83" s="4">
-        <f t="shared" si="5"/>
-        <v>39948</v>
+        <f t="shared" si="4"/>
+        <v>38846</v>
       </c>
       <c r="C83" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1102</v>
       </c>
     </row>
@@ -4091,11 +4091,11 @@
         <v>80</v>
       </c>
       <c r="B84" s="4">
-        <f t="shared" si="5"/>
-        <v>41068</v>
+        <f t="shared" si="4"/>
+        <v>39948</v>
       </c>
       <c r="C84" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1120</v>
       </c>
     </row>
@@ -4104,11 +4104,11 @@
         <v>81</v>
       </c>
       <c r="B85" s="4">
-        <f t="shared" si="5"/>
-        <v>42206</v>
+        <f t="shared" si="4"/>
+        <v>41068</v>
       </c>
       <c r="C85" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1138</v>
       </c>
     </row>
@@ -4117,11 +4117,11 @@
         <v>82</v>
       </c>
       <c r="B86" s="4">
-        <f t="shared" si="5"/>
-        <v>43362</v>
+        <f t="shared" si="4"/>
+        <v>42206</v>
       </c>
       <c r="C86" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1156</v>
       </c>
     </row>
@@ -4130,11 +4130,11 @@
         <v>83</v>
       </c>
       <c r="B87" s="4">
-        <f t="shared" si="5"/>
-        <v>44536</v>
+        <f t="shared" si="4"/>
+        <v>43362</v>
       </c>
       <c r="C87" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1174</v>
       </c>
     </row>
@@ -4143,11 +4143,11 @@
         <v>84</v>
       </c>
       <c r="B88" s="4">
-        <f t="shared" si="5"/>
-        <v>45728</v>
+        <f t="shared" si="4"/>
+        <v>44536</v>
       </c>
       <c r="C88" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1192</v>
       </c>
     </row>
@@ -4156,11 +4156,11 @@
         <v>85</v>
       </c>
       <c r="B89" s="4">
-        <f t="shared" si="5"/>
-        <v>46939</v>
+        <f t="shared" si="4"/>
+        <v>45728</v>
       </c>
       <c r="C89" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1211</v>
       </c>
     </row>
@@ -4169,11 +4169,11 @@
         <v>86</v>
       </c>
       <c r="B90" s="4">
-        <f t="shared" si="5"/>
-        <v>48168</v>
+        <f t="shared" si="4"/>
+        <v>46939</v>
       </c>
       <c r="C90" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1229</v>
       </c>
     </row>
@@ -4182,11 +4182,11 @@
         <v>87</v>
       </c>
       <c r="B91" s="4">
-        <f t="shared" si="5"/>
-        <v>49416</v>
+        <f t="shared" si="4"/>
+        <v>48168</v>
       </c>
       <c r="C91" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1248</v>
       </c>
     </row>
@@ -4195,11 +4195,11 @@
         <v>88</v>
       </c>
       <c r="B92" s="4">
-        <f t="shared" si="5"/>
-        <v>50683</v>
+        <f t="shared" si="4"/>
+        <v>49416</v>
       </c>
       <c r="C92" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1267</v>
       </c>
     </row>
@@ -4208,11 +4208,11 @@
         <v>89</v>
       </c>
       <c r="B93" s="4">
-        <f t="shared" si="5"/>
-        <v>51969</v>
+        <f t="shared" si="4"/>
+        <v>50683</v>
       </c>
       <c r="C93" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1286</v>
       </c>
     </row>
@@ -4221,11 +4221,11 @@
         <v>90</v>
       </c>
       <c r="B94" s="4">
-        <f t="shared" si="5"/>
-        <v>53274</v>
+        <f t="shared" si="4"/>
+        <v>51969</v>
       </c>
       <c r="C94" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1305</v>
       </c>
     </row>
@@ -4234,11 +4234,11 @@
         <v>91</v>
       </c>
       <c r="B95" s="4">
-        <f t="shared" si="5"/>
-        <v>54598</v>
+        <f t="shared" si="4"/>
+        <v>53274</v>
       </c>
       <c r="C95" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1324</v>
       </c>
     </row>
@@ -4247,11 +4247,11 @@
         <v>92</v>
       </c>
       <c r="B96" s="4">
-        <f t="shared" si="5"/>
-        <v>55941</v>
+        <f t="shared" si="4"/>
+        <v>54598</v>
       </c>
       <c r="C96" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1343</v>
       </c>
     </row>
@@ -4260,11 +4260,11 @@
         <v>93</v>
       </c>
       <c r="B97" s="4">
-        <f t="shared" si="5"/>
-        <v>57303</v>
+        <f t="shared" si="4"/>
+        <v>55941</v>
       </c>
       <c r="C97" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1362</v>
       </c>
     </row>
@@ -4273,11 +4273,11 @@
         <v>94</v>
       </c>
       <c r="B98" s="4">
-        <f t="shared" si="5"/>
-        <v>58684</v>
+        <f t="shared" si="4"/>
+        <v>57303</v>
       </c>
       <c r="C98" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1381</v>
       </c>
     </row>
@@ -4286,11 +4286,11 @@
         <v>95</v>
       </c>
       <c r="B99" s="4">
-        <f t="shared" si="5"/>
-        <v>60085</v>
+        <f t="shared" si="4"/>
+        <v>58684</v>
       </c>
       <c r="C99" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1401</v>
       </c>
     </row>
@@ -4299,11 +4299,11 @@
         <v>96</v>
       </c>
       <c r="B100" s="4">
-        <f t="shared" si="5"/>
-        <v>61505</v>
+        <f t="shared" si="4"/>
+        <v>60085</v>
       </c>
       <c r="C100" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1420</v>
       </c>
     </row>
@@ -4312,11 +4312,11 @@
         <v>97</v>
       </c>
       <c r="B101" s="4">
-        <f t="shared" si="5"/>
-        <v>62945</v>
+        <f t="shared" si="4"/>
+        <v>61505</v>
       </c>
       <c r="C101" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1440</v>
       </c>
     </row>
@@ -4325,11 +4325,11 @@
         <v>98</v>
       </c>
       <c r="B102" s="4">
-        <f t="shared" ref="B102:B104" si="6">B101+C102</f>
-        <v>64405</v>
+        <f t="shared" si="4"/>
+        <v>62945</v>
       </c>
       <c r="C102" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1460</v>
       </c>
     </row>
@@ -4338,11 +4338,11 @@
         <v>99</v>
       </c>
       <c r="B103" s="4">
-        <f t="shared" si="6"/>
-        <v>65885</v>
+        <f t="shared" si="4"/>
+        <v>64405</v>
       </c>
       <c r="C103" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1480</v>
       </c>
     </row>
@@ -4351,11 +4351,11 @@
         <v>100</v>
       </c>
       <c r="B104" s="4">
-        <f t="shared" si="6"/>
-        <v>67385</v>
+        <f t="shared" si="4"/>
+        <v>65885</v>
       </c>
       <c r="C104" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
     </row>
@@ -4369,8 +4369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858EDFCE-4612-4193-8A25-6B688FF3F683}">
   <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Android/ExcelData/LevelData.xlsx
+++ b/Android/ExcelData/LevelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB25A27-C674-4623-9F99-B899C287EF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D957E8-3D96-47DA-896C-BC5671EDBEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
+    <workbookView xWindow="2280" yWindow="1095" windowWidth="34695" windowHeight="18915" activeTab="2" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="!Info" sheetId="4" r:id="rId1"/>
@@ -1852,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7886D64-A37B-4225-9870-6F64509A6B25}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1917,10 +1917,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1928,10 +1928,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="4">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1939,10 +1939,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="4">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1950,10 +1950,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="4">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1961,10 +1961,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="4">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1972,10 +1972,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="4">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1983,10 +1983,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="4">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="C12" s="4">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1994,10 +1994,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="C13" s="4">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2005,10 +2005,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="4">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="C14" s="4">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2016,10 +2016,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="4">
-        <v>278</v>
+        <v>133</v>
       </c>
       <c r="C15" s="4">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2027,10 +2027,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="4">
-        <v>326</v>
+        <v>159</v>
       </c>
       <c r="C16" s="4">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2038,10 +2038,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="4">
-        <v>377</v>
+        <v>188</v>
       </c>
       <c r="C17" s="4">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2049,10 +2049,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="4">
-        <v>432</v>
+        <v>221</v>
       </c>
       <c r="C18" s="4">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2060,10 +2060,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="4">
-        <v>490</v>
+        <v>257</v>
       </c>
       <c r="C19" s="4">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2071,10 +2071,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="4">
-        <v>552</v>
+        <v>297</v>
       </c>
       <c r="C20" s="4">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2082,10 +2082,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="4">
-        <v>618</v>
+        <v>341</v>
       </c>
       <c r="C21" s="4">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2093,10 +2093,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="4">
-        <v>687</v>
+        <v>389</v>
       </c>
       <c r="C22" s="4">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2104,10 +2104,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="4">
-        <v>760</v>
+        <v>442</v>
       </c>
       <c r="C23" s="4">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2115,10 +2115,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="4">
-        <v>836</v>
+        <v>499</v>
       </c>
       <c r="C24" s="4">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2126,10 +2126,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="4">
-        <v>916</v>
+        <v>561</v>
       </c>
       <c r="C25" s="4">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2137,10 +2137,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="4">
-        <v>1000</v>
+        <v>628</v>
       </c>
       <c r="C26" s="4">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2148,10 +2148,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="4">
-        <v>1087</v>
+        <v>700</v>
       </c>
       <c r="C27" s="4">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2159,10 +2159,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="4">
-        <v>1178</v>
+        <v>778</v>
       </c>
       <c r="C28" s="4">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2170,10 +2170,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="4">
-        <v>1272</v>
+        <v>861</v>
       </c>
       <c r="C29" s="4">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2181,10 +2181,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="4">
-        <v>1370</v>
+        <v>950</v>
       </c>
       <c r="C30" s="4">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2192,10 +2192,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="4">
-        <v>1472</v>
+        <v>1045</v>
       </c>
       <c r="C31" s="4">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2203,10 +2203,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="4">
-        <v>1577</v>
+        <v>1146</v>
       </c>
       <c r="C32" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2214,10 +2214,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="4">
-        <v>1686</v>
+        <v>1254</v>
       </c>
       <c r="C33" s="4">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2225,10 +2225,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="4">
-        <v>1798</v>
+        <v>1368</v>
       </c>
       <c r="C34" s="4">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2236,10 +2236,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="4">
-        <v>1914</v>
+        <v>1489</v>
       </c>
       <c r="C35" s="4">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2247,10 +2247,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="4">
-        <v>2034</v>
+        <v>1617</v>
       </c>
       <c r="C36" s="4">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2258,10 +2258,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="4">
-        <v>2157</v>
+        <v>1752</v>
       </c>
       <c r="C37" s="4">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2269,10 +2269,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="4">
-        <v>2284</v>
+        <v>1894</v>
       </c>
       <c r="C38" s="4">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2280,10 +2280,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="4">
-        <v>2414</v>
+        <v>2044</v>
       </c>
       <c r="C39" s="4">
-        <v>134</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2291,10 +2291,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="4">
-        <v>2548</v>
+        <v>2202</v>
       </c>
       <c r="C40" s="4">
-        <v>138</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2302,10 +2302,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="4">
-        <v>2686</v>
+        <v>2368</v>
       </c>
       <c r="C41" s="4">
-        <v>141</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2313,10 +2313,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="4">
-        <v>2827</v>
+        <v>2542</v>
       </c>
       <c r="C42" s="4">
-        <v>145</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2324,10 +2324,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="4">
-        <v>2972</v>
+        <v>2724</v>
       </c>
       <c r="C43" s="4">
-        <v>148</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2335,10 +2335,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="4">
-        <v>3120</v>
+        <v>2915</v>
       </c>
       <c r="C44" s="4">
-        <v>152</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2346,10 +2346,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="4">
-        <v>3272</v>
+        <v>3115</v>
       </c>
       <c r="C45" s="4">
-        <v>156</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2357,10 +2357,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="4">
-        <v>3428</v>
+        <v>3324</v>
       </c>
       <c r="C46" s="4">
-        <v>159</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2368,10 +2368,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="4">
-        <v>3587</v>
+        <v>3542</v>
       </c>
       <c r="C47" s="4">
-        <v>163</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2379,10 +2379,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="4">
-        <v>3750</v>
+        <v>3769</v>
       </c>
       <c r="C48" s="4">
-        <v>166</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2390,10 +2390,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="4">
-        <v>3916</v>
+        <v>4006</v>
       </c>
       <c r="C49" s="4">
-        <v>170</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2401,10 +2401,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="4">
-        <v>4086</v>
+        <v>4253</v>
       </c>
       <c r="C50" s="4">
-        <v>174</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2412,10 +2412,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="4">
-        <v>4260</v>
+        <v>4510</v>
       </c>
       <c r="C51" s="4">
-        <v>177</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2423,10 +2423,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="4">
-        <v>4437</v>
+        <v>4777</v>
       </c>
       <c r="C52" s="4">
-        <v>181</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2434,10 +2434,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="4">
-        <v>4618</v>
+        <v>5054</v>
       </c>
       <c r="C53" s="4">
-        <v>184</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2445,10 +2445,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="4">
-        <v>4802</v>
+        <v>5342</v>
       </c>
       <c r="C54" s="4">
-        <v>188</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2456,10 +2456,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="4">
-        <v>4990</v>
+        <v>5641</v>
       </c>
       <c r="C55" s="4">
-        <v>192</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2467,10 +2467,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="4">
-        <v>5182</v>
+        <v>5951</v>
       </c>
       <c r="C56" s="4">
-        <v>195</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2478,10 +2478,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="4">
-        <v>5377</v>
+        <v>6272</v>
       </c>
       <c r="C57" s="4">
-        <v>199</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2489,10 +2489,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="4">
-        <v>5576</v>
+        <v>6604</v>
       </c>
       <c r="C58" s="4">
-        <v>202</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2500,10 +2500,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="4">
-        <v>5778</v>
+        <v>6948</v>
       </c>
       <c r="C59" s="4">
-        <v>206</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2511,10 +2511,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="4">
-        <v>5984</v>
+        <v>7303</v>
       </c>
       <c r="C60" s="4">
-        <v>210</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2522,10 +2522,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="4">
-        <v>6194</v>
+        <v>7670</v>
       </c>
       <c r="C61" s="4">
-        <v>213</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2533,10 +2533,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="4">
-        <v>6407</v>
+        <v>8050</v>
       </c>
       <c r="C62" s="4">
-        <v>217</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2544,10 +2544,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="4">
-        <v>6624</v>
+        <v>8442</v>
       </c>
       <c r="C63" s="4">
-        <v>220</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2555,10 +2555,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="4">
-        <v>6844</v>
+        <v>8847</v>
       </c>
       <c r="C64" s="4">
-        <v>224</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2566,10 +2566,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="4">
-        <v>7068</v>
+        <v>9264</v>
       </c>
       <c r="C65" s="4">
-        <v>228</v>
+        <v>430</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2577,10 +2577,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="4">
-        <v>7296</v>
+        <v>9694</v>
       </c>
       <c r="C66" s="4">
-        <v>231</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2588,10 +2588,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="4">
-        <v>7527</v>
+        <v>10137</v>
       </c>
       <c r="C67" s="4">
-        <v>235</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2599,10 +2599,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="4">
-        <v>7762</v>
+        <v>10594</v>
       </c>
       <c r="C68" s="4">
-        <v>238</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2610,10 +2610,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="4">
-        <v>8000</v>
+        <v>11064</v>
       </c>
       <c r="C69" s="4">
-        <v>242</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2621,10 +2621,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="4">
-        <v>8242</v>
+        <v>11548</v>
       </c>
       <c r="C70" s="4">
-        <v>246</v>
+        <v>498</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2632,10 +2632,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="4">
-        <v>8488</v>
+        <v>12046</v>
       </c>
       <c r="C71" s="4">
-        <v>249</v>
+        <v>512</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2643,10 +2643,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="4">
-        <v>8737</v>
+        <v>12558</v>
       </c>
       <c r="C72" s="4">
-        <v>253</v>
+        <v>527</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2654,10 +2654,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="4">
-        <v>8990</v>
+        <v>13085</v>
       </c>
       <c r="C73" s="4">
-        <v>256</v>
+        <v>541</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2665,10 +2665,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="4">
-        <v>9246</v>
+        <v>13626</v>
       </c>
       <c r="C74" s="4">
-        <v>260</v>
+        <v>556</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2676,10 +2676,10 @@
         <v>71</v>
       </c>
       <c r="B75" s="4">
-        <v>9506</v>
+        <v>14182</v>
       </c>
       <c r="C75" s="4">
-        <v>264</v>
+        <v>571</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2687,10 +2687,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="4">
-        <v>9770</v>
+        <v>14753</v>
       </c>
       <c r="C76" s="4">
-        <v>267</v>
+        <v>586</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2698,10 +2698,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="4">
-        <v>10037</v>
+        <v>15339</v>
       </c>
       <c r="C77" s="4">
-        <v>271</v>
+        <v>602</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2709,10 +2709,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="4">
-        <v>10308</v>
+        <v>15941</v>
       </c>
       <c r="C78" s="4">
-        <v>274</v>
+        <v>617</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2720,10 +2720,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="4">
-        <v>10582</v>
+        <v>16558</v>
       </c>
       <c r="C79" s="4">
-        <v>278</v>
+        <v>633</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2731,10 +2731,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="4">
-        <v>10860</v>
+        <v>17191</v>
       </c>
       <c r="C80" s="4">
-        <v>282</v>
+        <v>649</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2742,10 +2742,10 @@
         <v>77</v>
       </c>
       <c r="B81" s="4">
-        <v>11142</v>
+        <v>17840</v>
       </c>
       <c r="C81" s="4">
-        <v>285</v>
+        <v>665</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2753,10 +2753,10 @@
         <v>78</v>
       </c>
       <c r="B82" s="4">
-        <v>11427</v>
+        <v>18505</v>
       </c>
       <c r="C82" s="4">
-        <v>289</v>
+        <v>682</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2764,10 +2764,10 @@
         <v>79</v>
       </c>
       <c r="B83" s="4">
-        <v>11716</v>
+        <v>19187</v>
       </c>
       <c r="C83" s="4">
-        <v>292</v>
+        <v>698</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2775,10 +2775,10 @@
         <v>80</v>
       </c>
       <c r="B84" s="4">
-        <v>12008</v>
+        <v>19885</v>
       </c>
       <c r="C84" s="4">
-        <v>296</v>
+        <v>715</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2786,10 +2786,10 @@
         <v>81</v>
       </c>
       <c r="B85" s="4">
-        <v>12304</v>
+        <v>20600</v>
       </c>
       <c r="C85" s="4">
-        <v>300</v>
+        <v>732</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2797,10 +2797,10 @@
         <v>82</v>
       </c>
       <c r="B86" s="4">
-        <v>12604</v>
+        <v>21332</v>
       </c>
       <c r="C86" s="4">
-        <v>303</v>
+        <v>749</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2808,10 +2808,10 @@
         <v>83</v>
       </c>
       <c r="B87" s="4">
-        <v>12907</v>
+        <v>22081</v>
       </c>
       <c r="C87" s="4">
-        <v>307</v>
+        <v>766</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2819,10 +2819,10 @@
         <v>84</v>
       </c>
       <c r="B88" s="4">
-        <v>13214</v>
+        <v>22847</v>
       </c>
       <c r="C88" s="4">
-        <v>310</v>
+        <v>784</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2830,10 +2830,10 @@
         <v>85</v>
       </c>
       <c r="B89" s="4">
-        <v>13524</v>
+        <v>23631</v>
       </c>
       <c r="C89" s="4">
-        <v>314</v>
+        <v>802</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2841,10 +2841,10 @@
         <v>86</v>
       </c>
       <c r="B90" s="4">
-        <v>13838</v>
+        <v>24433</v>
       </c>
       <c r="C90" s="4">
-        <v>318</v>
+        <v>820</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2852,10 +2852,10 @@
         <v>87</v>
       </c>
       <c r="B91" s="4">
-        <v>14156</v>
+        <v>25253</v>
       </c>
       <c r="C91" s="4">
-        <v>321</v>
+        <v>838</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2863,10 +2863,10 @@
         <v>88</v>
       </c>
       <c r="B92" s="4">
-        <v>14477</v>
+        <v>26091</v>
       </c>
       <c r="C92" s="4">
-        <v>325</v>
+        <v>856</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2874,10 +2874,10 @@
         <v>89</v>
       </c>
       <c r="B93" s="4">
-        <v>14802</v>
+        <v>26947</v>
       </c>
       <c r="C93" s="4">
-        <v>328</v>
+        <v>875</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2885,10 +2885,10 @@
         <v>90</v>
       </c>
       <c r="B94" s="4">
-        <v>15130</v>
+        <v>27822</v>
       </c>
       <c r="C94" s="4">
-        <v>332</v>
+        <v>894</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2896,10 +2896,10 @@
         <v>91</v>
       </c>
       <c r="B95" s="4">
-        <v>15462</v>
+        <v>28716</v>
       </c>
       <c r="C95" s="4">
-        <v>336</v>
+        <v>913</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2907,10 +2907,10 @@
         <v>92</v>
       </c>
       <c r="B96" s="4">
-        <v>15798</v>
+        <v>29629</v>
       </c>
       <c r="C96" s="4">
-        <v>339</v>
+        <v>932</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2918,10 +2918,10 @@
         <v>93</v>
       </c>
       <c r="B97" s="4">
-        <v>16137</v>
+        <v>30561</v>
       </c>
       <c r="C97" s="4">
-        <v>343</v>
+        <v>951</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2929,10 +2929,10 @@
         <v>94</v>
       </c>
       <c r="B98" s="4">
-        <v>16480</v>
+        <v>31512</v>
       </c>
       <c r="C98" s="4">
-        <v>346</v>
+        <v>971</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2940,10 +2940,10 @@
         <v>95</v>
       </c>
       <c r="B99" s="4">
-        <v>16826</v>
+        <v>32483</v>
       </c>
       <c r="C99" s="4">
-        <v>350</v>
+        <v>991</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2951,10 +2951,10 @@
         <v>96</v>
       </c>
       <c r="B100" s="4">
-        <v>17176</v>
+        <v>33474</v>
       </c>
       <c r="C100" s="4">
-        <v>354</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2962,10 +2962,10 @@
         <v>97</v>
       </c>
       <c r="B101" s="4">
-        <v>17530</v>
+        <v>34485</v>
       </c>
       <c r="C101" s="4">
-        <v>357</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2973,10 +2973,10 @@
         <v>98</v>
       </c>
       <c r="B102" s="4">
-        <v>17887</v>
+        <v>35516</v>
       </c>
       <c r="C102" s="4">
-        <v>361</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2984,10 +2984,10 @@
         <v>99</v>
       </c>
       <c r="B103" s="4">
-        <v>18248</v>
+        <v>36567</v>
       </c>
       <c r="C103" s="4">
-        <v>364</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2995,10 +2995,10 @@
         <v>100</v>
       </c>
       <c r="B104" s="4">
-        <v>18612</v>
+        <v>37639</v>
       </c>
       <c r="C104" s="4">
-        <v>368</v>
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
@@ -3011,7 +3011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7E51F6-11A1-4FF2-8AEF-9150D6D26A64}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/LevelData.xlsx
+++ b/Android/ExcelData/LevelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D957E8-3D96-47DA-896C-BC5671EDBEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FA1293-B997-44D8-AF6E-8B676B354BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1095" windowWidth="34695" windowHeight="18915" activeTab="2" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
+    <workbookView xWindow="41220" yWindow="1470" windowWidth="34695" windowHeight="18915" activeTab="1" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="!Info" sheetId="4" r:id="rId1"/>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2A59B9-3298-4E12-A5E8-BD15BB140FCC}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -758,10 +758,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -769,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="4">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -780,10 +780,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="4">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -791,10 +791,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="4">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -802,10 +802,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="4">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -813,10 +813,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="4">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C11" s="4">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -824,10 +824,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="4">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C12" s="4">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -835,10 +835,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="C13" s="4">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -846,10 +846,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="4">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="C14" s="4">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -857,10 +857,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="4">
-        <v>214</v>
+        <v>133</v>
       </c>
       <c r="C15" s="4">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="4">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c r="C16" s="4">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -879,10 +879,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="4">
-        <v>298</v>
+        <v>188</v>
       </c>
       <c r="C17" s="4">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -890,10 +890,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="4">
-        <v>346</v>
+        <v>221</v>
       </c>
       <c r="C18" s="4">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -901,10 +901,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="4">
-        <v>398</v>
+        <v>257</v>
       </c>
       <c r="C19" s="4">
-        <v>57</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -912,10 +912,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="4">
-        <v>455</v>
+        <v>297</v>
       </c>
       <c r="C20" s="4">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -923,10 +923,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="4">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="C21" s="4">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -934,10 +934,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="4">
-        <v>584</v>
+        <v>389</v>
       </c>
       <c r="C22" s="4">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -945,10 +945,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="4">
-        <v>656</v>
+        <v>442</v>
       </c>
       <c r="C23" s="4">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -956,10 +956,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="4">
-        <v>734</v>
+        <v>499</v>
       </c>
       <c r="C24" s="4">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -967,10 +967,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="4">
-        <v>818</v>
+        <v>561</v>
       </c>
       <c r="C25" s="4">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -978,10 +978,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="4">
-        <v>908</v>
+        <v>628</v>
       </c>
       <c r="C26" s="4">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -989,10 +989,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="4">
-        <v>1004</v>
+        <v>700</v>
       </c>
       <c r="C27" s="4">
-        <v>102</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1000,10 +1000,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="4">
-        <v>1106</v>
+        <v>778</v>
       </c>
       <c r="C28" s="4">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1011,10 +1011,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="4">
-        <v>1214</v>
+        <v>861</v>
       </c>
       <c r="C29" s="4">
-        <v>115</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1022,10 +1022,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="4">
-        <v>1329</v>
+        <v>950</v>
       </c>
       <c r="C30" s="4">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1033,10 +1033,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="4">
-        <v>1451</v>
+        <v>1045</v>
       </c>
       <c r="C31" s="4">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1044,10 +1044,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="4">
-        <v>1580</v>
+        <v>1146</v>
       </c>
       <c r="C32" s="4">
-        <v>136</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1055,10 +1055,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="4">
-        <v>1716</v>
+        <v>1254</v>
       </c>
       <c r="C33" s="4">
-        <v>144</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1066,10 +1066,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="4">
-        <v>1860</v>
+        <v>1368</v>
       </c>
       <c r="C34" s="4">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1077,10 +1077,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="4">
-        <v>2012</v>
+        <v>1489</v>
       </c>
       <c r="C35" s="4">
-        <v>160</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1088,10 +1088,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="4">
-        <v>2172</v>
+        <v>1617</v>
       </c>
       <c r="C36" s="4">
-        <v>168</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1099,10 +1099,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="4">
-        <v>2340</v>
+        <v>1752</v>
       </c>
       <c r="C37" s="4">
-        <v>176</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1110,10 +1110,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="4">
-        <v>2516</v>
+        <v>1894</v>
       </c>
       <c r="C38" s="4">
-        <v>184</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1121,10 +1121,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="4">
-        <v>2700</v>
+        <v>2044</v>
       </c>
       <c r="C39" s="4">
-        <v>193</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1132,10 +1132,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="4">
-        <v>2893</v>
+        <v>2202</v>
       </c>
       <c r="C40" s="4">
-        <v>202</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1143,10 +1143,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="4">
-        <v>3095</v>
+        <v>2368</v>
       </c>
       <c r="C41" s="4">
-        <v>211</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1154,10 +1154,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="4">
-        <v>3306</v>
+        <v>2542</v>
       </c>
       <c r="C42" s="4">
-        <v>220</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1165,10 +1165,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="4">
-        <v>3526</v>
+        <v>2724</v>
       </c>
       <c r="C43" s="4">
-        <v>230</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1176,10 +1176,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="4">
-        <v>3756</v>
+        <v>2915</v>
       </c>
       <c r="C44" s="4">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1187,10 +1187,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="4">
-        <v>3996</v>
+        <v>3115</v>
       </c>
       <c r="C45" s="4">
-        <v>250</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1198,10 +1198,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="4">
-        <v>4246</v>
+        <v>3324</v>
       </c>
       <c r="C46" s="4">
-        <v>260</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1209,10 +1209,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="4">
-        <v>4506</v>
+        <v>3542</v>
       </c>
       <c r="C47" s="4">
-        <v>270</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1220,10 +1220,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="4">
-        <v>4776</v>
+        <v>3769</v>
       </c>
       <c r="C48" s="4">
-        <v>280</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1231,10 +1231,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="4">
-        <v>5056</v>
+        <v>4006</v>
       </c>
       <c r="C49" s="4">
-        <v>291</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1242,10 +1242,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="4">
-        <v>5347</v>
+        <v>4253</v>
       </c>
       <c r="C50" s="4">
-        <v>302</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1253,10 +1253,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="4">
-        <v>5649</v>
+        <v>4510</v>
       </c>
       <c r="C51" s="4">
-        <v>313</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1264,10 +1264,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="4">
-        <v>5962</v>
+        <v>4777</v>
       </c>
       <c r="C52" s="4">
-        <v>324</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1275,10 +1275,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="4">
-        <v>6286</v>
+        <v>5054</v>
       </c>
       <c r="C53" s="4">
-        <v>336</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1286,10 +1286,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="4">
-        <v>6622</v>
+        <v>5342</v>
       </c>
       <c r="C54" s="4">
-        <v>348</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1297,10 +1297,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="4">
-        <v>6970</v>
+        <v>5641</v>
       </c>
       <c r="C55" s="4">
-        <v>360</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1308,10 +1308,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="4">
-        <v>7330</v>
+        <v>5951</v>
       </c>
       <c r="C56" s="4">
-        <v>372</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1319,10 +1319,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="4">
-        <v>7702</v>
+        <v>6272</v>
       </c>
       <c r="C57" s="4">
-        <v>384</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1330,10 +1330,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="4">
-        <v>8086</v>
+        <v>6604</v>
       </c>
       <c r="C58" s="4">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1341,10 +1341,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="4">
-        <v>8482</v>
+        <v>6948</v>
       </c>
       <c r="C59" s="4">
-        <v>409</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1352,10 +1352,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="4">
-        <v>8891</v>
+        <v>7303</v>
       </c>
       <c r="C60" s="4">
-        <v>422</v>
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1363,10 +1363,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="4">
-        <v>9313</v>
+        <v>7670</v>
       </c>
       <c r="C61" s="4">
-        <v>435</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1374,10 +1374,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="4">
-        <v>9748</v>
+        <v>8050</v>
       </c>
       <c r="C62" s="4">
-        <v>448</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1385,10 +1385,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="4">
-        <v>10196</v>
+        <v>8442</v>
       </c>
       <c r="C63" s="4">
-        <v>462</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1396,10 +1396,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="4">
-        <v>10658</v>
+        <v>8847</v>
       </c>
       <c r="C64" s="4">
-        <v>476</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1407,10 +1407,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="4">
-        <v>11134</v>
+        <v>9264</v>
       </c>
       <c r="C65" s="4">
-        <v>490</v>
+        <v>430</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1418,10 +1418,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="4">
-        <v>11624</v>
+        <v>9694</v>
       </c>
       <c r="C66" s="4">
-        <v>504</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1429,10 +1429,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="4">
-        <v>12128</v>
+        <v>10137</v>
       </c>
       <c r="C67" s="4">
-        <v>518</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1440,10 +1440,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="4">
-        <v>12646</v>
+        <v>10594</v>
       </c>
       <c r="C68" s="4">
-        <v>532</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1451,10 +1451,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="4">
-        <v>13178</v>
+        <v>11064</v>
       </c>
       <c r="C69" s="4">
-        <v>547</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1462,10 +1462,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="4">
-        <v>13725</v>
+        <v>11548</v>
       </c>
       <c r="C70" s="4">
-        <v>562</v>
+        <v>498</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1473,10 +1473,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="4">
-        <v>14287</v>
+        <v>12046</v>
       </c>
       <c r="C71" s="4">
-        <v>577</v>
+        <v>512</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1484,10 +1484,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="4">
-        <v>14864</v>
+        <v>12558</v>
       </c>
       <c r="C72" s="4">
-        <v>592</v>
+        <v>527</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1495,10 +1495,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="4">
-        <v>15456</v>
+        <v>13085</v>
       </c>
       <c r="C73" s="4">
-        <v>608</v>
+        <v>541</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1506,10 +1506,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="4">
-        <v>16064</v>
+        <v>13626</v>
       </c>
       <c r="C74" s="4">
-        <v>624</v>
+        <v>556</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1517,10 +1517,10 @@
         <v>71</v>
       </c>
       <c r="B75" s="4">
-        <v>16688</v>
+        <v>14182</v>
       </c>
       <c r="C75" s="4">
-        <v>640</v>
+        <v>571</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1528,10 +1528,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="4">
-        <v>17328</v>
+        <v>14753</v>
       </c>
       <c r="C76" s="4">
-        <v>656</v>
+        <v>586</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1539,10 +1539,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="4">
-        <v>17984</v>
+        <v>15339</v>
       </c>
       <c r="C77" s="4">
-        <v>672</v>
+        <v>602</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1550,10 +1550,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="4">
-        <v>18656</v>
+        <v>15941</v>
       </c>
       <c r="C78" s="4">
-        <v>688</v>
+        <v>617</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1561,10 +1561,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="4">
-        <v>19344</v>
+        <v>16558</v>
       </c>
       <c r="C79" s="4">
-        <v>705</v>
+        <v>633</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1572,10 +1572,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="4">
-        <v>20049</v>
+        <v>17191</v>
       </c>
       <c r="C80" s="4">
-        <v>722</v>
+        <v>649</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1583,10 +1583,10 @@
         <v>77</v>
       </c>
       <c r="B81" s="4">
-        <v>20771</v>
+        <v>17840</v>
       </c>
       <c r="C81" s="4">
-        <v>739</v>
+        <v>665</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1594,10 +1594,10 @@
         <v>78</v>
       </c>
       <c r="B82" s="4">
-        <v>21510</v>
+        <v>18505</v>
       </c>
       <c r="C82" s="4">
-        <v>756</v>
+        <v>682</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1605,10 +1605,10 @@
         <v>79</v>
       </c>
       <c r="B83" s="4">
-        <v>22266</v>
+        <v>19187</v>
       </c>
       <c r="C83" s="4">
-        <v>774</v>
+        <v>698</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1616,10 +1616,10 @@
         <v>80</v>
       </c>
       <c r="B84" s="4">
-        <v>23040</v>
+        <v>19885</v>
       </c>
       <c r="C84" s="4">
-        <v>792</v>
+        <v>715</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1627,10 +1627,10 @@
         <v>81</v>
       </c>
       <c r="B85" s="4">
-        <v>23832</v>
+        <v>20600</v>
       </c>
       <c r="C85" s="4">
-        <v>810</v>
+        <v>732</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1638,10 +1638,10 @@
         <v>82</v>
       </c>
       <c r="B86" s="4">
-        <v>24642</v>
+        <v>21332</v>
       </c>
       <c r="C86" s="4">
-        <v>828</v>
+        <v>749</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1649,10 +1649,10 @@
         <v>83</v>
       </c>
       <c r="B87" s="4">
-        <v>25470</v>
+        <v>22081</v>
       </c>
       <c r="C87" s="4">
-        <v>846</v>
+        <v>766</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1660,10 +1660,10 @@
         <v>84</v>
       </c>
       <c r="B88" s="4">
-        <v>26316</v>
+        <v>22847</v>
       </c>
       <c r="C88" s="4">
-        <v>864</v>
+        <v>784</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1671,10 +1671,10 @@
         <v>85</v>
       </c>
       <c r="B89" s="4">
-        <v>27180</v>
+        <v>23631</v>
       </c>
       <c r="C89" s="4">
-        <v>883</v>
+        <v>802</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1682,10 +1682,10 @@
         <v>86</v>
       </c>
       <c r="B90" s="4">
-        <v>28063</v>
+        <v>24433</v>
       </c>
       <c r="C90" s="4">
-        <v>902</v>
+        <v>820</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1693,10 +1693,10 @@
         <v>87</v>
       </c>
       <c r="B91" s="4">
-        <v>28965</v>
+        <v>25253</v>
       </c>
       <c r="C91" s="4">
-        <v>921</v>
+        <v>838</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1704,10 +1704,10 @@
         <v>88</v>
       </c>
       <c r="B92" s="4">
-        <v>29886</v>
+        <v>26091</v>
       </c>
       <c r="C92" s="4">
-        <v>940</v>
+        <v>856</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1715,10 +1715,10 @@
         <v>89</v>
       </c>
       <c r="B93" s="4">
-        <v>30826</v>
+        <v>26947</v>
       </c>
       <c r="C93" s="4">
-        <v>960</v>
+        <v>875</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1726,10 +1726,10 @@
         <v>90</v>
       </c>
       <c r="B94" s="4">
-        <v>31786</v>
+        <v>27822</v>
       </c>
       <c r="C94" s="4">
-        <v>980</v>
+        <v>894</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1737,10 +1737,10 @@
         <v>91</v>
       </c>
       <c r="B95" s="4">
-        <v>32766</v>
+        <v>28716</v>
       </c>
       <c r="C95" s="4">
-        <v>1000</v>
+        <v>913</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1748,10 +1748,10 @@
         <v>92</v>
       </c>
       <c r="B96" s="4">
-        <v>33766</v>
+        <v>29629</v>
       </c>
       <c r="C96" s="4">
-        <v>1020</v>
+        <v>932</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1759,10 +1759,10 @@
         <v>93</v>
       </c>
       <c r="B97" s="4">
-        <v>34786</v>
+        <v>30561</v>
       </c>
       <c r="C97" s="4">
-        <v>1040</v>
+        <v>951</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1770,10 +1770,10 @@
         <v>94</v>
       </c>
       <c r="B98" s="4">
-        <v>35826</v>
+        <v>31512</v>
       </c>
       <c r="C98" s="4">
-        <v>1060</v>
+        <v>971</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1781,10 +1781,10 @@
         <v>95</v>
       </c>
       <c r="B99" s="4">
-        <v>36886</v>
+        <v>32483</v>
       </c>
       <c r="C99" s="4">
-        <v>1081</v>
+        <v>991</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1792,10 +1792,10 @@
         <v>96</v>
       </c>
       <c r="B100" s="4">
-        <v>37967</v>
+        <v>33474</v>
       </c>
       <c r="C100" s="4">
-        <v>1102</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1803,10 +1803,10 @@
         <v>97</v>
       </c>
       <c r="B101" s="4">
-        <v>39069</v>
+        <v>34485</v>
       </c>
       <c r="C101" s="4">
-        <v>1123</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1814,10 +1814,10 @@
         <v>98</v>
       </c>
       <c r="B102" s="4">
-        <v>40192</v>
+        <v>35516</v>
       </c>
       <c r="C102" s="4">
-        <v>1144</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1825,10 +1825,10 @@
         <v>99</v>
       </c>
       <c r="B103" s="4">
-        <v>41336</v>
+        <v>36567</v>
       </c>
       <c r="C103" s="4">
-        <v>1166</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1836,10 +1836,10 @@
         <v>100</v>
       </c>
       <c r="B104" s="4">
-        <v>42502</v>
+        <v>37639</v>
       </c>
       <c r="C104" s="4">
-        <v>1188</v>
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
@@ -1852,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7886D64-A37B-4225-9870-6F64509A6B25}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1917,10 +1917,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1928,10 +1928,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1939,10 +1939,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="4">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1950,10 +1950,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="4">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1961,10 +1961,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="4">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1972,10 +1972,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="4">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1983,10 +1983,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="4">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C12" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1994,10 +1994,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="4">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="C13" s="4">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2005,10 +2005,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="4">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="C14" s="4">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2016,10 +2016,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="4">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="C15" s="4">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2027,10 +2027,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="4">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="C16" s="4">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2038,10 +2038,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="4">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="C17" s="4">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2049,10 +2049,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="4">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="C18" s="4">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2060,10 +2060,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="4">
-        <v>257</v>
+        <v>325</v>
       </c>
       <c r="C19" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2071,7 +2071,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="4">
-        <v>297</v>
+        <v>366</v>
       </c>
       <c r="C20" s="4">
         <v>44</v>
@@ -2082,10 +2082,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="4">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="C21" s="4">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2093,10 +2093,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="4">
-        <v>389</v>
+        <v>456</v>
       </c>
       <c r="C22" s="4">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2104,10 +2104,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="4">
-        <v>442</v>
+        <v>504</v>
       </c>
       <c r="C23" s="4">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2115,10 +2115,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="4">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="C24" s="4">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2126,10 +2126,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="4">
-        <v>561</v>
+        <v>608</v>
       </c>
       <c r="C25" s="4">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2137,10 +2137,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="4">
-        <v>628</v>
+        <v>664</v>
       </c>
       <c r="C26" s="4">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2148,10 +2148,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="4">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="C27" s="4">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2159,10 +2159,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="4">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C28" s="4">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2170,10 +2170,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="4">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="C29" s="4">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2181,10 +2181,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="4">
-        <v>950</v>
+        <v>910</v>
       </c>
       <c r="C30" s="4">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2192,10 +2192,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="4">
-        <v>1045</v>
+        <v>978</v>
       </c>
       <c r="C31" s="4">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2203,10 +2203,10 @@
         <v>28</v>
       </c>
       <c r="B32" s="4">
-        <v>1146</v>
+        <v>1048</v>
       </c>
       <c r="C32" s="4">
-        <v>108</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2214,10 +2214,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="4">
-        <v>1254</v>
+        <v>1120</v>
       </c>
       <c r="C33" s="4">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2225,10 +2225,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="4">
-        <v>1368</v>
+        <v>1195</v>
       </c>
       <c r="C34" s="4">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2236,10 +2236,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="4">
-        <v>1489</v>
+        <v>1272</v>
       </c>
       <c r="C35" s="4">
-        <v>128</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2247,10 +2247,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="4">
-        <v>1617</v>
+        <v>1352</v>
       </c>
       <c r="C36" s="4">
-        <v>135</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2258,10 +2258,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="4">
-        <v>1752</v>
+        <v>1434</v>
       </c>
       <c r="C37" s="4">
-        <v>142</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2269,10 +2269,10 @@
         <v>34</v>
       </c>
       <c r="B38" s="4">
-        <v>1894</v>
+        <v>1518</v>
       </c>
       <c r="C38" s="4">
-        <v>150</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2280,10 +2280,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="4">
-        <v>2044</v>
+        <v>1605</v>
       </c>
       <c r="C39" s="4">
-        <v>158</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2291,10 +2291,10 @@
         <v>36</v>
       </c>
       <c r="B40" s="4">
-        <v>2202</v>
+        <v>1694</v>
       </c>
       <c r="C40" s="4">
-        <v>166</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2302,10 +2302,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="4">
-        <v>2368</v>
+        <v>1786</v>
       </c>
       <c r="C41" s="4">
-        <v>174</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2313,10 +2313,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="4">
-        <v>2542</v>
+        <v>1880</v>
       </c>
       <c r="C42" s="4">
-        <v>182</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2324,10 +2324,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="4">
-        <v>2724</v>
+        <v>1976</v>
       </c>
       <c r="C43" s="4">
-        <v>191</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2335,10 +2335,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="4">
-        <v>2915</v>
+        <v>2075</v>
       </c>
       <c r="C44" s="4">
-        <v>200</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2346,10 +2346,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="4">
-        <v>3115</v>
+        <v>2176</v>
       </c>
       <c r="C45" s="4">
-        <v>209</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2357,10 +2357,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="4">
-        <v>3324</v>
+        <v>2280</v>
       </c>
       <c r="C46" s="4">
-        <v>218</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2368,10 +2368,10 @@
         <v>43</v>
       </c>
       <c r="B47" s="4">
-        <v>3542</v>
+        <v>2386</v>
       </c>
       <c r="C47" s="4">
-        <v>227</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2379,10 +2379,10 @@
         <v>44</v>
       </c>
       <c r="B48" s="4">
-        <v>3769</v>
+        <v>2494</v>
       </c>
       <c r="C48" s="4">
-        <v>237</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2390,10 +2390,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="4">
-        <v>4006</v>
+        <v>2605</v>
       </c>
       <c r="C49" s="4">
-        <v>247</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2401,10 +2401,10 @@
         <v>46</v>
       </c>
       <c r="B50" s="4">
-        <v>4253</v>
+        <v>2718</v>
       </c>
       <c r="C50" s="4">
-        <v>257</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2412,10 +2412,10 @@
         <v>47</v>
       </c>
       <c r="B51" s="4">
-        <v>4510</v>
+        <v>2834</v>
       </c>
       <c r="C51" s="4">
-        <v>267</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2423,10 +2423,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="4">
-        <v>4777</v>
+        <v>2952</v>
       </c>
       <c r="C52" s="4">
-        <v>277</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2434,10 +2434,10 @@
         <v>49</v>
       </c>
       <c r="B53" s="4">
-        <v>5054</v>
+        <v>3072</v>
       </c>
       <c r="C53" s="4">
-        <v>288</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2445,10 +2445,10 @@
         <v>50</v>
       </c>
       <c r="B54" s="4">
-        <v>5342</v>
+        <v>3195</v>
       </c>
       <c r="C54" s="4">
-        <v>299</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2456,10 +2456,10 @@
         <v>51</v>
       </c>
       <c r="B55" s="4">
-        <v>5641</v>
+        <v>3320</v>
       </c>
       <c r="C55" s="4">
-        <v>310</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2467,10 +2467,10 @@
         <v>52</v>
       </c>
       <c r="B56" s="4">
-        <v>5951</v>
+        <v>3448</v>
       </c>
       <c r="C56" s="4">
-        <v>321</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2478,10 +2478,10 @@
         <v>53</v>
       </c>
       <c r="B57" s="4">
-        <v>6272</v>
+        <v>3578</v>
       </c>
       <c r="C57" s="4">
-        <v>332</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2489,10 +2489,10 @@
         <v>54</v>
       </c>
       <c r="B58" s="4">
-        <v>6604</v>
+        <v>3710</v>
       </c>
       <c r="C58" s="4">
-        <v>344</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2500,10 +2500,10 @@
         <v>55</v>
       </c>
       <c r="B59" s="4">
-        <v>6948</v>
+        <v>3845</v>
       </c>
       <c r="C59" s="4">
-        <v>355</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2511,10 +2511,10 @@
         <v>56</v>
       </c>
       <c r="B60" s="4">
-        <v>7303</v>
+        <v>3982</v>
       </c>
       <c r="C60" s="4">
-        <v>367</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2522,10 +2522,10 @@
         <v>57</v>
       </c>
       <c r="B61" s="4">
-        <v>7670</v>
+        <v>4122</v>
       </c>
       <c r="C61" s="4">
-        <v>380</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2533,10 +2533,10 @@
         <v>58</v>
       </c>
       <c r="B62" s="4">
-        <v>8050</v>
+        <v>4264</v>
       </c>
       <c r="C62" s="4">
-        <v>392</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2544,10 +2544,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="4">
-        <v>8442</v>
+        <v>4408</v>
       </c>
       <c r="C63" s="4">
-        <v>405</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2555,10 +2555,10 @@
         <v>60</v>
       </c>
       <c r="B64" s="4">
-        <v>8847</v>
+        <v>4555</v>
       </c>
       <c r="C64" s="4">
-        <v>417</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2566,10 +2566,10 @@
         <v>61</v>
       </c>
       <c r="B65" s="4">
-        <v>9264</v>
+        <v>4704</v>
       </c>
       <c r="C65" s="4">
-        <v>430</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2577,10 +2577,10 @@
         <v>62</v>
       </c>
       <c r="B66" s="4">
-        <v>9694</v>
+        <v>4856</v>
       </c>
       <c r="C66" s="4">
-        <v>443</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2588,10 +2588,10 @@
         <v>63</v>
       </c>
       <c r="B67" s="4">
-        <v>10137</v>
+        <v>5010</v>
       </c>
       <c r="C67" s="4">
-        <v>457</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2599,10 +2599,10 @@
         <v>64</v>
       </c>
       <c r="B68" s="4">
-        <v>10594</v>
+        <v>5166</v>
       </c>
       <c r="C68" s="4">
-        <v>470</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2610,10 +2610,10 @@
         <v>65</v>
       </c>
       <c r="B69" s="4">
-        <v>11064</v>
+        <v>5325</v>
       </c>
       <c r="C69" s="4">
-        <v>484</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2621,10 +2621,10 @@
         <v>66</v>
       </c>
       <c r="B70" s="4">
-        <v>11548</v>
+        <v>5486</v>
       </c>
       <c r="C70" s="4">
-        <v>498</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2632,10 +2632,10 @@
         <v>67</v>
       </c>
       <c r="B71" s="4">
-        <v>12046</v>
+        <v>5650</v>
       </c>
       <c r="C71" s="4">
-        <v>512</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2643,10 +2643,10 @@
         <v>68</v>
       </c>
       <c r="B72" s="4">
-        <v>12558</v>
+        <v>5816</v>
       </c>
       <c r="C72" s="4">
-        <v>527</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2654,10 +2654,10 @@
         <v>69</v>
       </c>
       <c r="B73" s="4">
-        <v>13085</v>
+        <v>5984</v>
       </c>
       <c r="C73" s="4">
-        <v>541</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2665,10 +2665,10 @@
         <v>70</v>
       </c>
       <c r="B74" s="4">
-        <v>13626</v>
+        <v>6155</v>
       </c>
       <c r="C74" s="4">
-        <v>556</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2676,10 +2676,10 @@
         <v>71</v>
       </c>
       <c r="B75" s="4">
-        <v>14182</v>
+        <v>6328</v>
       </c>
       <c r="C75" s="4">
-        <v>571</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2687,10 +2687,10 @@
         <v>72</v>
       </c>
       <c r="B76" s="4">
-        <v>14753</v>
+        <v>6504</v>
       </c>
       <c r="C76" s="4">
-        <v>586</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2698,10 +2698,10 @@
         <v>73</v>
       </c>
       <c r="B77" s="4">
-        <v>15339</v>
+        <v>6682</v>
       </c>
       <c r="C77" s="4">
-        <v>602</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2709,10 +2709,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="4">
-        <v>15941</v>
+        <v>6862</v>
       </c>
       <c r="C78" s="4">
-        <v>617</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2720,10 +2720,10 @@
         <v>75</v>
       </c>
       <c r="B79" s="4">
-        <v>16558</v>
+        <v>7045</v>
       </c>
       <c r="C79" s="4">
-        <v>633</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2731,10 +2731,10 @@
         <v>76</v>
       </c>
       <c r="B80" s="4">
-        <v>17191</v>
+        <v>7230</v>
       </c>
       <c r="C80" s="4">
-        <v>649</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2742,10 +2742,10 @@
         <v>77</v>
       </c>
       <c r="B81" s="4">
-        <v>17840</v>
+        <v>7418</v>
       </c>
       <c r="C81" s="4">
-        <v>665</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2753,10 +2753,10 @@
         <v>78</v>
       </c>
       <c r="B82" s="4">
-        <v>18505</v>
+        <v>7608</v>
       </c>
       <c r="C82" s="4">
-        <v>682</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2764,10 +2764,10 @@
         <v>79</v>
       </c>
       <c r="B83" s="4">
-        <v>19187</v>
+        <v>7800</v>
       </c>
       <c r="C83" s="4">
-        <v>698</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2775,10 +2775,10 @@
         <v>80</v>
       </c>
       <c r="B84" s="4">
-        <v>19885</v>
+        <v>7995</v>
       </c>
       <c r="C84" s="4">
-        <v>715</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2786,10 +2786,10 @@
         <v>81</v>
       </c>
       <c r="B85" s="4">
-        <v>20600</v>
+        <v>8192</v>
       </c>
       <c r="C85" s="4">
-        <v>732</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2797,10 +2797,10 @@
         <v>82</v>
       </c>
       <c r="B86" s="4">
-        <v>21332</v>
+        <v>8392</v>
       </c>
       <c r="C86" s="4">
-        <v>749</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2808,10 +2808,10 @@
         <v>83</v>
       </c>
       <c r="B87" s="4">
-        <v>22081</v>
+        <v>8594</v>
       </c>
       <c r="C87" s="4">
-        <v>766</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2819,10 +2819,10 @@
         <v>84</v>
       </c>
       <c r="B88" s="4">
-        <v>22847</v>
+        <v>8798</v>
       </c>
       <c r="C88" s="4">
-        <v>784</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2830,10 +2830,10 @@
         <v>85</v>
       </c>
       <c r="B89" s="4">
-        <v>23631</v>
+        <v>9005</v>
       </c>
       <c r="C89" s="4">
-        <v>802</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2841,10 +2841,10 @@
         <v>86</v>
       </c>
       <c r="B90" s="4">
-        <v>24433</v>
+        <v>9214</v>
       </c>
       <c r="C90" s="4">
-        <v>820</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2852,10 +2852,10 @@
         <v>87</v>
       </c>
       <c r="B91" s="4">
-        <v>25253</v>
+        <v>9426</v>
       </c>
       <c r="C91" s="4">
-        <v>838</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2863,10 +2863,10 @@
         <v>88</v>
       </c>
       <c r="B92" s="4">
-        <v>26091</v>
+        <v>9640</v>
       </c>
       <c r="C92" s="4">
-        <v>856</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2874,10 +2874,10 @@
         <v>89</v>
       </c>
       <c r="B93" s="4">
-        <v>26947</v>
+        <v>9856</v>
       </c>
       <c r="C93" s="4">
-        <v>875</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2885,10 +2885,10 @@
         <v>90</v>
       </c>
       <c r="B94" s="4">
-        <v>27822</v>
+        <v>10075</v>
       </c>
       <c r="C94" s="4">
-        <v>894</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2896,10 +2896,10 @@
         <v>91</v>
       </c>
       <c r="B95" s="4">
-        <v>28716</v>
+        <v>10296</v>
       </c>
       <c r="C95" s="4">
-        <v>913</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2907,10 +2907,10 @@
         <v>92</v>
       </c>
       <c r="B96" s="4">
-        <v>29629</v>
+        <v>10520</v>
       </c>
       <c r="C96" s="4">
-        <v>932</v>
+        <v>226</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2918,10 +2918,10 @@
         <v>93</v>
       </c>
       <c r="B97" s="4">
-        <v>30561</v>
+        <v>10746</v>
       </c>
       <c r="C97" s="4">
-        <v>951</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2929,10 +2929,10 @@
         <v>94</v>
       </c>
       <c r="B98" s="4">
-        <v>31512</v>
+        <v>10974</v>
       </c>
       <c r="C98" s="4">
-        <v>971</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2940,10 +2940,10 @@
         <v>95</v>
       </c>
       <c r="B99" s="4">
-        <v>32483</v>
+        <v>11205</v>
       </c>
       <c r="C99" s="4">
-        <v>991</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2951,10 +2951,10 @@
         <v>96</v>
       </c>
       <c r="B100" s="4">
-        <v>33474</v>
+        <v>11438</v>
       </c>
       <c r="C100" s="4">
-        <v>1011</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2962,10 +2962,10 @@
         <v>97</v>
       </c>
       <c r="B101" s="4">
-        <v>34485</v>
+        <v>11674</v>
       </c>
       <c r="C101" s="4">
-        <v>1031</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2973,10 +2973,10 @@
         <v>98</v>
       </c>
       <c r="B102" s="4">
-        <v>35516</v>
+        <v>11912</v>
       </c>
       <c r="C102" s="4">
-        <v>1051</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2984,10 +2984,10 @@
         <v>99</v>
       </c>
       <c r="B103" s="4">
-        <v>36567</v>
+        <v>12152</v>
       </c>
       <c r="C103" s="4">
-        <v>1072</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2995,10 +2995,10 @@
         <v>100</v>
       </c>
       <c r="B104" s="4">
-        <v>37639</v>
+        <v>12395</v>
       </c>
       <c r="C104" s="4">
-        <v>1093</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/LevelData.xlsx
+++ b/Android/ExcelData/LevelData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FA1293-B997-44D8-AF6E-8B676B354BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0A9AFB-7F9B-45D5-BB4B-9A08E99EFDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41220" yWindow="1470" windowWidth="34695" windowHeight="18915" activeTab="1" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
+    <workbookView xWindow="43470" yWindow="2760" windowWidth="26790" windowHeight="16500" xr2:uid="{7EF96781-D8C1-4243-85E2-DB2780380B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="!Info" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>레벨</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,57 @@
   </si>
   <si>
     <t>호감도 랭크(인연 랭크)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드 3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드 3_2</t>
+  </si>
+  <si>
+    <t>하드 3_3</t>
+  </si>
+  <si>
+    <t>하드 3_4</t>
+  </si>
+  <si>
+    <t>하드 3_5</t>
+  </si>
+  <si>
+    <t>하드 3_6</t>
+  </si>
+  <si>
+    <t>하드 3_7</t>
+  </si>
+  <si>
+    <t>하드 3_8</t>
+  </si>
+  <si>
+    <t>하드 3_9</t>
+  </si>
+  <si>
+    <t>하드 3_10</t>
+  </si>
+  <si>
+    <t>잔여 exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀 3-15 이후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지급량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반복 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,22 +714,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824EB500-B293-4A38-B5AC-B4FDB4A65828}">
-  <dimension ref="B4:B5"/>
+  <dimension ref="B4:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:6">
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:6">
       <c r="B5" s="7" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <f>D9+C11-'user level'!C23</f>
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <f>D11/C11*-1</f>
+        <v>-0.10909090909090909</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11:F20" si="0">IF(ROUNDUP(D11/C11*-1,0)&lt;=0,1,ROUNDUP(D11/C11*-1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <f>D11+C12-'user level'!C24</f>
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E20" si="1">D12/C12*-1</f>
+        <v>-6.6666666666666666E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <f>D12+C13-'user level'!C25</f>
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-3.0769230769230771E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <f>D13+C14-'user level'!C26</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="D15">
+        <f>D14+C15-'user level'!C27</f>
+        <v>-3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
+      </c>
+      <c r="D16">
+        <f>D15+C16-'user level'!C28</f>
+        <v>-6</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <f>D16+C17-'user level'!C29</f>
+        <v>-10</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
+      </c>
+      <c r="D18">
+        <f>D17+C18-'user level'!C30</f>
+        <v>-15</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>95</v>
+      </c>
+      <c r="D19">
+        <f>D18+C19-'user level'!C31</f>
+        <v>-21</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0.22105263157894736</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <f>D19+C20-'user level'!C32</f>
+        <v>-29</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -691,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2A59B9-3298-4E12-A5E8-BD15BB140FCC}">
   <dimension ref="A1:C104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
